--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/46_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/46_225-80R17.xlsx
@@ -1118,100 +1118,100 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01169908508675569</v>
+        <v>0.01931412869773687</v>
       </c>
       <c r="AZ2">
-        <v>0.1400648186970125</v>
+        <v>0.1215114333894406</v>
       </c>
       <c r="BA2">
-        <v>0.221503629922292</v>
+        <v>0.1863482614933469</v>
       </c>
       <c r="BB2">
-        <v>0.05658193235413762</v>
+        <v>0.05504723198480699</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.007553392050562259</v>
       </c>
       <c r="BD2">
-        <v>0.03583186884663547</v>
+        <v>0.03852724255299372</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>3.058851987635474E-05</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.007971447058344103</v>
       </c>
       <c r="BG2">
-        <v>0.1073515387135862</v>
+        <v>0.09546702926456835</v>
       </c>
       <c r="BH2">
-        <v>0.1141993615990322</v>
+        <v>0.1009188661544938</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>0.003767960376445421</v>
       </c>
       <c r="BJ2">
-        <v>0.0675280785087365</v>
+        <v>0.06376191465205176</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.001998189155783188</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>0.001160463016259263</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>5.502053308431576E-08</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.0008378434575053141</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.0003577230679116021</v>
       </c>
       <c r="BP2">
-        <v>0.04562151378935717</v>
+        <v>0.046321186457623</v>
       </c>
       <c r="BQ2">
-        <v>0.04186927658718925</v>
+        <v>0.04333387420659979</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.003520379048986592</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.0001934555480993078</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.00875364166791252</v>
       </c>
       <c r="BU2">
-        <v>0.000515615211693797</v>
+        <v>0.01041050273629206</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>0.005942318177532123</v>
       </c>
       <c r="BW2">
-        <v>0.03136292906256586</v>
+        <v>0.0349693335385202</v>
       </c>
       <c r="BX2">
-        <v>0.02932412692187335</v>
+        <v>0.03334615827423143</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>0.001789122465852705</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>0.005950471056826856</v>
       </c>
       <c r="CA2">
-        <v>0.0302412794036969</v>
+        <v>0.03407634154820591</v>
       </c>
       <c r="CB2">
-        <v>0.06630494529543526</v>
+        <v>0.06278812737905712</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>0.002278177883724634</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>0.001753140097875775</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -1375,100 +1375,100 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.2118252094171891</v>
+        <v>0.1770325253153097</v>
       </c>
       <c r="BA3">
-        <v>0.1213012370031788</v>
+        <v>0.1056508056631133</v>
       </c>
       <c r="BB3">
-        <v>0.0902609873760517</v>
+        <v>0.08117434558594978</v>
       </c>
       <c r="BC3">
-        <v>0.02046916279139346</v>
+        <v>0.0261407415177052</v>
       </c>
       <c r="BD3">
-        <v>0.01163227910265158</v>
+        <v>0.01917251048179882</v>
       </c>
       <c r="BE3">
-        <v>0.003819242365604936</v>
+        <v>0.01301162311546117</v>
       </c>
       <c r="BF3">
-        <v>0.007103059428075154</v>
+        <v>0.01560104227915299</v>
       </c>
       <c r="BG3">
-        <v>0.02962138528810934</v>
+        <v>0.03335762963069289</v>
       </c>
       <c r="BH3">
-        <v>0.1527187670794597</v>
+        <v>0.1304247662424487</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>0.002885643278699862</v>
       </c>
       <c r="BJ3">
-        <v>0.1446651493192087</v>
+        <v>0.1240741712584043</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>0.005111049723666163</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>0.002378264442743895</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.004126563064210185</v>
       </c>
       <c r="BN3">
-        <v>0.02013584319265973</v>
+        <v>0.02587790587851586</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.0002537737849732792</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.006507720598429709</v>
       </c>
       <c r="BQ3">
-        <v>0.1008295973594615</v>
+        <v>0.08950811104974203</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>0.003911676330445043</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>0.0004111849689746893</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.0002383405210266792</v>
       </c>
       <c r="BU3">
-        <v>0.007960845521898694</v>
+        <v>0.01627744041809931</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>0.0001083053783469313</v>
       </c>
       <c r="BW3">
-        <v>0.001441835309274592</v>
+        <v>0.01113694396176706</v>
       </c>
       <c r="BX3">
-        <v>0.01601459877792157</v>
+        <v>0.02262814224589949</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>2.055499349509041E-05</v>
       </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>0.003780555101202033</v>
       </c>
       <c r="CA3">
-        <v>0.01405616296515074</v>
+        <v>0.02108383842873301</v>
       </c>
       <c r="CB3">
-        <v>0.04585825764291266</v>
+        <v>0.04616104335140681</v>
       </c>
       <c r="CC3">
-        <v>0.0002863800597977742</v>
+        <v>0.01022582196292681</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>2.562683294540136E-06</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>0.00172439674336459</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -1629,100 +1629,100 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.2903675464576127</v>
+        <v>0.2410038997388062</v>
       </c>
       <c r="BA4">
-        <v>0.09241357457135101</v>
+        <v>0.08352025519112682</v>
       </c>
       <c r="BB4">
-        <v>0.08012805543181413</v>
+        <v>0.07374642589728372</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>0.003153492639309745</v>
       </c>
       <c r="BD4">
-        <v>0.01426090088068398</v>
+        <v>0.02134535783153533</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.006693466125327056</v>
       </c>
       <c r="BF4">
-        <v>0.003859279275619818</v>
+        <v>0.01307027618521918</v>
       </c>
       <c r="BG4">
-        <v>0.0302961638501847</v>
+        <v>0.03410232163304154</v>
       </c>
       <c r="BH4">
-        <v>0.2453382697471496</v>
+        <v>0.2051805487843522</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.002837697819136812</v>
       </c>
       <c r="BJ4">
-        <v>0.02014417231108205</v>
+        <v>0.02602583490352193</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>0.0006017001486521303</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.003958906295385767</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.0009364846329387101</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.0006667875383088285</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.0009246549418626816</v>
       </c>
       <c r="BP4">
-        <v>0.04263930294877737</v>
+        <v>0.04392199088182128</v>
       </c>
       <c r="BQ4">
-        <v>0.05431769664521981</v>
+        <v>0.05321281735149738</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.00155327522561517</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.0007149800494981117</v>
       </c>
       <c r="BT4">
-        <v>0.008404169445457601</v>
+        <v>0.01668599483534166</v>
       </c>
       <c r="BU4">
-        <v>0.00246832482367199</v>
+        <v>0.01196369279916606</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>0.003450536833639765</v>
       </c>
       <c r="BW4">
-        <v>0.02019356626116316</v>
+        <v>0.02606513060041175</v>
       </c>
       <c r="BX4">
-        <v>0.03419885182367111</v>
+        <v>0.03720713190656397</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>0.0009136270630908961</v>
       </c>
       <c r="BZ4">
-        <v>0.002717332886129339</v>
+        <v>0.01216179287679457</v>
       </c>
       <c r="CA4">
-        <v>0.003639270421213768</v>
+        <v>0.01289524662711296</v>
       </c>
       <c r="CB4">
-        <v>0.05461352221919793</v>
+        <v>0.05344816342258936</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>0.003943600851581564</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>0.003859292477584374</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>0.0002346158918825823</v>
       </c>
       <c r="CF4">
         <v>0</v>
@@ -1880,100 +1880,100 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.1447147678894728</v>
+        <v>0.12259226340673</v>
       </c>
       <c r="AZ5">
-        <v>0.2095232333140662</v>
+        <v>0.1730151187689752</v>
       </c>
       <c r="BA5">
-        <v>0.03000574426030277</v>
+        <v>0.03334533448618928</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.002529429319818048</v>
       </c>
       <c r="BC5">
-        <v>0.001014205139596615</v>
+        <v>0.01078908085118954</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.002104417128097222</v>
       </c>
       <c r="BE5">
-        <v>0.000377294503731268</v>
+        <v>0.0102935460061579</v>
       </c>
       <c r="BF5">
-        <v>0.2934178043198112</v>
+        <v>0.2382875147713502</v>
       </c>
       <c r="BG5">
-        <v>0.0176527770475996</v>
+        <v>0.02373436969972293</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.001198013995096228</v>
       </c>
       <c r="BI5">
-        <v>0.02111485564428598</v>
+        <v>0.02642796670421545</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.00537893555085181</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.0008895272503222188</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.0002222255039412743</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.001457107336120871</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.006610565767709532</v>
       </c>
       <c r="BO5">
-        <v>0.0884377788147112</v>
+        <v>0.0788071427168867</v>
       </c>
       <c r="BP5">
-        <v>0.02250680224545499</v>
+        <v>0.02751094130765483</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.006586060596659176</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.007806662139736267</v>
       </c>
       <c r="BS5">
-        <v>0.006383784528119938</v>
+        <v>0.01496676848952175</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.009309431316637487</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.007620170481609819</v>
       </c>
       <c r="BV5">
-        <v>0.04515489243601162</v>
+        <v>0.04513180871174807</v>
       </c>
       <c r="BW5">
-        <v>0.0295045156024546</v>
+        <v>0.03295536413351217</v>
       </c>
       <c r="BX5">
-        <v>0.003267317389775488</v>
+        <v>0.01254206716804438</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>0.005386437481694538</v>
       </c>
       <c r="BZ5">
-        <v>0.03531068672789739</v>
+        <v>0.03747273273572489</v>
       </c>
       <c r="CA5">
-        <v>0.05161354013670835</v>
+        <v>0.05015682290880305</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>5.304709386056776E-06</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>0.004848428101123767</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>1.844045476912291E-05</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -1993,46 +1993,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01554778938488094</v>
+        <v>0.0217553752128143</v>
       </c>
       <c r="E6">
-        <v>0.07627533438682918</v>
+        <v>0.06902511556769463</v>
       </c>
       <c r="F6">
-        <v>0.07785578658018966</v>
+        <v>0.07025532444277847</v>
       </c>
       <c r="G6">
-        <v>0.03004181105649005</v>
+        <v>0.03303738309067255</v>
       </c>
       <c r="H6">
-        <v>0.02623931363047735</v>
+        <v>0.03007755545361008</v>
       </c>
       <c r="I6">
-        <v>0.01029562249631879</v>
+        <v>0.01766713872779143</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0003629590743921658</v>
       </c>
       <c r="K6">
-        <v>0.0320846165763644</v>
+        <v>0.03462748337410865</v>
       </c>
       <c r="L6">
-        <v>0.110397036961828</v>
+        <v>0.09558512258156118</v>
       </c>
       <c r="M6">
-        <v>0.1944015444430192</v>
+        <v>0.1609734279567929</v>
       </c>
       <c r="N6">
-        <v>0.02034155678524004</v>
+        <v>0.02548679791941959</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.00894049365923141</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.007807440103398224</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.006242561886682177</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2044,49 +2044,49 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1199381325222844</v>
+        <v>0.1030118201342024</v>
       </c>
       <c r="V6">
-        <v>0.05972304180828268</v>
+        <v>0.05614096929698989</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.0003597194672962442</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.001394014123595381</v>
       </c>
       <c r="Y6">
-        <v>0.04371996637768488</v>
+        <v>0.04368432840265349</v>
       </c>
       <c r="Z6">
-        <v>0.001230620024873953</v>
+        <v>0.0106110274832516</v>
       </c>
       <c r="AA6">
-        <v>0.008395325830816884</v>
+        <v>0.01618796597393422</v>
       </c>
       <c r="AB6">
-        <v>0.04163715475905694</v>
+        <v>0.04206308775448449</v>
       </c>
       <c r="AC6">
-        <v>0.0292362118850452</v>
+        <v>0.03241031239873064</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01061980195399432</v>
+        <v>0.01791947691785357</v>
       </c>
       <c r="AF6">
-        <v>0.05076937658455457</v>
+        <v>0.04917152190146993</v>
       </c>
       <c r="AG6">
-        <v>0.04124995595176859</v>
+        <v>0.04176169590527253</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.002850708714063321</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.0005891724752545868</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2391,100 +2391,100 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.248646236577339</v>
+        <v>0.2097749489722505</v>
       </c>
       <c r="BA7">
-        <v>0.02053944227660326</v>
+        <v>0.02650242565183817</v>
       </c>
       <c r="BB7">
-        <v>0.243967333925498</v>
+        <v>0.2060156821866987</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>0.0006881006929648095</v>
       </c>
       <c r="BD7">
-        <v>0.001842083316743945</v>
+        <v>0.01148002280537511</v>
       </c>
       <c r="BE7">
-        <v>0.008004069135201408</v>
+        <v>0.01643087353770532</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>0.00211914773275798</v>
       </c>
       <c r="BG7">
-        <v>0.08208894297696426</v>
+        <v>0.07595440421760886</v>
       </c>
       <c r="BH7">
-        <v>0.09036085334433518</v>
+        <v>0.08260047493354571</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>0.0001358454225894906</v>
       </c>
       <c r="BJ7">
-        <v>0.06390674687195509</v>
+        <v>0.06134590923662069</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>0.004523140478048888</v>
       </c>
       <c r="BL7">
-        <v>0.005666854408060633</v>
+        <v>0.01455303714139007</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>0.0003738105332241865</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>6.955732671061785E-07</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>0.000242134774628991</v>
       </c>
       <c r="BP7">
-        <v>0.04357249446735258</v>
+        <v>0.04500834349488142</v>
       </c>
       <c r="BQ7">
-        <v>0.08545283046142747</v>
+        <v>0.07865712137837315</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>0.003389911213457239</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>3.309225689218977E-06</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>0.0007461256320483495</v>
       </c>
       <c r="BU7">
-        <v>0.008464279139543934</v>
+        <v>0.01680062950666587</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>7.108348247017542E-05</v>
       </c>
       <c r="BW7">
-        <v>0.01877732910561811</v>
+        <v>0.02508665490194631</v>
       </c>
       <c r="BX7">
-        <v>0.01717248125714321</v>
+        <v>0.02379723905777134</v>
       </c>
       <c r="BY7">
-        <v>0</v>
+        <v>1.33647805117256E-05</v>
       </c>
       <c r="BZ7">
-        <v>0.005193163531094706</v>
+        <v>0.0141724499582615</v>
       </c>
       <c r="CA7">
-        <v>0.003097154298618775</v>
+        <v>0.01248841024293284</v>
       </c>
       <c r="CB7">
-        <v>0.05288847203564707</v>
+        <v>0.05249327055008656</v>
       </c>
       <c r="CC7">
-        <v>0.0003592328708533232</v>
+        <v>0.01028862583818579</v>
       </c>
       <c r="CD7">
-        <v>0</v>
+        <v>0.001504489231464138</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>0.002738317614739813</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -2648,100 +2648,100 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.1802872163092339</v>
+        <v>0.1531198011363544</v>
       </c>
       <c r="BB8">
-        <v>0.2060829295994842</v>
+        <v>0.1735975556430223</v>
       </c>
       <c r="BC8">
-        <v>0.0562889233865537</v>
+        <v>0.0546845854419598</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>0.005024276406252455</v>
       </c>
       <c r="BE8">
-        <v>0.01417791462775266</v>
+        <v>0.02125504272344928</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>0.002739396018831559</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>0.004695819772810418</v>
       </c>
       <c r="BH8">
-        <v>0.1660730919872388</v>
+        <v>0.1418360135892549</v>
       </c>
       <c r="BI8">
-        <v>0.06464225586342472</v>
+        <v>0.06131582257230091</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>0.0006771916208282025</v>
       </c>
       <c r="BK8">
-        <v>0.06368034218719085</v>
+        <v>0.06055221383247324</v>
       </c>
       <c r="BL8">
-        <v>0</v>
+        <v>5.147006401317665E-05</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>0.004807396556970223</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>0.0004087438832016647</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.002912990946527184</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>0.004380845924566897</v>
       </c>
       <c r="BQ8">
-        <v>0.1012635239800099</v>
+        <v>0.09038737139036505</v>
       </c>
       <c r="BR8">
-        <v>0.04743805909984256</v>
+        <v>0.04765838601123466</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>1.070234529077938E-05</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>3.046611762057633E-05</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>0.003789873315934324</v>
       </c>
       <c r="BV8">
-        <v>0.001505192393448916</v>
+        <v>0.01119488691673437</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>0.007369525192692849</v>
       </c>
       <c r="BX8">
-        <v>0.03165479246708577</v>
+        <v>0.03512894533315752</v>
       </c>
       <c r="BY8">
-        <v>0.001424811292677242</v>
+        <v>0.01113107691737295</v>
       </c>
       <c r="BZ8">
-        <v>0</v>
+        <v>0.007440067791137229</v>
       </c>
       <c r="CA8">
-        <v>0.00326868407805952</v>
+        <v>0.01259482299858155</v>
       </c>
       <c r="CB8">
-        <v>0.02031993604764065</v>
+        <v>0.0261308453576296</v>
       </c>
       <c r="CC8">
-        <v>0.04189232668035682</v>
+        <v>0.04325594341280412</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>8.743168862976391E-05</v>
       </c>
       <c r="CE8">
-        <v>0</v>
+        <v>0.008639730831907092</v>
       </c>
       <c r="CF8">
-        <v>0</v>
+        <v>0.00309075824609107</v>
       </c>
     </row>
     <row r="9" spans="1:84">
@@ -2896,100 +2896,100 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.1620722380879644</v>
+        <v>0.1363943332379567</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>0.00165027143064188</v>
       </c>
       <c r="BA9">
-        <v>0.2494119486486678</v>
+        <v>0.2045074450932066</v>
       </c>
       <c r="BB9">
-        <v>0.01949745000276986</v>
+        <v>0.02520536288024209</v>
       </c>
       <c r="BC9">
-        <v>0.02150761598114348</v>
+        <v>0.0267730193248718</v>
       </c>
       <c r="BD9">
-        <v>0.0009184845576072717</v>
+        <v>0.01071629320738523</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>0.006027189300525428</v>
       </c>
       <c r="BF9">
-        <v>0.007894696390500309</v>
+        <v>0.0161567909357296</v>
       </c>
       <c r="BG9">
-        <v>0.2612681790950033</v>
+        <v>0.2137536945413496</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>0.0002676451991599038</v>
       </c>
       <c r="BI9">
-        <v>0.01973532954980344</v>
+        <v>0.02539087661839345</v>
       </c>
       <c r="BJ9">
-        <v>0.04375557758277732</v>
+        <v>0.04412340768080945</v>
       </c>
       <c r="BK9">
-        <v>3.307974707200443E-05</v>
+        <v>0.0100257977098618</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>0.001856570574066597</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>6.247010157099138E-05</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>1.739008917787886E-05</v>
       </c>
       <c r="BO9">
-        <v>0.01129511289359721</v>
+        <v>0.01880865396736743</v>
       </c>
       <c r="BP9">
-        <v>0.09911712980818202</v>
+        <v>0.08729789927233374</v>
       </c>
       <c r="BQ9">
-        <v>0.009913532036304268</v>
+        <v>0.01773120854345041</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>0.0009132540685838281</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>8.705848211694421E-05</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>0.006716805787521219</v>
       </c>
       <c r="BU9">
-        <v>0</v>
+        <v>0.002841896802101946</v>
       </c>
       <c r="BV9">
-        <v>0.009643230620957051</v>
+        <v>0.01752041015151641</v>
       </c>
       <c r="BW9">
-        <v>0.02819729010721329</v>
+        <v>0.03199005655912589</v>
       </c>
       <c r="BX9">
-        <v>0</v>
+        <v>0.004130753651166834</v>
       </c>
       <c r="BY9">
-        <v>0.005306779108821987</v>
+        <v>0.01413856694406001</v>
       </c>
       <c r="BZ9">
-        <v>0.004449658612828476</v>
+        <v>0.01347012937033508</v>
       </c>
       <c r="CA9">
-        <v>0.03790966571695284</v>
+        <v>0.03956439041069738</v>
       </c>
       <c r="CB9">
-        <v>0.008073001451833843</v>
+        <v>0.01629584466637515</v>
       </c>
       <c r="CC9">
-        <v>0</v>
+        <v>0.0006352557074295419</v>
       </c>
       <c r="CD9">
-        <v>0</v>
+        <v>0.004929257690869231</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -3150,100 +3150,100 @@
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>0.02397524896504947</v>
+        <v>0.02911752290850659</v>
       </c>
       <c r="AZ10">
-        <v>0.1277355717932958</v>
+        <v>0.1118545302094418</v>
       </c>
       <c r="BA10">
-        <v>0.1804891361387987</v>
+        <v>0.1539194729489614</v>
       </c>
       <c r="BB10">
-        <v>0.07580648532642183</v>
+        <v>0.0704470144169887</v>
       </c>
       <c r="BC10">
-        <v>0.02008679577656822</v>
+        <v>0.02601692557924368</v>
       </c>
       <c r="BD10">
-        <v>0.01542668853355814</v>
+        <v>0.02230102226978418</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>0.004389557471772889</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>0.00395843912850906</v>
       </c>
       <c r="BG10">
-        <v>0.2211844693091902</v>
+        <v>0.1863693534606677</v>
       </c>
       <c r="BH10">
-        <v>0.03109397128761813</v>
+        <v>0.03479389095287584</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1.366743079592133E-05</v>
       </c>
       <c r="BJ10">
-        <v>0.08892668326734182</v>
+        <v>0.08090887385650176</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>0.001149684392044039</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>0.0001226335174826951</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>0.000432193029307977</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>0.0001529796839896732</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>0.002198027423271076</v>
       </c>
       <c r="BP10">
-        <v>0.06837967447538031</v>
+        <v>0.06452498095702713</v>
       </c>
       <c r="BQ10">
-        <v>0.05667403215435154</v>
+        <v>0.05519106807223178</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>2.554117349191121E-05</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>0.0002321652025818213</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>0.00123576521103413</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>0.008923864520581725</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>0.006176453239384818</v>
       </c>
       <c r="BW10">
-        <v>0.02666699394912046</v>
+        <v>0.03126388211719933</v>
       </c>
       <c r="BX10">
-        <v>0.0008724034059615667</v>
+        <v>0.01069564208168359</v>
       </c>
       <c r="BY10">
-        <v>0</v>
+        <v>0.009350209734554579</v>
       </c>
       <c r="BZ10">
-        <v>0.008489100919865341</v>
+        <v>0.01676908846889278</v>
       </c>
       <c r="CA10">
-        <v>0.02528170826520216</v>
+        <v>0.0301592749935886</v>
       </c>
       <c r="CB10">
-        <v>0.02891103643227625</v>
+        <v>0.03305324971216914</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>0.001239057004555719</v>
       </c>
       <c r="CD10">
-        <v>0</v>
+        <v>0.003013968830877845</v>
       </c>
       <c r="CE10">
         <v>0</v>
@@ -3404,100 +3404,100 @@
         <v>0</v>
       </c>
       <c r="AY11">
-        <v>0.2655750851891226</v>
+        <v>0.2166427095571402</v>
       </c>
       <c r="AZ11">
-        <v>0.02040051254221243</v>
+        <v>0.02587354169565701</v>
       </c>
       <c r="BA11">
-        <v>0.05105206385568412</v>
+        <v>0.04972336786076948</v>
       </c>
       <c r="BB11">
-        <v>0.03603711704150486</v>
+        <v>0.0380403092209546</v>
       </c>
       <c r="BC11">
-        <v>0.07248050285425095</v>
+        <v>0.06639673423883327</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>0.002258907753468294</v>
       </c>
       <c r="BE11">
-        <v>0.02345525368295265</v>
+        <v>0.02825042123565116</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>0.006930693493954745</v>
       </c>
       <c r="BG11">
-        <v>0.3240774745706412</v>
+        <v>0.262163140243456</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>4.602771276486441E-06</v>
       </c>
       <c r="BI11">
-        <v>0.0002203351367747407</v>
+        <v>0.01017144172105359</v>
       </c>
       <c r="BJ11">
-        <v>0.03728865551046111</v>
+        <v>0.03901412534589698</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>0.008086357160708862</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>0.007038111628500458</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>0.0008236029168925242</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.006857135197354447</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.009655647613200745</v>
       </c>
       <c r="BP11">
-        <v>0.08305695454064592</v>
+        <v>0.07462622094847871</v>
       </c>
       <c r="BQ11">
-        <v>0.01046370388850564</v>
+        <v>0.01814175818482596</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.001499140815656805</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>0.001825979613414072</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.003214630613427209</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>0.0005805291940794148</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>0.00925028626785669</v>
       </c>
       <c r="BW11">
-        <v>0.01311264683978949</v>
+        <v>0.02020288808534271</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>0.0003455230319124467</v>
       </c>
       <c r="BY11">
-        <v>0.003966835690061005</v>
+        <v>0.01308657596693769</v>
       </c>
       <c r="BZ11">
-        <v>0.02362651315002698</v>
+        <v>0.02838367741172788</v>
       </c>
       <c r="CA11">
-        <v>0.0351863455073663</v>
+        <v>0.03737832794020576</v>
       </c>
       <c r="CB11">
-        <v>0</v>
+        <v>0.006720905818681001</v>
       </c>
       <c r="CC11">
-        <v>0</v>
+        <v>0.0006607264062746197</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>0.006151980046410358</v>
       </c>
       <c r="CE11">
         <v>0</v>
@@ -3925,106 +3925,106 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01169908508675569</v>
+        <v>0.01931412869773687</v>
       </c>
       <c r="AZ2">
-        <v>0.1517639037837682</v>
+        <v>0.1408255620871775</v>
       </c>
       <c r="BA2">
-        <v>0.3732675337060602</v>
+        <v>0.3271738235805244</v>
       </c>
       <c r="BB2">
-        <v>0.4298494660601978</v>
+        <v>0.3822210555653314</v>
       </c>
       <c r="BC2">
-        <v>0.4298494660601978</v>
+        <v>0.3897744476158936</v>
       </c>
       <c r="BD2">
-        <v>0.4656813349068333</v>
+        <v>0.4283016901688874</v>
       </c>
       <c r="BE2">
-        <v>0.4656813349068333</v>
+        <v>0.4283322786887637</v>
       </c>
       <c r="BF2">
-        <v>0.4656813349068333</v>
+        <v>0.4363037257471079</v>
       </c>
       <c r="BG2">
-        <v>0.5730328736204194</v>
+        <v>0.5317707550116761</v>
       </c>
       <c r="BH2">
-        <v>0.6872322352194516</v>
+        <v>0.63268962116617</v>
       </c>
       <c r="BI2">
-        <v>0.6872322352194516</v>
+        <v>0.6364575815426154</v>
       </c>
       <c r="BJ2">
-        <v>0.7547603137281882</v>
+        <v>0.7002194961946672</v>
       </c>
       <c r="BK2">
-        <v>0.7547603137281882</v>
+        <v>0.7022176853504504</v>
       </c>
       <c r="BL2">
-        <v>0.7547603137281882</v>
+        <v>0.7033781483667096</v>
       </c>
       <c r="BM2">
-        <v>0.7547603137281882</v>
+        <v>0.7033782033872428</v>
       </c>
       <c r="BN2">
-        <v>0.7547603137281882</v>
+        <v>0.704216046844748</v>
       </c>
       <c r="BO2">
-        <v>0.7547603137281882</v>
+        <v>0.7045737699126596</v>
       </c>
       <c r="BP2">
-        <v>0.8003818275175454</v>
+        <v>0.7508949563702826</v>
       </c>
       <c r="BQ2">
-        <v>0.8422511041047347</v>
+        <v>0.7942288305768824</v>
       </c>
       <c r="BR2">
-        <v>0.8422511041047347</v>
+        <v>0.797749209625869</v>
       </c>
       <c r="BS2">
-        <v>0.8422511041047347</v>
+        <v>0.7979426651739684</v>
       </c>
       <c r="BT2">
-        <v>0.8422511041047347</v>
+        <v>0.8066963068418809</v>
       </c>
       <c r="BU2">
-        <v>0.8427667193164284</v>
+        <v>0.8171068095781729</v>
       </c>
       <c r="BV2">
-        <v>0.8427667193164284</v>
+        <v>0.823049127755705</v>
       </c>
       <c r="BW2">
-        <v>0.8741296483789943</v>
+        <v>0.8580184612942252</v>
       </c>
       <c r="BX2">
-        <v>0.9034537753008677</v>
+        <v>0.8913646195684566</v>
       </c>
       <c r="BY2">
-        <v>0.9034537753008677</v>
+        <v>0.8931537420343093</v>
       </c>
       <c r="BZ2">
-        <v>0.9034537753008677</v>
+        <v>0.8991042130911362</v>
       </c>
       <c r="CA2">
-        <v>0.9336950547045646</v>
+        <v>0.9331805546393421</v>
       </c>
       <c r="CB2">
-        <v>0.9999999999999999</v>
+        <v>0.9959686820183993</v>
       </c>
       <c r="CC2">
-        <v>0.9999999999999999</v>
+        <v>0.9982468599021239</v>
       </c>
       <c r="CD2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:84">
@@ -4182,103 +4182,103 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.2118252094171891</v>
+        <v>0.1770325253153097</v>
       </c>
       <c r="BA3">
-        <v>0.3331264464203679</v>
+        <v>0.282683330978423</v>
       </c>
       <c r="BB3">
-        <v>0.4233874337964196</v>
+        <v>0.3638576765643728</v>
       </c>
       <c r="BC3">
-        <v>0.4438565965878131</v>
+        <v>0.389998418082078</v>
       </c>
       <c r="BD3">
-        <v>0.4554888756904646</v>
+        <v>0.4091709285638768</v>
       </c>
       <c r="BE3">
-        <v>0.4593081180560696</v>
+        <v>0.4221825516793379</v>
       </c>
       <c r="BF3">
-        <v>0.4664111774841447</v>
+        <v>0.4377835939584909</v>
       </c>
       <c r="BG3">
-        <v>0.496032562772254</v>
+        <v>0.4711412235891838</v>
       </c>
       <c r="BH3">
-        <v>0.6487513298517138</v>
+        <v>0.6015659898316325</v>
       </c>
       <c r="BI3">
-        <v>0.6487513298517138</v>
+        <v>0.6044516331103323</v>
       </c>
       <c r="BJ3">
-        <v>0.7934164791709225</v>
+        <v>0.7285258043687366</v>
       </c>
       <c r="BK3">
-        <v>0.7934164791709225</v>
+        <v>0.7336368540924028</v>
       </c>
       <c r="BL3">
-        <v>0.7934164791709225</v>
+        <v>0.7360151185351467</v>
       </c>
       <c r="BM3">
-        <v>0.7934164791709225</v>
+        <v>0.7401416815993569</v>
       </c>
       <c r="BN3">
-        <v>0.8135523223635822</v>
+        <v>0.7660195874778728</v>
       </c>
       <c r="BO3">
-        <v>0.8135523223635822</v>
+        <v>0.7662733612628461</v>
       </c>
       <c r="BP3">
-        <v>0.8135523223635822</v>
+        <v>0.7727810818612758</v>
       </c>
       <c r="BQ3">
-        <v>0.9143819197230437</v>
+        <v>0.8622891929110178</v>
       </c>
       <c r="BR3">
-        <v>0.9143819197230437</v>
+        <v>0.8662008692414629</v>
       </c>
       <c r="BS3">
-        <v>0.9143819197230437</v>
+        <v>0.8666120542104376</v>
       </c>
       <c r="BT3">
-        <v>0.9143819197230437</v>
+        <v>0.8668503947314643</v>
       </c>
       <c r="BU3">
-        <v>0.9223427652449424</v>
+        <v>0.8831278351495636</v>
       </c>
       <c r="BV3">
-        <v>0.9223427652449424</v>
+        <v>0.8832361405279106</v>
       </c>
       <c r="BW3">
-        <v>0.923784600554217</v>
+        <v>0.8943730844896776</v>
       </c>
       <c r="BX3">
-        <v>0.9397991993321385</v>
+        <v>0.917001226735577</v>
       </c>
       <c r="BY3">
-        <v>0.9397991993321385</v>
+        <v>0.9170217817290721</v>
       </c>
       <c r="BZ3">
-        <v>0.9397991993321385</v>
+        <v>0.9208023368302741</v>
       </c>
       <c r="CA3">
-        <v>0.9538553622972893</v>
+        <v>0.9418861752590071</v>
       </c>
       <c r="CB3">
-        <v>0.9997136199402019</v>
+        <v>0.9880472186104139</v>
       </c>
       <c r="CC3">
-        <v>0.9999999999999997</v>
+        <v>0.9982730405733407</v>
       </c>
       <c r="CD3">
-        <v>0.9999999999999997</v>
+        <v>0.9982756032566352</v>
       </c>
       <c r="CE3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:84">
@@ -4436,97 +4436,97 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.2903675464576127</v>
+        <v>0.2410038997388062</v>
       </c>
       <c r="BA4">
-        <v>0.3827811210289637</v>
+        <v>0.324524154929933</v>
       </c>
       <c r="BB4">
-        <v>0.4629091764607778</v>
+        <v>0.3982705808272168</v>
       </c>
       <c r="BC4">
-        <v>0.4629091764607778</v>
+        <v>0.4014240734665265</v>
       </c>
       <c r="BD4">
-        <v>0.4771700773414618</v>
+        <v>0.4227694312980619</v>
       </c>
       <c r="BE4">
-        <v>0.4771700773414618</v>
+        <v>0.4294628974233889</v>
       </c>
       <c r="BF4">
-        <v>0.4810293566170816</v>
+        <v>0.4425331736086081</v>
       </c>
       <c r="BG4">
-        <v>0.5113255204672663</v>
+        <v>0.4766354952416497</v>
       </c>
       <c r="BH4">
-        <v>0.7566637902144159</v>
+        <v>0.6818160440260019</v>
       </c>
       <c r="BI4">
-        <v>0.7566637902144159</v>
+        <v>0.6846537418451387</v>
       </c>
       <c r="BJ4">
-        <v>0.7768079625254979</v>
+        <v>0.7106795767486607</v>
       </c>
       <c r="BK4">
-        <v>0.7768079625254979</v>
+        <v>0.7112812768973128</v>
       </c>
       <c r="BL4">
-        <v>0.7768079625254979</v>
+        <v>0.7152401831926986</v>
       </c>
       <c r="BM4">
-        <v>0.7768079625254979</v>
+        <v>0.7161766678256373</v>
       </c>
       <c r="BN4">
-        <v>0.7768079625254979</v>
+        <v>0.7168434553639461</v>
       </c>
       <c r="BO4">
-        <v>0.7768079625254979</v>
+        <v>0.7177681103058088</v>
       </c>
       <c r="BP4">
-        <v>0.8194472654742753</v>
+        <v>0.76169010118763</v>
       </c>
       <c r="BQ4">
-        <v>0.8737649621194951</v>
+        <v>0.8149029185391274</v>
       </c>
       <c r="BR4">
-        <v>0.8737649621194951</v>
+        <v>0.8164561937647427</v>
       </c>
       <c r="BS4">
-        <v>0.8737649621194951</v>
+        <v>0.8171711738142408</v>
       </c>
       <c r="BT4">
-        <v>0.8821691315649527</v>
+        <v>0.8338571686495824</v>
       </c>
       <c r="BU4">
-        <v>0.8846374563886247</v>
+        <v>0.8458208614487485</v>
       </c>
       <c r="BV4">
-        <v>0.8846374563886247</v>
+        <v>0.8492713982823882</v>
       </c>
       <c r="BW4">
-        <v>0.9048310226497879</v>
+        <v>0.8753365288827999</v>
       </c>
       <c r="BX4">
-        <v>0.939029874473459</v>
+        <v>0.9125436607893639</v>
       </c>
       <c r="BY4">
-        <v>0.939029874473459</v>
+        <v>0.9134572878524548</v>
       </c>
       <c r="BZ4">
-        <v>0.9417472073595883</v>
+        <v>0.9256190807292494</v>
       </c>
       <c r="CA4">
-        <v>0.9453864777808021</v>
+        <v>0.9385143273563623</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0.9919624907789517</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>0.9959060916305332</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>0.9997653841081175</v>
       </c>
       <c r="CE4">
         <v>1</v>
@@ -4687,97 +4687,97 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.1447147678894728</v>
+        <v>0.12259226340673</v>
       </c>
       <c r="AZ5">
-        <v>0.354238001203539</v>
+        <v>0.2956073821757052</v>
       </c>
       <c r="BA5">
-        <v>0.3842437454638418</v>
+        <v>0.3289527166618945</v>
       </c>
       <c r="BB5">
-        <v>0.3842437454638418</v>
+        <v>0.3314821459817125</v>
       </c>
       <c r="BC5">
-        <v>0.3852579506034384</v>
+        <v>0.342271226832902</v>
       </c>
       <c r="BD5">
-        <v>0.3852579506034384</v>
+        <v>0.3443756439609992</v>
       </c>
       <c r="BE5">
-        <v>0.3856352451071696</v>
+        <v>0.3546691899671571</v>
       </c>
       <c r="BF5">
-        <v>0.6790530494269809</v>
+        <v>0.5929567047385074</v>
       </c>
       <c r="BG5">
-        <v>0.6967058264745805</v>
+        <v>0.6166910744382303</v>
       </c>
       <c r="BH5">
-        <v>0.6967058264745805</v>
+        <v>0.6178890884333266</v>
       </c>
       <c r="BI5">
-        <v>0.7178206821188664</v>
+        <v>0.644317055137542</v>
       </c>
       <c r="BJ5">
-        <v>0.7178206821188664</v>
+        <v>0.6496959906883938</v>
       </c>
       <c r="BK5">
-        <v>0.7178206821188664</v>
+        <v>0.650585517938716</v>
       </c>
       <c r="BL5">
-        <v>0.7178206821188664</v>
+        <v>0.6508077434426572</v>
       </c>
       <c r="BM5">
-        <v>0.7178206821188664</v>
+        <v>0.6522648507787782</v>
       </c>
       <c r="BN5">
-        <v>0.7178206821188664</v>
+        <v>0.6588754165464877</v>
       </c>
       <c r="BO5">
-        <v>0.8062584609335776</v>
+        <v>0.7376825592633744</v>
       </c>
       <c r="BP5">
-        <v>0.8287652631790325</v>
+        <v>0.7651935005710293</v>
       </c>
       <c r="BQ5">
-        <v>0.8287652631790325</v>
+        <v>0.7717795611676885</v>
       </c>
       <c r="BR5">
-        <v>0.8287652631790325</v>
+        <v>0.7795862233074248</v>
       </c>
       <c r="BS5">
-        <v>0.8351490477071525</v>
+        <v>0.7945529917969465</v>
       </c>
       <c r="BT5">
-        <v>0.8351490477071525</v>
+        <v>0.803862423113584</v>
       </c>
       <c r="BU5">
-        <v>0.8351490477071525</v>
+        <v>0.8114825935951938</v>
       </c>
       <c r="BV5">
-        <v>0.8803039401431642</v>
+        <v>0.8566144023069419</v>
       </c>
       <c r="BW5">
-        <v>0.9098084557456187</v>
+        <v>0.889569766440454</v>
       </c>
       <c r="BX5">
-        <v>0.9130757731353942</v>
+        <v>0.9021118336084984</v>
       </c>
       <c r="BY5">
-        <v>0.9130757731353942</v>
+        <v>0.907498271090193</v>
       </c>
       <c r="BZ5">
-        <v>0.9483864598632916</v>
+        <v>0.9449710038259179</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0.995127826734721</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0.9951331314441071</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0.9999815595452308</v>
       </c>
       <c r="CD5">
         <v>1</v>
@@ -4800,97 +4800,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01554778938488094</v>
+        <v>0.0217553752128143</v>
       </c>
       <c r="E6">
-        <v>0.09182312377171012</v>
+        <v>0.09078049078050893</v>
       </c>
       <c r="F6">
-        <v>0.1696789103518998</v>
+        <v>0.1610358152232874</v>
       </c>
       <c r="G6">
-        <v>0.1997207214083898</v>
+        <v>0.19407319831396</v>
       </c>
       <c r="H6">
-        <v>0.2259600350388672</v>
+        <v>0.22415075376757</v>
       </c>
       <c r="I6">
-        <v>0.236255657535186</v>
+        <v>0.2418178924953615</v>
       </c>
       <c r="J6">
-        <v>0.236255657535186</v>
+        <v>0.2421808515697536</v>
       </c>
       <c r="K6">
-        <v>0.2683402741115504</v>
+        <v>0.2768083349438623</v>
       </c>
       <c r="L6">
-        <v>0.3787373110733783</v>
+        <v>0.3723934575254235</v>
       </c>
       <c r="M6">
-        <v>0.5731388555163975</v>
+        <v>0.5333668854822164</v>
       </c>
       <c r="N6">
-        <v>0.5934804123016376</v>
+        <v>0.558853683401636</v>
       </c>
       <c r="O6">
-        <v>0.5934804123016376</v>
+        <v>0.5677941770608674</v>
       </c>
       <c r="P6">
-        <v>0.5934804123016376</v>
+        <v>0.5756016171642656</v>
       </c>
       <c r="Q6">
-        <v>0.5934804123016376</v>
+        <v>0.5818441790509478</v>
       </c>
       <c r="R6">
-        <v>0.5934804123016376</v>
+        <v>0.5818441790509478</v>
       </c>
       <c r="S6">
-        <v>0.5934804123016376</v>
+        <v>0.5818441790509478</v>
       </c>
       <c r="T6">
-        <v>0.5934804123016376</v>
+        <v>0.5818441790509478</v>
       </c>
       <c r="U6">
-        <v>0.7134185448239221</v>
+        <v>0.6848559991851502</v>
       </c>
       <c r="V6">
-        <v>0.7731415866322048</v>
+        <v>0.74099696848214</v>
       </c>
       <c r="W6">
-        <v>0.7731415866322048</v>
+        <v>0.7413566879494363</v>
       </c>
       <c r="X6">
-        <v>0.7731415866322048</v>
+        <v>0.7427507020730317</v>
       </c>
       <c r="Y6">
-        <v>0.8168615530098897</v>
+        <v>0.7864350304756852</v>
       </c>
       <c r="Z6">
-        <v>0.8180921730347637</v>
+        <v>0.7970460579589368</v>
       </c>
       <c r="AA6">
-        <v>0.8264874988655806</v>
+        <v>0.813234023932871</v>
       </c>
       <c r="AB6">
-        <v>0.8681246536246375</v>
+        <v>0.8552971116873556</v>
       </c>
       <c r="AC6">
-        <v>0.8973608655096827</v>
+        <v>0.8877074240860862</v>
       </c>
       <c r="AD6">
-        <v>0.8973608655096827</v>
+        <v>0.8877074240860862</v>
       </c>
       <c r="AE6">
-        <v>0.9079806674636771</v>
+        <v>0.9056269010039397</v>
       </c>
       <c r="AF6">
-        <v>0.9587500440482317</v>
+        <v>0.9547984229054096</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9965601188106822</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9994108275247455</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -5198,97 +5198,97 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.248646236577339</v>
+        <v>0.2097749489722505</v>
       </c>
       <c r="BA7">
-        <v>0.2691856788539422</v>
+        <v>0.2362773746240887</v>
       </c>
       <c r="BB7">
-        <v>0.5131530127794403</v>
+        <v>0.4422930568107875</v>
       </c>
       <c r="BC7">
-        <v>0.5131530127794403</v>
+        <v>0.4429811575037523</v>
       </c>
       <c r="BD7">
-        <v>0.5149950960961842</v>
+        <v>0.4544611803091274</v>
       </c>
       <c r="BE7">
-        <v>0.5229991652313857</v>
+        <v>0.4708920538468327</v>
       </c>
       <c r="BF7">
-        <v>0.5229991652313857</v>
+        <v>0.4730112015795907</v>
       </c>
       <c r="BG7">
-        <v>0.6050881082083499</v>
+        <v>0.5489656057971996</v>
       </c>
       <c r="BH7">
-        <v>0.6954489615526851</v>
+        <v>0.6315660807307453</v>
       </c>
       <c r="BI7">
-        <v>0.6954489615526851</v>
+        <v>0.6317019261533348</v>
       </c>
       <c r="BJ7">
-        <v>0.7593557084246402</v>
+        <v>0.6930478353899554</v>
       </c>
       <c r="BK7">
-        <v>0.7593557084246402</v>
+        <v>0.6975709758680043</v>
       </c>
       <c r="BL7">
-        <v>0.7650225628327008</v>
+        <v>0.7121240130093944</v>
       </c>
       <c r="BM7">
-        <v>0.7650225628327008</v>
+        <v>0.7124978235426186</v>
       </c>
       <c r="BN7">
-        <v>0.7650225628327008</v>
+        <v>0.7124985191158857</v>
       </c>
       <c r="BO7">
-        <v>0.7650225628327008</v>
+        <v>0.7127406538905147</v>
       </c>
       <c r="BP7">
-        <v>0.8085950573000533</v>
+        <v>0.7577489973853961</v>
       </c>
       <c r="BQ7">
-        <v>0.8940478877614808</v>
+        <v>0.8364061187637692</v>
       </c>
       <c r="BR7">
-        <v>0.8940478877614808</v>
+        <v>0.8397960299772265</v>
       </c>
       <c r="BS7">
-        <v>0.8940478877614808</v>
+        <v>0.8397993392029157</v>
       </c>
       <c r="BT7">
-        <v>0.8940478877614808</v>
+        <v>0.8405454648349641</v>
       </c>
       <c r="BU7">
-        <v>0.9025121669010248</v>
+        <v>0.8573460943416299</v>
       </c>
       <c r="BV7">
-        <v>0.9025121669010248</v>
+        <v>0.8574171778241001</v>
       </c>
       <c r="BW7">
-        <v>0.9212894960066429</v>
+        <v>0.8825038327260464</v>
       </c>
       <c r="BX7">
-        <v>0.9384619772637861</v>
+        <v>0.9063010717838177</v>
       </c>
       <c r="BY7">
-        <v>0.9384619772637861</v>
+        <v>0.9063144365643294</v>
       </c>
       <c r="BZ7">
-        <v>0.9436551407948808</v>
+        <v>0.9204868865225909</v>
       </c>
       <c r="CA7">
-        <v>0.9467522950934996</v>
+        <v>0.9329752967655237</v>
       </c>
       <c r="CB7">
-        <v>0.9996407671291466</v>
+        <v>0.9854685673156103</v>
       </c>
       <c r="CC7">
-        <v>1</v>
+        <v>0.9957571931537961</v>
       </c>
       <c r="CD7">
-        <v>1</v>
+        <v>0.9972616823852603</v>
       </c>
       <c r="CE7">
         <v>1</v>
@@ -5455,100 +5455,100 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.1802872163092339</v>
+        <v>0.1531198011363544</v>
       </c>
       <c r="BB8">
-        <v>0.3863701459087181</v>
+        <v>0.3267173567793766</v>
       </c>
       <c r="BC8">
-        <v>0.4426590692952718</v>
+        <v>0.3814019422213364</v>
       </c>
       <c r="BD8">
-        <v>0.4426590692952718</v>
+        <v>0.3864262186275889</v>
       </c>
       <c r="BE8">
-        <v>0.4568369839230244</v>
+        <v>0.4076812613510382</v>
       </c>
       <c r="BF8">
-        <v>0.4568369839230244</v>
+        <v>0.4104206573698698</v>
       </c>
       <c r="BG8">
-        <v>0.4568369839230244</v>
+        <v>0.4151164771426802</v>
       </c>
       <c r="BH8">
-        <v>0.6229100759102633</v>
+        <v>0.5569524907319351</v>
       </c>
       <c r="BI8">
-        <v>0.687552331773688</v>
+        <v>0.618268313304236</v>
       </c>
       <c r="BJ8">
-        <v>0.687552331773688</v>
+        <v>0.6189455049250643</v>
       </c>
       <c r="BK8">
-        <v>0.7512326739608789</v>
+        <v>0.6794977187575375</v>
       </c>
       <c r="BL8">
-        <v>0.7512326739608789</v>
+        <v>0.6795491888215507</v>
       </c>
       <c r="BM8">
-        <v>0.7512326739608789</v>
+        <v>0.684356585378521</v>
       </c>
       <c r="BN8">
-        <v>0.7512326739608789</v>
+        <v>0.6847653292617226</v>
       </c>
       <c r="BO8">
-        <v>0.7512326739608789</v>
+        <v>0.6876783202082498</v>
       </c>
       <c r="BP8">
-        <v>0.7512326739608789</v>
+        <v>0.6920591661328167</v>
       </c>
       <c r="BQ8">
-        <v>0.8524961979408888</v>
+        <v>0.7824465375231817</v>
       </c>
       <c r="BR8">
-        <v>0.8999342570407314</v>
+        <v>0.8301049235344163</v>
       </c>
       <c r="BS8">
-        <v>0.8999342570407314</v>
+        <v>0.8301156258797071</v>
       </c>
       <c r="BT8">
-        <v>0.8999342570407314</v>
+        <v>0.8301460919973277</v>
       </c>
       <c r="BU8">
-        <v>0.8999342570407314</v>
+        <v>0.833935965313262</v>
       </c>
       <c r="BV8">
-        <v>0.9014394494341803</v>
+        <v>0.8451308522299963</v>
       </c>
       <c r="BW8">
-        <v>0.9014394494341803</v>
+        <v>0.8525003774226891</v>
       </c>
       <c r="BX8">
-        <v>0.9330942419012661</v>
+        <v>0.8876293227558466</v>
       </c>
       <c r="BY8">
-        <v>0.9345190531939433</v>
+        <v>0.8987603996732195</v>
       </c>
       <c r="BZ8">
-        <v>0.9345190531939433</v>
+        <v>0.9062004674643568</v>
       </c>
       <c r="CA8">
-        <v>0.9377877372720028</v>
+        <v>0.9187952904629383</v>
       </c>
       <c r="CB8">
-        <v>0.9581076733196434</v>
+        <v>0.9449261358205678</v>
       </c>
       <c r="CC8">
-        <v>1</v>
+        <v>0.988182079233372</v>
       </c>
       <c r="CD8">
-        <v>1</v>
+        <v>0.9882695109220018</v>
       </c>
       <c r="CE8">
-        <v>1</v>
+        <v>0.9969092417539088</v>
       </c>
       <c r="CF8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:84">
@@ -5703,97 +5703,97 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.1620722380879644</v>
+        <v>0.1363943332379567</v>
       </c>
       <c r="AZ9">
-        <v>0.1620722380879644</v>
+        <v>0.1380446046685986</v>
       </c>
       <c r="BA9">
-        <v>0.4114841867366322</v>
+        <v>0.3425520497618051</v>
       </c>
       <c r="BB9">
-        <v>0.4309816367394021</v>
+        <v>0.3677574126420473</v>
       </c>
       <c r="BC9">
-        <v>0.4524892527205456</v>
+        <v>0.3945304319669191</v>
       </c>
       <c r="BD9">
-        <v>0.4534077372781529</v>
+        <v>0.4052467251743043</v>
       </c>
       <c r="BE9">
-        <v>0.4534077372781529</v>
+        <v>0.4112739144748297</v>
       </c>
       <c r="BF9">
-        <v>0.4613024336686532</v>
+        <v>0.4274307054105593</v>
       </c>
       <c r="BG9">
-        <v>0.7225706127636565</v>
+        <v>0.6411843999519089</v>
       </c>
       <c r="BH9">
-        <v>0.7225706127636565</v>
+        <v>0.6414520451510688</v>
       </c>
       <c r="BI9">
-        <v>0.7423059423134599</v>
+        <v>0.6668429217694622</v>
       </c>
       <c r="BJ9">
-        <v>0.7860615198962373</v>
+        <v>0.7109663294502717</v>
       </c>
       <c r="BK9">
-        <v>0.7860945996433093</v>
+        <v>0.7209921271601335</v>
       </c>
       <c r="BL9">
-        <v>0.7860945996433093</v>
+        <v>0.7228486977342001</v>
       </c>
       <c r="BM9">
-        <v>0.7860945996433093</v>
+        <v>0.7229111678357711</v>
       </c>
       <c r="BN9">
-        <v>0.7860945996433093</v>
+        <v>0.722928557924949</v>
       </c>
       <c r="BO9">
-        <v>0.7973897125369065</v>
+        <v>0.7417372118923165</v>
       </c>
       <c r="BP9">
-        <v>0.8965068423450885</v>
+        <v>0.8290351111646502</v>
       </c>
       <c r="BQ9">
-        <v>0.9064203743813928</v>
+        <v>0.8467663197081007</v>
       </c>
       <c r="BR9">
-        <v>0.9064203743813928</v>
+        <v>0.8476795737766845</v>
       </c>
       <c r="BS9">
-        <v>0.9064203743813928</v>
+        <v>0.8477666322588014</v>
       </c>
       <c r="BT9">
-        <v>0.9064203743813928</v>
+        <v>0.8544834380463227</v>
       </c>
       <c r="BU9">
-        <v>0.9064203743813928</v>
+        <v>0.8573253348484245</v>
       </c>
       <c r="BV9">
-        <v>0.9160636050023498</v>
+        <v>0.8748457449999409</v>
       </c>
       <c r="BW9">
-        <v>0.9442608951095631</v>
+        <v>0.9068358015590668</v>
       </c>
       <c r="BX9">
-        <v>0.9442608951095631</v>
+        <v>0.9109665552102337</v>
       </c>
       <c r="BY9">
-        <v>0.9495676742183851</v>
+        <v>0.9251051221542937</v>
       </c>
       <c r="BZ9">
-        <v>0.9540173328312135</v>
+        <v>0.9385752515246288</v>
       </c>
       <c r="CA9">
-        <v>0.9919269985481663</v>
+        <v>0.9781396419353262</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0.9944354866017013</v>
       </c>
       <c r="CC9">
-        <v>1</v>
+        <v>0.9950707423091308</v>
       </c>
       <c r="CD9">
         <v>1</v>
@@ -5957,97 +5957,97 @@
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>0.02397524896504947</v>
+        <v>0.02911752290850659</v>
       </c>
       <c r="AZ10">
-        <v>0.1517108207583452</v>
+        <v>0.1409720531179484</v>
       </c>
       <c r="BA10">
-        <v>0.332199956897144</v>
+        <v>0.2948915260669098</v>
       </c>
       <c r="BB10">
-        <v>0.4080064422235658</v>
+        <v>0.3653385404838985</v>
       </c>
       <c r="BC10">
-        <v>0.428093238000134</v>
+        <v>0.3913554660631422</v>
       </c>
       <c r="BD10">
-        <v>0.4435199265336922</v>
+        <v>0.4136564883329264</v>
       </c>
       <c r="BE10">
-        <v>0.4435199265336922</v>
+        <v>0.4180460458046993</v>
       </c>
       <c r="BF10">
-        <v>0.4435199265336922</v>
+        <v>0.4220044849332084</v>
       </c>
       <c r="BG10">
-        <v>0.6647043958428823</v>
+        <v>0.608373838393876</v>
       </c>
       <c r="BH10">
-        <v>0.6957983671305005</v>
+        <v>0.6431677293467519</v>
       </c>
       <c r="BI10">
-        <v>0.6957983671305005</v>
+        <v>0.6431813967775478</v>
       </c>
       <c r="BJ10">
-        <v>0.7847250503978422</v>
+        <v>0.7240902706340496</v>
       </c>
       <c r="BK10">
-        <v>0.7847250503978422</v>
+        <v>0.7252399550260936</v>
       </c>
       <c r="BL10">
-        <v>0.7847250503978422</v>
+        <v>0.7253625885435763</v>
       </c>
       <c r="BM10">
-        <v>0.7847250503978422</v>
+        <v>0.7257947815728842</v>
       </c>
       <c r="BN10">
-        <v>0.7847250503978422</v>
+        <v>0.7259477612568739</v>
       </c>
       <c r="BO10">
-        <v>0.7847250503978422</v>
+        <v>0.7281457886801449</v>
       </c>
       <c r="BP10">
-        <v>0.8531047248732225</v>
+        <v>0.792670769637172</v>
       </c>
       <c r="BQ10">
-        <v>0.909778757027574</v>
+        <v>0.8478618377094037</v>
       </c>
       <c r="BR10">
-        <v>0.909778757027574</v>
+        <v>0.8478873788828957</v>
       </c>
       <c r="BS10">
-        <v>0.909778757027574</v>
+        <v>0.8481195440854775</v>
       </c>
       <c r="BT10">
-        <v>0.909778757027574</v>
+        <v>0.8493553092965116</v>
       </c>
       <c r="BU10">
-        <v>0.909778757027574</v>
+        <v>0.8582791738170933</v>
       </c>
       <c r="BV10">
-        <v>0.909778757027574</v>
+        <v>0.8644556270564782</v>
       </c>
       <c r="BW10">
-        <v>0.9364457509766945</v>
+        <v>0.8957195091736775</v>
       </c>
       <c r="BX10">
-        <v>0.9373181543826561</v>
+        <v>0.9064151512553611</v>
       </c>
       <c r="BY10">
-        <v>0.9373181543826561</v>
+        <v>0.9157653609899157</v>
       </c>
       <c r="BZ10">
-        <v>0.9458072553025214</v>
+        <v>0.9325344494588085</v>
       </c>
       <c r="CA10">
-        <v>0.9710889635677236</v>
+        <v>0.9626937244523971</v>
       </c>
       <c r="CB10">
-        <v>0.9999999999999998</v>
+        <v>0.9957469741645663</v>
       </c>
       <c r="CC10">
-        <v>0.9999999999999998</v>
+        <v>0.996986031169122</v>
       </c>
       <c r="CD10">
         <v>0.9999999999999998</v>
@@ -6211,106 +6211,106 @@
         <v>0</v>
       </c>
       <c r="AY11">
-        <v>0.2655750851891226</v>
+        <v>0.2166427095571402</v>
       </c>
       <c r="AZ11">
-        <v>0.285975597731335</v>
+        <v>0.2425162512527972</v>
       </c>
       <c r="BA11">
-        <v>0.3370276615870191</v>
+        <v>0.2922396191135667</v>
       </c>
       <c r="BB11">
-        <v>0.373064778628524</v>
+        <v>0.3302799283345213</v>
       </c>
       <c r="BC11">
-        <v>0.4455452814827749</v>
+        <v>0.3966766625733545</v>
       </c>
       <c r="BD11">
-        <v>0.4455452814827749</v>
+        <v>0.3989355703268229</v>
       </c>
       <c r="BE11">
-        <v>0.4690005351657276</v>
+        <v>0.427185991562474</v>
       </c>
       <c r="BF11">
-        <v>0.4690005351657276</v>
+        <v>0.4341166850564288</v>
       </c>
       <c r="BG11">
-        <v>0.7930780097363688</v>
+        <v>0.6962798252998847</v>
       </c>
       <c r="BH11">
-        <v>0.7930780097363688</v>
+        <v>0.6962844280711612</v>
       </c>
       <c r="BI11">
-        <v>0.7932983448731435</v>
+        <v>0.7064558697922148</v>
       </c>
       <c r="BJ11">
-        <v>0.8305870003836047</v>
+        <v>0.7454699951381117</v>
       </c>
       <c r="BK11">
-        <v>0.8305870003836047</v>
+        <v>0.7535563522988206</v>
       </c>
       <c r="BL11">
-        <v>0.8305870003836047</v>
+        <v>0.760594463927321</v>
       </c>
       <c r="BM11">
-        <v>0.8305870003836047</v>
+        <v>0.7614180668442135</v>
       </c>
       <c r="BN11">
-        <v>0.8305870003836047</v>
+        <v>0.768275202041568</v>
       </c>
       <c r="BO11">
-        <v>0.8305870003836047</v>
+        <v>0.7779308496547687</v>
       </c>
       <c r="BP11">
-        <v>0.9136439549242505</v>
+        <v>0.8525570706032474</v>
       </c>
       <c r="BQ11">
-        <v>0.9241076588127561</v>
+        <v>0.8706988287880734</v>
       </c>
       <c r="BR11">
-        <v>0.9241076588127561</v>
+        <v>0.8721979696037302</v>
       </c>
       <c r="BS11">
-        <v>0.9241076588127561</v>
+        <v>0.8740239492171442</v>
       </c>
       <c r="BT11">
-        <v>0.9241076588127561</v>
+        <v>0.8772385798305714</v>
       </c>
       <c r="BU11">
-        <v>0.9241076588127561</v>
+        <v>0.8778191090246508</v>
       </c>
       <c r="BV11">
-        <v>0.9241076588127561</v>
+        <v>0.8870693952925075</v>
       </c>
       <c r="BW11">
-        <v>0.9372203056525457</v>
+        <v>0.9072722833778502</v>
       </c>
       <c r="BX11">
-        <v>0.9372203056525457</v>
+        <v>0.9076178064097626</v>
       </c>
       <c r="BY11">
-        <v>0.9411871413426066</v>
+        <v>0.9207043823767004</v>
       </c>
       <c r="BZ11">
-        <v>0.9648136544926336</v>
+        <v>0.9490880597884283</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999999</v>
+        <v>0.986466387728634</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999999</v>
+        <v>0.9931872935473151</v>
       </c>
       <c r="CC11">
-        <v>0.9999999999999999</v>
+        <v>0.9938480199535896</v>
       </c>
       <c r="CD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5730328736204194</v>
+        <v>0.5317707550116761</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6487513298517138</v>
+        <v>0.6015659898316325</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -6460,16 +6460,16 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5113255204672663</v>
+        <v>0.6818160440260019</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6790530494269809</v>
+        <v>0.5929567047385074</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5731388555163975</v>
+        <v>0.5333668854822164</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -6583,16 +6583,16 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5131530127794403</v>
+        <v>0.5489656057971996</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>46</v>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6229100759102633</v>
+        <v>0.5569524907319351</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7225706127636565</v>
+        <v>0.6411843999519089</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6647043958428823</v>
+        <v>0.608373838393876</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7930780097363688</v>
+        <v>0.6962798252998847</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7547603137281882</v>
+        <v>0.7002194961946672</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7934164791709225</v>
+        <v>0.7285258043687366</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -6924,16 +6924,16 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7566637902144159</v>
+        <v>0.7106795767486607</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -6965,16 +6965,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7178206821188664</v>
+        <v>0.7376825592633744</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -7006,16 +7006,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7134185448239221</v>
+        <v>0.74099696848214</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -7047,16 +7047,16 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7593557084246402</v>
+        <v>0.7121240130093944</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>46</v>
@@ -7088,16 +7088,16 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7512326739608789</v>
+        <v>0.7824465375231817</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>46</v>
@@ -7129,16 +7129,16 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7225706127636565</v>
+        <v>0.7109663294502717</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>46</v>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7847250503978422</v>
+        <v>0.7240902706340496</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -7211,16 +7211,16 @@
         <v>48</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7930780097363688</v>
+        <v>0.7064558697922148</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>46</v>
@@ -7306,16 +7306,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8003818275175454</v>
+        <v>0.8066963068418809</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -7347,16 +7347,16 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8135523223635822</v>
+        <v>0.8622891929110178</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -7388,16 +7388,16 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8194472654742753</v>
+        <v>0.8149029185391274</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -7429,16 +7429,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8062584609335776</v>
+        <v>0.803862423113584</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -7470,16 +7470,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.813234023932871</v>
+      </c>
+      <c r="G6">
         <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8168615530098897</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -7511,16 +7511,16 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8085950573000533</v>
+        <v>0.8364061187637692</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>46</v>
@@ -7552,16 +7552,16 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8524961979408888</v>
+        <v>0.8301049235344163</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>46</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8965068423450885</v>
+        <v>0.8290351111646502</v>
       </c>
       <c r="G9">
         <v>19</v>
@@ -7634,16 +7634,16 @@
         <v>49</v>
       </c>
       <c r="D10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8531047248732225</v>
+        <v>0.8478618377094037</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>46</v>
@@ -7675,16 +7675,16 @@
         <v>48</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8305870003836047</v>
+        <v>0.8525570706032474</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>46</v>
@@ -7770,16 +7770,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9034537753008677</v>
+        <v>0.9331805546393421</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -7811,16 +7811,16 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9143819197230437</v>
+        <v>0.917001226735577</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -7852,16 +7852,16 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9048310226497879</v>
+        <v>0.9125436607893639</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -7893,16 +7893,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9098084557456187</v>
+        <v>0.9021118336084984</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9079806674636771</v>
+        <v>0.9056269010039397</v>
       </c>
       <c r="G6">
         <v>28</v>
@@ -7975,16 +7975,16 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9025121669010248</v>
+        <v>0.9063010717838177</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>46</v>
@@ -8016,16 +8016,16 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9014394494341803</v>
+        <v>0.9062004674643568</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>46</v>
@@ -8057,16 +8057,16 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9064203743813928</v>
+        <v>0.9068358015590668</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>46</v>
@@ -8098,16 +8098,16 @@
         <v>49</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.909778757027574</v>
+        <v>0.9064151512553611</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>46</v>
@@ -8139,16 +8139,16 @@
         <v>48</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9136439549242505</v>
+        <v>0.9072722833778502</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>46</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/46_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/46_225-80R17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="109">
   <si>
     <t>Signal_Value_42</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
-  </si>
-  <si>
-    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -706,15 +703,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CF11"/>
+  <dimension ref="A1:CE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:84">
+    <row r="1" spans="1:83">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -962,13 +959,10 @@
       <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="2" spans="1:84">
+    <row r="2" spans="1:83">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1216,775 +1210,763 @@
       <c r="CE2">
         <v>0</v>
       </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:84">
+    <row r="3" spans="1:83">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0.002472191057683874</v>
+      </c>
+      <c r="AZ3">
+        <v>0.1768999127227066</v>
+      </c>
+      <c r="BA3">
+        <v>0.1055716641199158</v>
+      </c>
+      <c r="BB3">
+        <v>0.08111353901720292</v>
+      </c>
+      <c r="BC3">
+        <v>0.02612115985326779</v>
+      </c>
+      <c r="BD3">
+        <v>0.01915814862192491</v>
+      </c>
+      <c r="BE3">
+        <v>0.01300187629028176</v>
+      </c>
+      <c r="BF3">
+        <v>0.01558935575623713</v>
+      </c>
+      <c r="BG3">
+        <v>0.03333264189614783</v>
+      </c>
+      <c r="BH3">
+        <v>0.1303270668713288</v>
+      </c>
+      <c r="BI3">
+        <v>0.002883481683615374</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1239812290293062</v>
+      </c>
+      <c r="BK3">
+        <v>0.005107221107689682</v>
+      </c>
+      <c r="BL3">
+        <v>0.002376482918060301</v>
+      </c>
+      <c r="BM3">
+        <v>0.004123471913442773</v>
+      </c>
+      <c r="BN3">
+        <v>0.02585852110058549</v>
+      </c>
+      <c r="BO3">
+        <v>0.0002535836865746936</v>
+      </c>
+      <c r="BP3">
+        <v>0.006502845755804279</v>
+      </c>
+      <c r="BQ3">
+        <v>0.08944106177366029</v>
+      </c>
+      <c r="BR3">
+        <v>0.003908746148329182</v>
+      </c>
+      <c r="BS3">
+        <v>0.0004108769560562831</v>
+      </c>
+      <c r="BT3">
+        <v>0.0002381619834706034</v>
+      </c>
+      <c r="BU3">
+        <v>0.01626524721478289</v>
+      </c>
+      <c r="BV3">
+        <v>0.0001082242483004052</v>
+      </c>
+      <c r="BW3">
+        <v>0.01112860143256337</v>
+      </c>
+      <c r="BX3">
+        <v>0.02261119182052609</v>
+      </c>
+      <c r="BY3">
+        <v>2.053959603649646E-05</v>
+      </c>
+      <c r="BZ3">
+        <v>0.003777723140167999</v>
+      </c>
+      <c r="CA3">
+        <v>0.02106804481978415</v>
+      </c>
+      <c r="CB3">
+        <v>0.04612646475843248</v>
+      </c>
+      <c r="CC3">
+        <v>0.01021816194248939</v>
+      </c>
+      <c r="CD3">
+        <v>2.560763624269916E-06</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83">
+      <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0.1770325253153097</v>
-      </c>
-      <c r="BA3">
-        <v>0.1056508056631133</v>
-      </c>
-      <c r="BB3">
-        <v>0.08117434558594978</v>
-      </c>
-      <c r="BC3">
-        <v>0.0261407415177052</v>
-      </c>
-      <c r="BD3">
-        <v>0.01917251048179882</v>
-      </c>
-      <c r="BE3">
-        <v>0.01301162311546117</v>
-      </c>
-      <c r="BF3">
-        <v>0.01560104227915299</v>
-      </c>
-      <c r="BG3">
-        <v>0.03335762963069289</v>
-      </c>
-      <c r="BH3">
-        <v>0.1304247662424487</v>
-      </c>
-      <c r="BI3">
-        <v>0.002885643278699862</v>
-      </c>
-      <c r="BJ3">
-        <v>0.1240741712584043</v>
-      </c>
-      <c r="BK3">
-        <v>0.005111049723666163</v>
-      </c>
-      <c r="BL3">
-        <v>0.002378264442743895</v>
-      </c>
-      <c r="BM3">
-        <v>0.004126563064210185</v>
-      </c>
-      <c r="BN3">
-        <v>0.02587790587851586</v>
-      </c>
-      <c r="BO3">
-        <v>0.0002537737849732792</v>
-      </c>
-      <c r="BP3">
-        <v>0.006507720598429709</v>
-      </c>
-      <c r="BQ3">
-        <v>0.08950811104974203</v>
-      </c>
-      <c r="BR3">
-        <v>0.003911676330445043</v>
-      </c>
-      <c r="BS3">
-        <v>0.0004111849689746893</v>
-      </c>
-      <c r="BT3">
-        <v>0.0002383405210266792</v>
-      </c>
-      <c r="BU3">
-        <v>0.01627744041809931</v>
-      </c>
-      <c r="BV3">
-        <v>0.0001083053783469313</v>
-      </c>
-      <c r="BW3">
-        <v>0.01113694396176706</v>
-      </c>
-      <c r="BX3">
-        <v>0.02262814224589949</v>
-      </c>
-      <c r="BY3">
-        <v>2.055499349509041E-05</v>
-      </c>
-      <c r="BZ3">
-        <v>0.003780555101202033</v>
-      </c>
-      <c r="CA3">
-        <v>0.02108383842873301</v>
-      </c>
-      <c r="CB3">
-        <v>0.04616104335140681</v>
-      </c>
-      <c r="CC3">
-        <v>0.01022582196292681</v>
-      </c>
-      <c r="CD3">
-        <v>2.562683294540136E-06</v>
-      </c>
-      <c r="CE3">
-        <v>0.00172439674336459</v>
-      </c>
-      <c r="CF3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0.002634714044175034</v>
+      </c>
+      <c r="AZ4">
+        <v>0.2404253309829231</v>
+      </c>
+      <c r="BA4">
+        <v>0.08331975133957363</v>
+      </c>
+      <c r="BB4">
+        <v>0.07356938570030574</v>
+      </c>
+      <c r="BC4">
+        <v>0.003145922171300765</v>
+      </c>
+      <c r="BD4">
+        <v>0.02129411485522725</v>
+      </c>
+      <c r="BE4">
+        <v>0.006677397379664132</v>
+      </c>
+      <c r="BF4">
+        <v>0.01303889887788214</v>
+      </c>
+      <c r="BG4">
+        <v>0.03402045350633762</v>
+      </c>
+      <c r="BH4">
+        <v>0.2046879797638085</v>
+      </c>
+      <c r="BI4">
+        <v>0.002830885467558395</v>
+      </c>
+      <c r="BJ4">
+        <v>0.02596335568664093</v>
+      </c>
+      <c r="BK4">
+        <v>0.0006002556703395484</v>
+      </c>
+      <c r="BL4">
+        <v>0.003949402301913207</v>
+      </c>
+      <c r="BM4">
+        <v>0.0009342364504422021</v>
+      </c>
+      <c r="BN4">
+        <v>0.0006651868072132081</v>
+      </c>
+      <c r="BO4">
+        <v>0.0009224351584487434</v>
+      </c>
+      <c r="BP4">
+        <v>0.0438165490543324</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0530850713956624</v>
+      </c>
+      <c r="BR4">
+        <v>0.001549546337759819</v>
+      </c>
+      <c r="BS4">
+        <v>0.0007132636245018039</v>
+      </c>
+      <c r="BT4">
+        <v>0.01664593741186005</v>
+      </c>
+      <c r="BU4">
+        <v>0.01193497202383387</v>
+      </c>
+      <c r="BV4">
+        <v>0.003442253263103639</v>
+      </c>
+      <c r="BW4">
+        <v>0.0260025570478686</v>
+      </c>
+      <c r="BX4">
+        <v>0.03711781018172679</v>
+      </c>
+      <c r="BY4">
+        <v>0.0009114337538796905</v>
+      </c>
+      <c r="BZ4">
+        <v>0.01213259653025553</v>
+      </c>
+      <c r="CA4">
+        <v>0.0128642895064774</v>
+      </c>
+      <c r="CB4">
+        <v>0.05331985248052926</v>
+      </c>
+      <c r="CC4">
+        <v>0.003934133601296934</v>
+      </c>
+      <c r="CD4">
+        <v>0.003850027623157682</v>
+      </c>
+      <c r="CE4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:84">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:83">
+      <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0.2410038997388062</v>
-      </c>
-      <c r="BA4">
-        <v>0.08352025519112682</v>
-      </c>
-      <c r="BB4">
-        <v>0.07374642589728372</v>
-      </c>
-      <c r="BC4">
-        <v>0.003153492639309745</v>
-      </c>
-      <c r="BD4">
-        <v>0.02134535783153533</v>
-      </c>
-      <c r="BE4">
-        <v>0.006693466125327056</v>
-      </c>
-      <c r="BF4">
-        <v>0.01307027618521918</v>
-      </c>
-      <c r="BG4">
-        <v>0.03410232163304154</v>
-      </c>
-      <c r="BH4">
-        <v>0.2051805487843522</v>
-      </c>
-      <c r="BI4">
-        <v>0.002837697819136812</v>
-      </c>
-      <c r="BJ4">
-        <v>0.02602583490352193</v>
-      </c>
-      <c r="BK4">
-        <v>0.0006017001486521303</v>
-      </c>
-      <c r="BL4">
-        <v>0.003958906295385767</v>
-      </c>
-      <c r="BM4">
-        <v>0.0009364846329387101</v>
-      </c>
-      <c r="BN4">
-        <v>0.0006667875383088285</v>
-      </c>
-      <c r="BO4">
-        <v>0.0009246549418626816</v>
-      </c>
-      <c r="BP4">
-        <v>0.04392199088182128</v>
-      </c>
-      <c r="BQ4">
-        <v>0.05321281735149738</v>
-      </c>
-      <c r="BR4">
-        <v>0.00155327522561517</v>
-      </c>
-      <c r="BS4">
-        <v>0.0007149800494981117</v>
-      </c>
-      <c r="BT4">
-        <v>0.01668599483534166</v>
-      </c>
-      <c r="BU4">
-        <v>0.01196369279916606</v>
-      </c>
-      <c r="BV4">
-        <v>0.003450536833639765</v>
-      </c>
-      <c r="BW4">
-        <v>0.02606513060041175</v>
-      </c>
-      <c r="BX4">
-        <v>0.03720713190656397</v>
-      </c>
-      <c r="BY4">
-        <v>0.0009136270630908961</v>
-      </c>
-      <c r="BZ4">
-        <v>0.01216179287679457</v>
-      </c>
-      <c r="CA4">
-        <v>0.01289524662711296</v>
-      </c>
-      <c r="CB4">
-        <v>0.05344816342258936</v>
-      </c>
-      <c r="CC4">
-        <v>0.003943600851581564</v>
-      </c>
-      <c r="CD4">
-        <v>0.003859292477584374</v>
-      </c>
-      <c r="CE4">
-        <v>0.0002346158918825823</v>
-      </c>
-      <c r="CF4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0.005569988064599324</v>
+      </c>
+      <c r="AY5">
+        <v>0.1219116740694538</v>
+      </c>
+      <c r="AZ5">
+        <v>0.1720545993874947</v>
+      </c>
+      <c r="BA5">
+        <v>0.03316021286049653</v>
+      </c>
+      <c r="BB5">
+        <v>0.002515386813573177</v>
+      </c>
+      <c r="BC5">
+        <v>0.01072918365064624</v>
+      </c>
+      <c r="BD5">
+        <v>0.002092734140780049</v>
+      </c>
+      <c r="BE5">
+        <v>0.01023639984162948</v>
+      </c>
+      <c r="BF5">
+        <v>0.2369646258935965</v>
+      </c>
+      <c r="BG5">
+        <v>0.02360260478654069</v>
+      </c>
+      <c r="BH5">
+        <v>0.001191363040718586</v>
+      </c>
+      <c r="BI5">
+        <v>0.02628124788326422</v>
+      </c>
+      <c r="BJ5">
+        <v>0.005349073583382789</v>
+      </c>
+      <c r="BK5">
+        <v>0.0008845889063765057</v>
+      </c>
+      <c r="BL5">
+        <v>0.0002209917857257009</v>
+      </c>
+      <c r="BM5">
+        <v>0.001449017986200472</v>
+      </c>
+      <c r="BN5">
+        <v>0.006573866220365837</v>
+      </c>
+      <c r="BO5">
+        <v>0.07836963304422193</v>
+      </c>
+      <c r="BP5">
+        <v>0.0273582101907629</v>
+      </c>
+      <c r="BQ5">
+        <v>0.006549497093447971</v>
+      </c>
+      <c r="BR5">
+        <v>0.007763322283987014</v>
+      </c>
+      <c r="BS5">
+        <v>0.01488367822946469</v>
+      </c>
+      <c r="BT5">
+        <v>0.009257748612410162</v>
+      </c>
+      <c r="BU5">
+        <v>0.007577865962271567</v>
+      </c>
+      <c r="BV5">
+        <v>0.04488125270660039</v>
+      </c>
+      <c r="BW5">
+        <v>0.03277240748672193</v>
+      </c>
+      <c r="BX5">
+        <v>0.01247243800104179</v>
+      </c>
+      <c r="BY5">
+        <v>0.005356533866131269</v>
+      </c>
+      <c r="BZ5">
+        <v>0.03726469723960292</v>
+      </c>
+      <c r="CA5">
+        <v>0.04987836978366476</v>
+      </c>
+      <c r="CB5">
+        <v>5.27525949627441E-06</v>
+      </c>
+      <c r="CC5">
+        <v>0.004821511325329954</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:84">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:83">
+      <c r="A6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0.12259226340673</v>
-      </c>
-      <c r="AZ5">
-        <v>0.1730151187689752</v>
-      </c>
-      <c r="BA5">
-        <v>0.03334533448618928</v>
-      </c>
-      <c r="BB5">
-        <v>0.002529429319818048</v>
-      </c>
-      <c r="BC5">
-        <v>0.01078908085118954</v>
-      </c>
-      <c r="BD5">
-        <v>0.002104417128097222</v>
-      </c>
-      <c r="BE5">
-        <v>0.0102935460061579</v>
-      </c>
-      <c r="BF5">
-        <v>0.2382875147713502</v>
-      </c>
-      <c r="BG5">
-        <v>0.02373436969972293</v>
-      </c>
-      <c r="BH5">
-        <v>0.001198013995096228</v>
-      </c>
-      <c r="BI5">
-        <v>0.02642796670421545</v>
-      </c>
-      <c r="BJ5">
-        <v>0.00537893555085181</v>
-      </c>
-      <c r="BK5">
-        <v>0.0008895272503222188</v>
-      </c>
-      <c r="BL5">
-        <v>0.0002222255039412743</v>
-      </c>
-      <c r="BM5">
-        <v>0.001457107336120871</v>
-      </c>
-      <c r="BN5">
-        <v>0.006610565767709532</v>
-      </c>
-      <c r="BO5">
-        <v>0.0788071427168867</v>
-      </c>
-      <c r="BP5">
-        <v>0.02751094130765483</v>
-      </c>
-      <c r="BQ5">
-        <v>0.006586060596659176</v>
-      </c>
-      <c r="BR5">
-        <v>0.007806662139736267</v>
-      </c>
-      <c r="BS5">
-        <v>0.01496676848952175</v>
-      </c>
-      <c r="BT5">
-        <v>0.009309431316637487</v>
-      </c>
-      <c r="BU5">
-        <v>0.007620170481609819</v>
-      </c>
-      <c r="BV5">
-        <v>0.04513180871174807</v>
-      </c>
-      <c r="BW5">
-        <v>0.03295536413351217</v>
-      </c>
-      <c r="BX5">
-        <v>0.01254206716804438</v>
-      </c>
-      <c r="BY5">
-        <v>0.005386437481694538</v>
-      </c>
-      <c r="BZ5">
-        <v>0.03747273273572489</v>
-      </c>
-      <c r="CA5">
-        <v>0.05015682290880305</v>
-      </c>
-      <c r="CB5">
-        <v>5.304709386056776E-06</v>
-      </c>
-      <c r="CC5">
-        <v>0.004848428101123767</v>
-      </c>
-      <c r="CD5">
-        <v>1.844045476912291E-05</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:84">
-      <c r="A6" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2232,13 +2214,10 @@
       <c r="CE6">
         <v>0</v>
       </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:84">
+    <row r="7" spans="1:83">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2486,267 +2465,261 @@
       <c r="CE7">
         <v>0.002738317614739813</v>
       </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:84">
+    <row r="8" spans="1:83">
       <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0.008059055713352107</v>
+      </c>
+      <c r="BA8">
+        <v>0.1523566978484012</v>
+      </c>
+      <c r="BB8">
+        <v>0.1727323973518758</v>
+      </c>
+      <c r="BC8">
+        <v>0.05441205382526868</v>
+      </c>
+      <c r="BD8">
+        <v>0.004999236915495917</v>
+      </c>
+      <c r="BE8">
+        <v>0.0211491139482845</v>
+      </c>
+      <c r="BF8">
+        <v>0.002725743688476751</v>
+      </c>
+      <c r="BG8">
+        <v>0.004672417211667616</v>
+      </c>
+      <c r="BH8">
+        <v>0.1411291453232509</v>
+      </c>
+      <c r="BI8">
+        <v>0.06101024285327549</v>
+      </c>
+      <c r="BJ8">
+        <v>0.0006738167003502942</v>
+      </c>
+      <c r="BK8">
+        <v>0.0602504397109979</v>
+      </c>
+      <c r="BL8">
+        <v>5.12135526097649E-05</v>
+      </c>
+      <c r="BM8">
+        <v>0.00478343793050981</v>
+      </c>
+      <c r="BN8">
+        <v>0.0004067068259504985</v>
+      </c>
+      <c r="BO8">
+        <v>0.002898473470978133</v>
+      </c>
+      <c r="BP8">
+        <v>0.004359013098869349</v>
+      </c>
+      <c r="BQ8">
+        <v>0.08993690776785808</v>
+      </c>
+      <c r="BR8">
+        <v>0.04742087087084255</v>
+      </c>
+      <c r="BS8">
+        <v>1.064900800311578E-05</v>
+      </c>
+      <c r="BT8">
+        <v>3.031428360332388E-05</v>
+      </c>
+      <c r="BU8">
+        <v>0.003770985720947573</v>
+      </c>
+      <c r="BV8">
+        <v>0.01113909494893514</v>
+      </c>
+      <c r="BW8">
+        <v>0.007332797683491151</v>
+      </c>
+      <c r="BX8">
+        <v>0.03495387317732192</v>
+      </c>
+      <c r="BY8">
+        <v>0.01107560295952381</v>
+      </c>
+      <c r="BZ8">
+        <v>0.007402988718725456</v>
+      </c>
+      <c r="CA8">
+        <v>0.01253205416809667</v>
+      </c>
+      <c r="CB8">
+        <v>0.02600061704057709</v>
+      </c>
+      <c r="CC8">
+        <v>0.04304036872947214</v>
+      </c>
+      <c r="CD8">
+        <v>8.699595524603745E-05</v>
+      </c>
+      <c r="CE8">
+        <v>0.008596672997741103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83">
+      <c r="A9" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0.1531198011363544</v>
-      </c>
-      <c r="BB8">
-        <v>0.1735975556430223</v>
-      </c>
-      <c r="BC8">
-        <v>0.0546845854419598</v>
-      </c>
-      <c r="BD8">
-        <v>0.005024276406252455</v>
-      </c>
-      <c r="BE8">
-        <v>0.02125504272344928</v>
-      </c>
-      <c r="BF8">
-        <v>0.002739396018831559</v>
-      </c>
-      <c r="BG8">
-        <v>0.004695819772810418</v>
-      </c>
-      <c r="BH8">
-        <v>0.1418360135892549</v>
-      </c>
-      <c r="BI8">
-        <v>0.06131582257230091</v>
-      </c>
-      <c r="BJ8">
-        <v>0.0006771916208282025</v>
-      </c>
-      <c r="BK8">
-        <v>0.06055221383247324</v>
-      </c>
-      <c r="BL8">
-        <v>5.147006401317665E-05</v>
-      </c>
-      <c r="BM8">
-        <v>0.004807396556970223</v>
-      </c>
-      <c r="BN8">
-        <v>0.0004087438832016647</v>
-      </c>
-      <c r="BO8">
-        <v>0.002912990946527184</v>
-      </c>
-      <c r="BP8">
-        <v>0.004380845924566897</v>
-      </c>
-      <c r="BQ8">
-        <v>0.09038737139036505</v>
-      </c>
-      <c r="BR8">
-        <v>0.04765838601123466</v>
-      </c>
-      <c r="BS8">
-        <v>1.070234529077938E-05</v>
-      </c>
-      <c r="BT8">
-        <v>3.046611762057633E-05</v>
-      </c>
-      <c r="BU8">
-        <v>0.003789873315934324</v>
-      </c>
-      <c r="BV8">
-        <v>0.01119488691673437</v>
-      </c>
-      <c r="BW8">
-        <v>0.007369525192692849</v>
-      </c>
-      <c r="BX8">
-        <v>0.03512894533315752</v>
-      </c>
-      <c r="BY8">
-        <v>0.01113107691737295</v>
-      </c>
-      <c r="BZ8">
-        <v>0.007440067791137229</v>
-      </c>
-      <c r="CA8">
-        <v>0.01259482299858155</v>
-      </c>
-      <c r="CB8">
-        <v>0.0261308453576296</v>
-      </c>
-      <c r="CC8">
-        <v>0.04325594341280412</v>
-      </c>
-      <c r="CD8">
-        <v>8.743168862976391E-05</v>
-      </c>
-      <c r="CE8">
-        <v>0.008639730831907092</v>
-      </c>
-      <c r="CF8">
-        <v>0.00309075824609107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:84">
-      <c r="A9" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2994,13 +2967,10 @@
       <c r="CE9">
         <v>0</v>
       </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:84">
+    <row r="10" spans="1:83">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3248,13 +3218,10 @@
       <c r="CE10">
         <v>0</v>
       </c>
-      <c r="CF10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:84">
+    <row r="11" spans="1:83">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3500,9 +3467,6 @@
         <v>0.006151980046410358</v>
       </c>
       <c r="CE11">
-        <v>0</v>
-      </c>
-      <c r="CF11">
         <v>0</v>
       </c>
     </row>
@@ -3513,15 +3477,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CF11"/>
+  <dimension ref="A1:CE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:84">
+    <row r="1" spans="1:83">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3769,13 +3733,10 @@
       <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="2" spans="1:84">
+    <row r="2" spans="1:83">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4023,268 +3984,262 @@
       <c r="CE2">
         <v>0.9999999999999997</v>
       </c>
-      <c r="CF2">
-        <v>0.9999999999999997</v>
-      </c>
     </row>
-    <row r="3" spans="1:84">
+    <row r="3" spans="1:83">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0.002472191057683874</v>
+      </c>
+      <c r="AZ3">
+        <v>0.1793721037803904</v>
+      </c>
+      <c r="BA3">
+        <v>0.2849437679003063</v>
+      </c>
+      <c r="BB3">
+        <v>0.3660573069175092</v>
+      </c>
+      <c r="BC3">
+        <v>0.392178466770777</v>
+      </c>
+      <c r="BD3">
+        <v>0.4113366153927019</v>
+      </c>
+      <c r="BE3">
+        <v>0.4243384916829837</v>
+      </c>
+      <c r="BF3">
+        <v>0.4399278474392209</v>
+      </c>
+      <c r="BG3">
+        <v>0.4732604893353687</v>
+      </c>
+      <c r="BH3">
+        <v>0.6035875562066975</v>
+      </c>
+      <c r="BI3">
+        <v>0.6064710378903129</v>
+      </c>
+      <c r="BJ3">
+        <v>0.7304522669196191</v>
+      </c>
+      <c r="BK3">
+        <v>0.7355594880273087</v>
+      </c>
+      <c r="BL3">
+        <v>0.737935970945369</v>
+      </c>
+      <c r="BM3">
+        <v>0.7420594428588118</v>
+      </c>
+      <c r="BN3">
+        <v>0.7679179639593973</v>
+      </c>
+      <c r="BO3">
+        <v>0.768171547645972</v>
+      </c>
+      <c r="BP3">
+        <v>0.7746743934017762</v>
+      </c>
+      <c r="BQ3">
+        <v>0.8641154551754365</v>
+      </c>
+      <c r="BR3">
+        <v>0.8680242013237657</v>
+      </c>
+      <c r="BS3">
+        <v>0.8684350782798219</v>
+      </c>
+      <c r="BT3">
+        <v>0.8686732402632925</v>
+      </c>
+      <c r="BU3">
+        <v>0.8849384874780754</v>
+      </c>
+      <c r="BV3">
+        <v>0.8850467117263757</v>
+      </c>
+      <c r="BW3">
+        <v>0.8961753131589391</v>
+      </c>
+      <c r="BX3">
+        <v>0.9187865049794651</v>
+      </c>
+      <c r="BY3">
+        <v>0.9188070445755017</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9225847677156697</v>
+      </c>
+      <c r="CA3">
+        <v>0.9436528125354539</v>
+      </c>
+      <c r="CB3">
+        <v>0.9897792772938864</v>
+      </c>
+      <c r="CC3">
+        <v>0.9999974392363757</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83">
+      <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0.1770325253153097</v>
-      </c>
-      <c r="BA3">
-        <v>0.282683330978423</v>
-      </c>
-      <c r="BB3">
-        <v>0.3638576765643728</v>
-      </c>
-      <c r="BC3">
-        <v>0.389998418082078</v>
-      </c>
-      <c r="BD3">
-        <v>0.4091709285638768</v>
-      </c>
-      <c r="BE3">
-        <v>0.4221825516793379</v>
-      </c>
-      <c r="BF3">
-        <v>0.4377835939584909</v>
-      </c>
-      <c r="BG3">
-        <v>0.4711412235891838</v>
-      </c>
-      <c r="BH3">
-        <v>0.6015659898316325</v>
-      </c>
-      <c r="BI3">
-        <v>0.6044516331103323</v>
-      </c>
-      <c r="BJ3">
-        <v>0.7285258043687366</v>
-      </c>
-      <c r="BK3">
-        <v>0.7336368540924028</v>
-      </c>
-      <c r="BL3">
-        <v>0.7360151185351467</v>
-      </c>
-      <c r="BM3">
-        <v>0.7401416815993569</v>
-      </c>
-      <c r="BN3">
-        <v>0.7660195874778728</v>
-      </c>
-      <c r="BO3">
-        <v>0.7662733612628461</v>
-      </c>
-      <c r="BP3">
-        <v>0.7727810818612758</v>
-      </c>
-      <c r="BQ3">
-        <v>0.8622891929110178</v>
-      </c>
-      <c r="BR3">
-        <v>0.8662008692414629</v>
-      </c>
-      <c r="BS3">
-        <v>0.8666120542104376</v>
-      </c>
-      <c r="BT3">
-        <v>0.8668503947314643</v>
-      </c>
-      <c r="BU3">
-        <v>0.8831278351495636</v>
-      </c>
-      <c r="BV3">
-        <v>0.8832361405279106</v>
-      </c>
-      <c r="BW3">
-        <v>0.8943730844896776</v>
-      </c>
-      <c r="BX3">
-        <v>0.917001226735577</v>
-      </c>
-      <c r="BY3">
-        <v>0.9170217817290721</v>
-      </c>
-      <c r="BZ3">
-        <v>0.9208023368302741</v>
-      </c>
-      <c r="CA3">
-        <v>0.9418861752590071</v>
-      </c>
-      <c r="CB3">
-        <v>0.9880472186104139</v>
-      </c>
-      <c r="CC3">
-        <v>0.9982730405733407</v>
-      </c>
-      <c r="CD3">
-        <v>0.9982756032566352</v>
-      </c>
-      <c r="CE3">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CF3">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:84">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
@@ -4433,365 +4388,359 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.002634714044175034</v>
       </c>
       <c r="AZ4">
-        <v>0.2410038997388062</v>
+        <v>0.2430600450270982</v>
       </c>
       <c r="BA4">
-        <v>0.324524154929933</v>
+        <v>0.3263797963666718</v>
       </c>
       <c r="BB4">
-        <v>0.3982705808272168</v>
+        <v>0.3999491820669775</v>
       </c>
       <c r="BC4">
-        <v>0.4014240734665265</v>
+        <v>0.4030951042382783</v>
       </c>
       <c r="BD4">
-        <v>0.4227694312980619</v>
+        <v>0.4243892190935056</v>
       </c>
       <c r="BE4">
-        <v>0.4294628974233889</v>
+        <v>0.4310666164731697</v>
       </c>
       <c r="BF4">
-        <v>0.4425331736086081</v>
+        <v>0.4441055153510518</v>
       </c>
       <c r="BG4">
-        <v>0.4766354952416497</v>
+        <v>0.4781259688573894</v>
       </c>
       <c r="BH4">
-        <v>0.6818160440260019</v>
+        <v>0.6828139486211979</v>
       </c>
       <c r="BI4">
-        <v>0.6846537418451387</v>
+        <v>0.6856448340887563</v>
       </c>
       <c r="BJ4">
-        <v>0.7106795767486607</v>
+        <v>0.7116081897753972</v>
       </c>
       <c r="BK4">
-        <v>0.7112812768973128</v>
+        <v>0.7122084454457367</v>
       </c>
       <c r="BL4">
-        <v>0.7152401831926986</v>
+        <v>0.7161578477476499</v>
       </c>
       <c r="BM4">
-        <v>0.7161766678256373</v>
+        <v>0.7170920841980921</v>
       </c>
       <c r="BN4">
-        <v>0.7168434553639461</v>
+        <v>0.7177572710053053</v>
       </c>
       <c r="BO4">
-        <v>0.7177681103058088</v>
+        <v>0.718679706163754</v>
       </c>
       <c r="BP4">
-        <v>0.76169010118763</v>
+        <v>0.7624962552180864</v>
       </c>
       <c r="BQ4">
-        <v>0.8149029185391274</v>
+        <v>0.8155813266137488</v>
       </c>
       <c r="BR4">
-        <v>0.8164561937647427</v>
+        <v>0.8171308729515087</v>
       </c>
       <c r="BS4">
-        <v>0.8171711738142408</v>
+        <v>0.8178441365760105</v>
       </c>
       <c r="BT4">
-        <v>0.8338571686495824</v>
+        <v>0.8344900739878706</v>
       </c>
       <c r="BU4">
-        <v>0.8458208614487485</v>
+        <v>0.8464250460117044</v>
       </c>
       <c r="BV4">
-        <v>0.8492713982823882</v>
+        <v>0.8498672992748081</v>
       </c>
       <c r="BW4">
-        <v>0.8753365288827999</v>
+        <v>0.8758698563226767</v>
       </c>
       <c r="BX4">
-        <v>0.9125436607893639</v>
+        <v>0.9129876665044034</v>
       </c>
       <c r="BY4">
-        <v>0.9134572878524548</v>
+        <v>0.9138991002582831</v>
       </c>
       <c r="BZ4">
-        <v>0.9256190807292494</v>
+        <v>0.9260316967885387</v>
       </c>
       <c r="CA4">
-        <v>0.9385143273563623</v>
+        <v>0.9388959862950161</v>
       </c>
       <c r="CB4">
-        <v>0.9919624907789517</v>
+        <v>0.9922158387755454</v>
       </c>
       <c r="CC4">
-        <v>0.9959060916305332</v>
+        <v>0.9961499723768423</v>
       </c>
       <c r="CD4">
-        <v>0.9997653841081175</v>
+        <v>1</v>
       </c>
       <c r="CE4">
         <v>1</v>
       </c>
-      <c r="CF4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:84">
+    <row r="5" spans="1:83">
       <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0.005569988064599324</v>
+      </c>
+      <c r="AY5">
+        <v>0.1274816621340531</v>
+      </c>
+      <c r="AZ5">
+        <v>0.2995362615215478</v>
+      </c>
+      <c r="BA5">
+        <v>0.3326964743820443</v>
+      </c>
+      <c r="BB5">
+        <v>0.3352118611956175</v>
+      </c>
+      <c r="BC5">
+        <v>0.3459410448462637</v>
+      </c>
+      <c r="BD5">
+        <v>0.3480337789870437</v>
+      </c>
+      <c r="BE5">
+        <v>0.3582701788286732</v>
+      </c>
+      <c r="BF5">
+        <v>0.5952348047222698</v>
+      </c>
+      <c r="BG5">
+        <v>0.6188374095088104</v>
+      </c>
+      <c r="BH5">
+        <v>0.6200287725495289</v>
+      </c>
+      <c r="BI5">
+        <v>0.6463100204327932</v>
+      </c>
+      <c r="BJ5">
+        <v>0.6516590940161759</v>
+      </c>
+      <c r="BK5">
+        <v>0.6525436829225525</v>
+      </c>
+      <c r="BL5">
+        <v>0.6527646747082781</v>
+      </c>
+      <c r="BM5">
+        <v>0.6542136926944786</v>
+      </c>
+      <c r="BN5">
+        <v>0.6607875589148444</v>
+      </c>
+      <c r="BO5">
+        <v>0.7391571919590664</v>
+      </c>
+      <c r="BP5">
+        <v>0.7665154021498293</v>
+      </c>
+      <c r="BQ5">
+        <v>0.7730648992432773</v>
+      </c>
+      <c r="BR5">
+        <v>0.7808282215272643</v>
+      </c>
+      <c r="BS5">
+        <v>0.795711899756729</v>
+      </c>
+      <c r="BT5">
+        <v>0.8049696483691391</v>
+      </c>
+      <c r="BU5">
+        <v>0.8125475143314107</v>
+      </c>
+      <c r="BV5">
+        <v>0.8574287670380111</v>
+      </c>
+      <c r="BW5">
+        <v>0.890201174524733</v>
+      </c>
+      <c r="BX5">
+        <v>0.9026736125257748</v>
+      </c>
+      <c r="BY5">
+        <v>0.908030146391906</v>
+      </c>
+      <c r="BZ5">
+        <v>0.945294843631509</v>
+      </c>
+      <c r="CA5">
+        <v>0.9951732134151737</v>
+      </c>
+      <c r="CB5">
+        <v>0.99517848867467</v>
+      </c>
+      <c r="CC5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83">
+      <c r="A6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0.12259226340673</v>
-      </c>
-      <c r="AZ5">
-        <v>0.2956073821757052</v>
-      </c>
-      <c r="BA5">
-        <v>0.3289527166618945</v>
-      </c>
-      <c r="BB5">
-        <v>0.3314821459817125</v>
-      </c>
-      <c r="BC5">
-        <v>0.342271226832902</v>
-      </c>
-      <c r="BD5">
-        <v>0.3443756439609992</v>
-      </c>
-      <c r="BE5">
-        <v>0.3546691899671571</v>
-      </c>
-      <c r="BF5">
-        <v>0.5929567047385074</v>
-      </c>
-      <c r="BG5">
-        <v>0.6166910744382303</v>
-      </c>
-      <c r="BH5">
-        <v>0.6178890884333266</v>
-      </c>
-      <c r="BI5">
-        <v>0.644317055137542</v>
-      </c>
-      <c r="BJ5">
-        <v>0.6496959906883938</v>
-      </c>
-      <c r="BK5">
-        <v>0.650585517938716</v>
-      </c>
-      <c r="BL5">
-        <v>0.6508077434426572</v>
-      </c>
-      <c r="BM5">
-        <v>0.6522648507787782</v>
-      </c>
-      <c r="BN5">
-        <v>0.6588754165464877</v>
-      </c>
-      <c r="BO5">
-        <v>0.7376825592633744</v>
-      </c>
-      <c r="BP5">
-        <v>0.7651935005710293</v>
-      </c>
-      <c r="BQ5">
-        <v>0.7717795611676885</v>
-      </c>
-      <c r="BR5">
-        <v>0.7795862233074248</v>
-      </c>
-      <c r="BS5">
-        <v>0.7945529917969465</v>
-      </c>
-      <c r="BT5">
-        <v>0.803862423113584</v>
-      </c>
-      <c r="BU5">
-        <v>0.8114825935951938</v>
-      </c>
-      <c r="BV5">
-        <v>0.8566144023069419</v>
-      </c>
-      <c r="BW5">
-        <v>0.889569766440454</v>
-      </c>
-      <c r="BX5">
-        <v>0.9021118336084984</v>
-      </c>
-      <c r="BY5">
-        <v>0.907498271090193</v>
-      </c>
-      <c r="BZ5">
-        <v>0.9449710038259179</v>
-      </c>
-      <c r="CA5">
-        <v>0.995127826734721</v>
-      </c>
-      <c r="CB5">
-        <v>0.9951331314441071</v>
-      </c>
-      <c r="CC5">
-        <v>0.9999815595452308</v>
-      </c>
-      <c r="CD5">
-        <v>1</v>
-      </c>
-      <c r="CE5">
-        <v>1</v>
-      </c>
-      <c r="CF5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:84">
-      <c r="A6" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5039,13 +4988,10 @@
       <c r="CE6">
         <v>1</v>
       </c>
-      <c r="CF6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:84">
+    <row r="7" spans="1:83">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5293,267 +5239,261 @@
       <c r="CE7">
         <v>1</v>
       </c>
-      <c r="CF7">
+    </row>
+    <row r="8" spans="1:83">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0.008059055713352107</v>
+      </c>
+      <c r="BA8">
+        <v>0.1604157535617533</v>
+      </c>
+      <c r="BB8">
+        <v>0.3331481509136291</v>
+      </c>
+      <c r="BC8">
+        <v>0.3875602047388979</v>
+      </c>
+      <c r="BD8">
+        <v>0.3925594416543938</v>
+      </c>
+      <c r="BE8">
+        <v>0.4137085556026783</v>
+      </c>
+      <c r="BF8">
+        <v>0.4164342992911551</v>
+      </c>
+      <c r="BG8">
+        <v>0.4211067165028227</v>
+      </c>
+      <c r="BH8">
+        <v>0.5622358618260737</v>
+      </c>
+      <c r="BI8">
+        <v>0.6232461046793492</v>
+      </c>
+      <c r="BJ8">
+        <v>0.6239199213796994</v>
+      </c>
+      <c r="BK8">
+        <v>0.6841703610906973</v>
+      </c>
+      <c r="BL8">
+        <v>0.684221574643307</v>
+      </c>
+      <c r="BM8">
+        <v>0.6890050125738169</v>
+      </c>
+      <c r="BN8">
+        <v>0.6894117193997673</v>
+      </c>
+      <c r="BO8">
+        <v>0.6923101928707455</v>
+      </c>
+      <c r="BP8">
+        <v>0.6966692059696148</v>
+      </c>
+      <c r="BQ8">
+        <v>0.7866061137374729</v>
+      </c>
+      <c r="BR8">
+        <v>0.8340269846083155</v>
+      </c>
+      <c r="BS8">
+        <v>0.8340376336163186</v>
+      </c>
+      <c r="BT8">
+        <v>0.8340679478999219</v>
+      </c>
+      <c r="BU8">
+        <v>0.8378389336208695</v>
+      </c>
+      <c r="BV8">
+        <v>0.8489780285698046</v>
+      </c>
+      <c r="BW8">
+        <v>0.8563108262532958</v>
+      </c>
+      <c r="BX8">
+        <v>0.8912646994306177</v>
+      </c>
+      <c r="BY8">
+        <v>0.9023403023901415</v>
+      </c>
+      <c r="BZ8">
+        <v>0.909743291108867</v>
+      </c>
+      <c r="CA8">
+        <v>0.9222753452769636</v>
+      </c>
+      <c r="CB8">
+        <v>0.9482759623175407</v>
+      </c>
+      <c r="CC8">
+        <v>0.9913163310470129</v>
+      </c>
+      <c r="CD8">
+        <v>0.991403327002259</v>
+      </c>
+      <c r="CE8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:84">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:83">
+      <c r="A9" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0.1531198011363544</v>
-      </c>
-      <c r="BB8">
-        <v>0.3267173567793766</v>
-      </c>
-      <c r="BC8">
-        <v>0.3814019422213364</v>
-      </c>
-      <c r="BD8">
-        <v>0.3864262186275889</v>
-      </c>
-      <c r="BE8">
-        <v>0.4076812613510382</v>
-      </c>
-      <c r="BF8">
-        <v>0.4104206573698698</v>
-      </c>
-      <c r="BG8">
-        <v>0.4151164771426802</v>
-      </c>
-      <c r="BH8">
-        <v>0.5569524907319351</v>
-      </c>
-      <c r="BI8">
-        <v>0.618268313304236</v>
-      </c>
-      <c r="BJ8">
-        <v>0.6189455049250643</v>
-      </c>
-      <c r="BK8">
-        <v>0.6794977187575375</v>
-      </c>
-      <c r="BL8">
-        <v>0.6795491888215507</v>
-      </c>
-      <c r="BM8">
-        <v>0.684356585378521</v>
-      </c>
-      <c r="BN8">
-        <v>0.6847653292617226</v>
-      </c>
-      <c r="BO8">
-        <v>0.6876783202082498</v>
-      </c>
-      <c r="BP8">
-        <v>0.6920591661328167</v>
-      </c>
-      <c r="BQ8">
-        <v>0.7824465375231817</v>
-      </c>
-      <c r="BR8">
-        <v>0.8301049235344163</v>
-      </c>
-      <c r="BS8">
-        <v>0.8301156258797071</v>
-      </c>
-      <c r="BT8">
-        <v>0.8301460919973277</v>
-      </c>
-      <c r="BU8">
-        <v>0.833935965313262</v>
-      </c>
-      <c r="BV8">
-        <v>0.8451308522299963</v>
-      </c>
-      <c r="BW8">
-        <v>0.8525003774226891</v>
-      </c>
-      <c r="BX8">
-        <v>0.8876293227558466</v>
-      </c>
-      <c r="BY8">
-        <v>0.8987603996732195</v>
-      </c>
-      <c r="BZ8">
-        <v>0.9062004674643568</v>
-      </c>
-      <c r="CA8">
-        <v>0.9187952904629383</v>
-      </c>
-      <c r="CB8">
-        <v>0.9449261358205678</v>
-      </c>
-      <c r="CC8">
-        <v>0.988182079233372</v>
-      </c>
-      <c r="CD8">
-        <v>0.9882695109220018</v>
-      </c>
-      <c r="CE8">
-        <v>0.9969092417539088</v>
-      </c>
-      <c r="CF8">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:84">
-      <c r="A9" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5801,13 +5741,10 @@
       <c r="CE9">
         <v>1</v>
       </c>
-      <c r="CF9">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:84">
+    <row r="10" spans="1:83">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6055,13 +5992,10 @@
       <c r="CE10">
         <v>0.9999999999999998</v>
       </c>
-      <c r="CF10">
-        <v>0.9999999999999998</v>
-      </c>
     </row>
-    <row r="11" spans="1:84">
+    <row r="11" spans="1:83">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6307,9 +6241,6 @@
         <v>1</v>
       </c>
       <c r="CE11">
-        <v>1</v>
-      </c>
-      <c r="CF11">
         <v>1</v>
       </c>
     </row>
@@ -6328,48 +6259,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -6396,21 +6327,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>108</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -6425,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6015659898316325</v>
+        <v>0.6035875562066975</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -6437,21 +6368,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>107</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>108</v>
-      </c>
-      <c r="M3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -6466,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6818160440260019</v>
+        <v>0.6828139486211979</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -6478,21 +6409,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
         <v>106</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
-      </c>
-      <c r="M4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -6507,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5929567047385074</v>
+        <v>0.5952348047222698</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -6519,21 +6450,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>106</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>107</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>108</v>
-      </c>
-      <c r="M5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -6560,21 +6491,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>108</v>
-      </c>
-      <c r="M6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -6601,21 +6532,21 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
         <v>106</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>107</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>108</v>
-      </c>
-      <c r="M7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -6630,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5569524907319351</v>
+        <v>0.5622358618260737</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -6642,21 +6573,21 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>108</v>
-      </c>
-      <c r="M8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -6683,21 +6614,21 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
         <v>106</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>108</v>
-      </c>
-      <c r="M9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -6724,21 +6655,21 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>108</v>
-      </c>
-      <c r="M10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -6765,16 +6696,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>108</v>
-      </c>
-      <c r="M11" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6792,48 +6723,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -6860,21 +6791,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>108</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -6889,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7285258043687366</v>
+        <v>0.7304522669196191</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -6901,21 +6832,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>107</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>108</v>
-      </c>
-      <c r="M3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -6930,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7106795767486607</v>
+        <v>0.7116081897753972</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -6942,21 +6873,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
         <v>106</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
-      </c>
-      <c r="M4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -6971,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7376825592633744</v>
+        <v>0.7391571919590664</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -6983,21 +6914,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>106</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>107</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>108</v>
-      </c>
-      <c r="M5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -7024,21 +6955,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>108</v>
-      </c>
-      <c r="M6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -7065,21 +6996,21 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
         <v>106</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>107</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>108</v>
-      </c>
-      <c r="M7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -7094,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7824465375231817</v>
+        <v>0.7866061137374729</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -7106,21 +7037,21 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>108</v>
-      </c>
-      <c r="M8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -7147,21 +7078,21 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
         <v>106</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>108</v>
-      </c>
-      <c r="M9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -7188,21 +7119,21 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>108</v>
-      </c>
-      <c r="M10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -7229,16 +7160,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>108</v>
-      </c>
-      <c r="M11" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7256,48 +7187,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -7324,21 +7255,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>108</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -7353,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8622891929110178</v>
+        <v>0.8641154551754365</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -7365,21 +7296,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>107</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>108</v>
-      </c>
-      <c r="M3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -7394,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8149029185391274</v>
+        <v>0.8155813266137488</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -7406,21 +7337,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
         <v>106</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
-      </c>
-      <c r="M4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -7435,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.803862423113584</v>
+        <v>0.8049696483691391</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -7447,21 +7378,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>106</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>107</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>108</v>
-      </c>
-      <c r="M5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -7488,21 +7419,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>108</v>
-      </c>
-      <c r="M6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -7529,21 +7460,21 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
         <v>106</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>107</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>108</v>
-      </c>
-      <c r="M7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -7558,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8301049235344163</v>
+        <v>0.8340269846083155</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -7570,21 +7501,21 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>108</v>
-      </c>
-      <c r="M8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -7611,21 +7542,21 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
         <v>106</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>108</v>
-      </c>
-      <c r="M9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -7652,21 +7583,21 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>108</v>
-      </c>
-      <c r="M10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -7693,16 +7624,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>108</v>
-      </c>
-      <c r="M11" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7720,48 +7651,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -7788,21 +7719,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>108</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -7817,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.917001226735577</v>
+        <v>0.9187865049794651</v>
       </c>
       <c r="G3">
         <v>26</v>
@@ -7829,21 +7760,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>107</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>108</v>
-      </c>
-      <c r="M3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -7858,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9125436607893639</v>
+        <v>0.9129876665044034</v>
       </c>
       <c r="G4">
         <v>26</v>
@@ -7870,21 +7801,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
         <v>106</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>108</v>
-      </c>
-      <c r="M4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -7899,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9021118336084984</v>
+        <v>0.9026736125257748</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -7911,21 +7842,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>106</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>107</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>108</v>
-      </c>
-      <c r="M5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -7952,21 +7883,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>108</v>
-      </c>
-      <c r="M6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -7993,21 +7924,21 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
         <v>106</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>107</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>108</v>
-      </c>
-      <c r="M7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -8016,16 +7947,16 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9062004674643568</v>
+        <v>0.9023403023901415</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>46</v>
@@ -8034,21 +7965,21 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>108</v>
-      </c>
-      <c r="M8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -8075,21 +8006,21 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
         <v>106</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>108</v>
-      </c>
-      <c r="M9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -8116,21 +8047,21 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>108</v>
-      </c>
-      <c r="M10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -8157,16 +8088,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>108</v>
-      </c>
-      <c r="M11" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/46_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/46_225-80R17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="110">
   <si>
     <t>Signal_Value_42</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -703,15 +706,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE11"/>
+  <dimension ref="A1:CF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:84">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -959,10 +962,13 @@
       <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:84">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1210,10 +1216,13 @@
       <c r="CE2">
         <v>0</v>
       </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:84">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1363,108 +1372,111 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.002472191057683874</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.1768999127227066</v>
+        <v>0.1770325253153097</v>
       </c>
       <c r="BA3">
-        <v>0.1055716641199158</v>
+        <v>0.1056508056631133</v>
       </c>
       <c r="BB3">
-        <v>0.08111353901720292</v>
+        <v>0.08117434558594978</v>
       </c>
       <c r="BC3">
-        <v>0.02612115985326779</v>
+        <v>0.0261407415177052</v>
       </c>
       <c r="BD3">
-        <v>0.01915814862192491</v>
+        <v>0.01917251048179882</v>
       </c>
       <c r="BE3">
-        <v>0.01300187629028176</v>
+        <v>0.01301162311546117</v>
       </c>
       <c r="BF3">
-        <v>0.01558935575623713</v>
+        <v>0.01560104227915299</v>
       </c>
       <c r="BG3">
-        <v>0.03333264189614783</v>
+        <v>0.03335762963069289</v>
       </c>
       <c r="BH3">
-        <v>0.1303270668713288</v>
+        <v>0.1304247662424487</v>
       </c>
       <c r="BI3">
-        <v>0.002883481683615374</v>
+        <v>0.002885643278699862</v>
       </c>
       <c r="BJ3">
-        <v>0.1239812290293062</v>
+        <v>0.1240741712584043</v>
       </c>
       <c r="BK3">
-        <v>0.005107221107689682</v>
+        <v>0.005111049723666163</v>
       </c>
       <c r="BL3">
-        <v>0.002376482918060301</v>
+        <v>0.002378264442743895</v>
       </c>
       <c r="BM3">
-        <v>0.004123471913442773</v>
+        <v>0.004126563064210185</v>
       </c>
       <c r="BN3">
-        <v>0.02585852110058549</v>
+        <v>0.02587790587851586</v>
       </c>
       <c r="BO3">
-        <v>0.0002535836865746936</v>
+        <v>0.0002537737849732792</v>
       </c>
       <c r="BP3">
-        <v>0.006502845755804279</v>
+        <v>0.006507720598429709</v>
       </c>
       <c r="BQ3">
-        <v>0.08944106177366029</v>
+        <v>0.08950811104974203</v>
       </c>
       <c r="BR3">
-        <v>0.003908746148329182</v>
+        <v>0.003911676330445043</v>
       </c>
       <c r="BS3">
-        <v>0.0004108769560562831</v>
+        <v>0.0004111849689746893</v>
       </c>
       <c r="BT3">
-        <v>0.0002381619834706034</v>
+        <v>0.0002383405210266792</v>
       </c>
       <c r="BU3">
-        <v>0.01626524721478289</v>
+        <v>0.01627744041809931</v>
       </c>
       <c r="BV3">
-        <v>0.0001082242483004052</v>
+        <v>0.0001083053783469313</v>
       </c>
       <c r="BW3">
-        <v>0.01112860143256337</v>
+        <v>0.01113694396176706</v>
       </c>
       <c r="BX3">
-        <v>0.02261119182052609</v>
+        <v>0.02262814224589949</v>
       </c>
       <c r="BY3">
-        <v>2.053959603649646E-05</v>
+        <v>2.055499349509041E-05</v>
       </c>
       <c r="BZ3">
-        <v>0.003777723140167999</v>
+        <v>0.003780555101202033</v>
       </c>
       <c r="CA3">
-        <v>0.02106804481978415</v>
+        <v>0.02108383842873301</v>
       </c>
       <c r="CB3">
-        <v>0.04612646475843248</v>
+        <v>0.04616104335140681</v>
       </c>
       <c r="CC3">
-        <v>0.01021816194248939</v>
+        <v>0.01022582196292681</v>
       </c>
       <c r="CD3">
-        <v>2.560763624269916E-06</v>
+        <v>2.562683294540136E-06</v>
       </c>
       <c r="CE3">
+        <v>0.00172439674336459</v>
+      </c>
+      <c r="CF3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:84">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1614,108 +1626,111 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.002634714044175034</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.2404253309829231</v>
+        <v>0.2410038997388062</v>
       </c>
       <c r="BA4">
-        <v>0.08331975133957363</v>
+        <v>0.08352025519112682</v>
       </c>
       <c r="BB4">
-        <v>0.07356938570030574</v>
+        <v>0.07374642589728372</v>
       </c>
       <c r="BC4">
-        <v>0.003145922171300765</v>
+        <v>0.003153492639309745</v>
       </c>
       <c r="BD4">
-        <v>0.02129411485522725</v>
+        <v>0.02134535783153533</v>
       </c>
       <c r="BE4">
-        <v>0.006677397379664132</v>
+        <v>0.006693466125327056</v>
       </c>
       <c r="BF4">
-        <v>0.01303889887788214</v>
+        <v>0.01307027618521918</v>
       </c>
       <c r="BG4">
-        <v>0.03402045350633762</v>
+        <v>0.03410232163304154</v>
       </c>
       <c r="BH4">
-        <v>0.2046879797638085</v>
+        <v>0.2051805487843522</v>
       </c>
       <c r="BI4">
-        <v>0.002830885467558395</v>
+        <v>0.002837697819136812</v>
       </c>
       <c r="BJ4">
-        <v>0.02596335568664093</v>
+        <v>0.02602583490352193</v>
       </c>
       <c r="BK4">
-        <v>0.0006002556703395484</v>
+        <v>0.0006017001486521303</v>
       </c>
       <c r="BL4">
-        <v>0.003949402301913207</v>
+        <v>0.003958906295385767</v>
       </c>
       <c r="BM4">
-        <v>0.0009342364504422021</v>
+        <v>0.0009364846329387101</v>
       </c>
       <c r="BN4">
-        <v>0.0006651868072132081</v>
+        <v>0.0006667875383088285</v>
       </c>
       <c r="BO4">
-        <v>0.0009224351584487434</v>
+        <v>0.0009246549418626816</v>
       </c>
       <c r="BP4">
-        <v>0.0438165490543324</v>
+        <v>0.04392199088182128</v>
       </c>
       <c r="BQ4">
-        <v>0.0530850713956624</v>
+        <v>0.05321281735149738</v>
       </c>
       <c r="BR4">
-        <v>0.001549546337759819</v>
+        <v>0.00155327522561517</v>
       </c>
       <c r="BS4">
-        <v>0.0007132636245018039</v>
+        <v>0.0007149800494981117</v>
       </c>
       <c r="BT4">
-        <v>0.01664593741186005</v>
+        <v>0.01668599483534166</v>
       </c>
       <c r="BU4">
-        <v>0.01193497202383387</v>
+        <v>0.01196369279916606</v>
       </c>
       <c r="BV4">
-        <v>0.003442253263103639</v>
+        <v>0.003450536833639765</v>
       </c>
       <c r="BW4">
-        <v>0.0260025570478686</v>
+        <v>0.02606513060041175</v>
       </c>
       <c r="BX4">
-        <v>0.03711781018172679</v>
+        <v>0.03720713190656397</v>
       </c>
       <c r="BY4">
-        <v>0.0009114337538796905</v>
+        <v>0.0009136270630908961</v>
       </c>
       <c r="BZ4">
-        <v>0.01213259653025553</v>
+        <v>0.01216179287679457</v>
       </c>
       <c r="CA4">
-        <v>0.0128642895064774</v>
+        <v>0.01289524662711296</v>
       </c>
       <c r="CB4">
-        <v>0.05331985248052926</v>
+        <v>0.05344816342258936</v>
       </c>
       <c r="CC4">
-        <v>0.003934133601296934</v>
+        <v>0.003943600851581564</v>
       </c>
       <c r="CD4">
-        <v>0.003850027623157682</v>
+        <v>0.003859292477584374</v>
       </c>
       <c r="CE4">
+        <v>0.0002346158918825823</v>
+      </c>
+      <c r="CF4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:84">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1862,111 +1877,114 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.005569988064599324</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.1219116740694538</v>
+        <v>0.12259226340673</v>
       </c>
       <c r="AZ5">
-        <v>0.1720545993874947</v>
+        <v>0.1730151187689752</v>
       </c>
       <c r="BA5">
-        <v>0.03316021286049653</v>
+        <v>0.03334533448618928</v>
       </c>
       <c r="BB5">
-        <v>0.002515386813573177</v>
+        <v>0.002529429319818048</v>
       </c>
       <c r="BC5">
-        <v>0.01072918365064624</v>
+        <v>0.01078908085118954</v>
       </c>
       <c r="BD5">
-        <v>0.002092734140780049</v>
+        <v>0.002104417128097222</v>
       </c>
       <c r="BE5">
-        <v>0.01023639984162948</v>
+        <v>0.0102935460061579</v>
       </c>
       <c r="BF5">
-        <v>0.2369646258935965</v>
+        <v>0.2382875147713502</v>
       </c>
       <c r="BG5">
-        <v>0.02360260478654069</v>
+        <v>0.02373436969972293</v>
       </c>
       <c r="BH5">
-        <v>0.001191363040718586</v>
+        <v>0.001198013995096228</v>
       </c>
       <c r="BI5">
-        <v>0.02628124788326422</v>
+        <v>0.02642796670421545</v>
       </c>
       <c r="BJ5">
-        <v>0.005349073583382789</v>
+        <v>0.00537893555085181</v>
       </c>
       <c r="BK5">
-        <v>0.0008845889063765057</v>
+        <v>0.0008895272503222188</v>
       </c>
       <c r="BL5">
-        <v>0.0002209917857257009</v>
+        <v>0.0002222255039412743</v>
       </c>
       <c r="BM5">
-        <v>0.001449017986200472</v>
+        <v>0.001457107336120871</v>
       </c>
       <c r="BN5">
-        <v>0.006573866220365837</v>
+        <v>0.006610565767709532</v>
       </c>
       <c r="BO5">
-        <v>0.07836963304422193</v>
+        <v>0.0788071427168867</v>
       </c>
       <c r="BP5">
-        <v>0.0273582101907629</v>
+        <v>0.02751094130765483</v>
       </c>
       <c r="BQ5">
-        <v>0.006549497093447971</v>
+        <v>0.006586060596659176</v>
       </c>
       <c r="BR5">
-        <v>0.007763322283987014</v>
+        <v>0.007806662139736267</v>
       </c>
       <c r="BS5">
-        <v>0.01488367822946469</v>
+        <v>0.01496676848952175</v>
       </c>
       <c r="BT5">
-        <v>0.009257748612410162</v>
+        <v>0.009309431316637487</v>
       </c>
       <c r="BU5">
-        <v>0.007577865962271567</v>
+        <v>0.007620170481609819</v>
       </c>
       <c r="BV5">
-        <v>0.04488125270660039</v>
+        <v>0.04513180871174807</v>
       </c>
       <c r="BW5">
-        <v>0.03277240748672193</v>
+        <v>0.03295536413351217</v>
       </c>
       <c r="BX5">
-        <v>0.01247243800104179</v>
+        <v>0.01254206716804438</v>
       </c>
       <c r="BY5">
-        <v>0.005356533866131269</v>
+        <v>0.005386437481694538</v>
       </c>
       <c r="BZ5">
-        <v>0.03726469723960292</v>
+        <v>0.03747273273572489</v>
       </c>
       <c r="CA5">
-        <v>0.04987836978366476</v>
+        <v>0.05015682290880305</v>
       </c>
       <c r="CB5">
-        <v>5.27525949627441E-06</v>
+        <v>5.304709386056776E-06</v>
       </c>
       <c r="CC5">
-        <v>0.004821511325329954</v>
+        <v>0.004848428101123767</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>1.844045476912291E-05</v>
       </c>
       <c r="CE5">
         <v>0</v>
       </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:83">
+    <row r="6" spans="1:84">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2214,10 +2232,13 @@
       <c r="CE6">
         <v>0</v>
       </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:83">
+    <row r="7" spans="1:84">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2465,10 +2486,13 @@
       <c r="CE7">
         <v>0.002738317614739813</v>
       </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:83">
+    <row r="8" spans="1:84">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2621,105 +2645,108 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0.008059055713352107</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.1523566978484012</v>
+        <v>0.1531198011363544</v>
       </c>
       <c r="BB8">
-        <v>0.1727323973518758</v>
+        <v>0.1735975556430223</v>
       </c>
       <c r="BC8">
-        <v>0.05441205382526868</v>
+        <v>0.0546845854419598</v>
       </c>
       <c r="BD8">
-        <v>0.004999236915495917</v>
+        <v>0.005024276406252455</v>
       </c>
       <c r="BE8">
-        <v>0.0211491139482845</v>
+        <v>0.02125504272344928</v>
       </c>
       <c r="BF8">
-        <v>0.002725743688476751</v>
+        <v>0.002739396018831559</v>
       </c>
       <c r="BG8">
-        <v>0.004672417211667616</v>
+        <v>0.004695819772810418</v>
       </c>
       <c r="BH8">
-        <v>0.1411291453232509</v>
+        <v>0.1418360135892549</v>
       </c>
       <c r="BI8">
-        <v>0.06101024285327549</v>
+        <v>0.06131582257230091</v>
       </c>
       <c r="BJ8">
-        <v>0.0006738167003502942</v>
+        <v>0.0006771916208282025</v>
       </c>
       <c r="BK8">
-        <v>0.0602504397109979</v>
+        <v>0.06055221383247324</v>
       </c>
       <c r="BL8">
-        <v>5.12135526097649E-05</v>
+        <v>5.147006401317665E-05</v>
       </c>
       <c r="BM8">
-        <v>0.00478343793050981</v>
+        <v>0.004807396556970223</v>
       </c>
       <c r="BN8">
-        <v>0.0004067068259504985</v>
+        <v>0.0004087438832016647</v>
       </c>
       <c r="BO8">
-        <v>0.002898473470978133</v>
+        <v>0.002912990946527184</v>
       </c>
       <c r="BP8">
-        <v>0.004359013098869349</v>
+        <v>0.004380845924566897</v>
       </c>
       <c r="BQ8">
-        <v>0.08993690776785808</v>
+        <v>0.09038737139036505</v>
       </c>
       <c r="BR8">
-        <v>0.04742087087084255</v>
+        <v>0.04765838601123466</v>
       </c>
       <c r="BS8">
-        <v>1.064900800311578E-05</v>
+        <v>1.070234529077938E-05</v>
       </c>
       <c r="BT8">
-        <v>3.031428360332388E-05</v>
+        <v>3.046611762057633E-05</v>
       </c>
       <c r="BU8">
-        <v>0.003770985720947573</v>
+        <v>0.003789873315934324</v>
       </c>
       <c r="BV8">
-        <v>0.01113909494893514</v>
+        <v>0.01119488691673437</v>
       </c>
       <c r="BW8">
-        <v>0.007332797683491151</v>
+        <v>0.007369525192692849</v>
       </c>
       <c r="BX8">
-        <v>0.03495387317732192</v>
+        <v>0.03512894533315752</v>
       </c>
       <c r="BY8">
-        <v>0.01107560295952381</v>
+        <v>0.01113107691737295</v>
       </c>
       <c r="BZ8">
-        <v>0.007402988718725456</v>
+        <v>0.007440067791137229</v>
       </c>
       <c r="CA8">
-        <v>0.01253205416809667</v>
+        <v>0.01259482299858155</v>
       </c>
       <c r="CB8">
-        <v>0.02600061704057709</v>
+        <v>0.0261308453576296</v>
       </c>
       <c r="CC8">
-        <v>0.04304036872947214</v>
+        <v>0.04325594341280412</v>
       </c>
       <c r="CD8">
-        <v>8.699595524603745E-05</v>
+        <v>8.743168862976391E-05</v>
       </c>
       <c r="CE8">
-        <v>0.008596672997741103</v>
+        <v>0.008639730831907092</v>
+      </c>
+      <c r="CF8">
+        <v>0.00309075824609107</v>
       </c>
     </row>
-    <row r="9" spans="1:83">
+    <row r="9" spans="1:84">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2967,10 +2994,13 @@
       <c r="CE9">
         <v>0</v>
       </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:83">
+    <row r="10" spans="1:84">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3218,10 +3248,13 @@
       <c r="CE10">
         <v>0</v>
       </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:83">
+    <row r="11" spans="1:84">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3467,6 +3500,9 @@
         <v>0.006151980046410358</v>
       </c>
       <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
         <v>0</v>
       </c>
     </row>
@@ -3477,15 +3513,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE11"/>
+  <dimension ref="A1:CF11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:84">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3733,10 +3769,13 @@
       <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:84">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3984,10 +4023,13 @@
       <c r="CE2">
         <v>0.9999999999999997</v>
       </c>
+      <c r="CF2">
+        <v>0.9999999999999997</v>
+      </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:84">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4137,108 +4179,111 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.002472191057683874</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.1793721037803904</v>
+        <v>0.1770325253153097</v>
       </c>
       <c r="BA3">
-        <v>0.2849437679003063</v>
+        <v>0.282683330978423</v>
       </c>
       <c r="BB3">
-        <v>0.3660573069175092</v>
+        <v>0.3638576765643728</v>
       </c>
       <c r="BC3">
-        <v>0.392178466770777</v>
+        <v>0.389998418082078</v>
       </c>
       <c r="BD3">
-        <v>0.4113366153927019</v>
+        <v>0.4091709285638768</v>
       </c>
       <c r="BE3">
-        <v>0.4243384916829837</v>
+        <v>0.4221825516793379</v>
       </c>
       <c r="BF3">
-        <v>0.4399278474392209</v>
+        <v>0.4377835939584909</v>
       </c>
       <c r="BG3">
-        <v>0.4732604893353687</v>
+        <v>0.4711412235891838</v>
       </c>
       <c r="BH3">
-        <v>0.6035875562066975</v>
+        <v>0.6015659898316325</v>
       </c>
       <c r="BI3">
-        <v>0.6064710378903129</v>
+        <v>0.6044516331103323</v>
       </c>
       <c r="BJ3">
-        <v>0.7304522669196191</v>
+        <v>0.7285258043687366</v>
       </c>
       <c r="BK3">
-        <v>0.7355594880273087</v>
+        <v>0.7336368540924028</v>
       </c>
       <c r="BL3">
-        <v>0.737935970945369</v>
+        <v>0.7360151185351467</v>
       </c>
       <c r="BM3">
-        <v>0.7420594428588118</v>
+        <v>0.7401416815993569</v>
       </c>
       <c r="BN3">
-        <v>0.7679179639593973</v>
+        <v>0.7660195874778728</v>
       </c>
       <c r="BO3">
-        <v>0.768171547645972</v>
+        <v>0.7662733612628461</v>
       </c>
       <c r="BP3">
-        <v>0.7746743934017762</v>
+        <v>0.7727810818612758</v>
       </c>
       <c r="BQ3">
-        <v>0.8641154551754365</v>
+        <v>0.8622891929110178</v>
       </c>
       <c r="BR3">
-        <v>0.8680242013237657</v>
+        <v>0.8662008692414629</v>
       </c>
       <c r="BS3">
-        <v>0.8684350782798219</v>
+        <v>0.8666120542104376</v>
       </c>
       <c r="BT3">
-        <v>0.8686732402632925</v>
+        <v>0.8668503947314643</v>
       </c>
       <c r="BU3">
-        <v>0.8849384874780754</v>
+        <v>0.8831278351495636</v>
       </c>
       <c r="BV3">
-        <v>0.8850467117263757</v>
+        <v>0.8832361405279106</v>
       </c>
       <c r="BW3">
-        <v>0.8961753131589391</v>
+        <v>0.8943730844896776</v>
       </c>
       <c r="BX3">
-        <v>0.9187865049794651</v>
+        <v>0.917001226735577</v>
       </c>
       <c r="BY3">
-        <v>0.9188070445755017</v>
+        <v>0.9170217817290721</v>
       </c>
       <c r="BZ3">
-        <v>0.9225847677156697</v>
+        <v>0.9208023368302741</v>
       </c>
       <c r="CA3">
-        <v>0.9436528125354539</v>
+        <v>0.9418861752590071</v>
       </c>
       <c r="CB3">
-        <v>0.9897792772938864</v>
+        <v>0.9880472186104139</v>
       </c>
       <c r="CC3">
-        <v>0.9999974392363757</v>
+        <v>0.9982730405733407</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>0.9982756032566352</v>
       </c>
       <c r="CE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF3">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:84">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4388,108 +4433,111 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.002634714044175034</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.2430600450270982</v>
+        <v>0.2410038997388062</v>
       </c>
       <c r="BA4">
-        <v>0.3263797963666718</v>
+        <v>0.324524154929933</v>
       </c>
       <c r="BB4">
-        <v>0.3999491820669775</v>
+        <v>0.3982705808272168</v>
       </c>
       <c r="BC4">
-        <v>0.4030951042382783</v>
+        <v>0.4014240734665265</v>
       </c>
       <c r="BD4">
-        <v>0.4243892190935056</v>
+        <v>0.4227694312980619</v>
       </c>
       <c r="BE4">
-        <v>0.4310666164731697</v>
+        <v>0.4294628974233889</v>
       </c>
       <c r="BF4">
-        <v>0.4441055153510518</v>
+        <v>0.4425331736086081</v>
       </c>
       <c r="BG4">
-        <v>0.4781259688573894</v>
+        <v>0.4766354952416497</v>
       </c>
       <c r="BH4">
-        <v>0.6828139486211979</v>
+        <v>0.6818160440260019</v>
       </c>
       <c r="BI4">
-        <v>0.6856448340887563</v>
+        <v>0.6846537418451387</v>
       </c>
       <c r="BJ4">
-        <v>0.7116081897753972</v>
+        <v>0.7106795767486607</v>
       </c>
       <c r="BK4">
-        <v>0.7122084454457367</v>
+        <v>0.7112812768973128</v>
       </c>
       <c r="BL4">
-        <v>0.7161578477476499</v>
+        <v>0.7152401831926986</v>
       </c>
       <c r="BM4">
-        <v>0.7170920841980921</v>
+        <v>0.7161766678256373</v>
       </c>
       <c r="BN4">
-        <v>0.7177572710053053</v>
+        <v>0.7168434553639461</v>
       </c>
       <c r="BO4">
-        <v>0.718679706163754</v>
+        <v>0.7177681103058088</v>
       </c>
       <c r="BP4">
-        <v>0.7624962552180864</v>
+        <v>0.76169010118763</v>
       </c>
       <c r="BQ4">
-        <v>0.8155813266137488</v>
+        <v>0.8149029185391274</v>
       </c>
       <c r="BR4">
-        <v>0.8171308729515087</v>
+        <v>0.8164561937647427</v>
       </c>
       <c r="BS4">
-        <v>0.8178441365760105</v>
+        <v>0.8171711738142408</v>
       </c>
       <c r="BT4">
-        <v>0.8344900739878706</v>
+        <v>0.8338571686495824</v>
       </c>
       <c r="BU4">
-        <v>0.8464250460117044</v>
+        <v>0.8458208614487485</v>
       </c>
       <c r="BV4">
-        <v>0.8498672992748081</v>
+        <v>0.8492713982823882</v>
       </c>
       <c r="BW4">
-        <v>0.8758698563226767</v>
+        <v>0.8753365288827999</v>
       </c>
       <c r="BX4">
-        <v>0.9129876665044034</v>
+        <v>0.9125436607893639</v>
       </c>
       <c r="BY4">
-        <v>0.9138991002582831</v>
+        <v>0.9134572878524548</v>
       </c>
       <c r="BZ4">
-        <v>0.9260316967885387</v>
+        <v>0.9256190807292494</v>
       </c>
       <c r="CA4">
-        <v>0.9388959862950161</v>
+        <v>0.9385143273563623</v>
       </c>
       <c r="CB4">
-        <v>0.9922158387755454</v>
+        <v>0.9919624907789517</v>
       </c>
       <c r="CC4">
-        <v>0.9961499723768423</v>
+        <v>0.9959060916305332</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>0.9997653841081175</v>
       </c>
       <c r="CE4">
         <v>1</v>
       </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:84">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4636,111 +4684,114 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.005569988064599324</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.1274816621340531</v>
+        <v>0.12259226340673</v>
       </c>
       <c r="AZ5">
-        <v>0.2995362615215478</v>
+        <v>0.2956073821757052</v>
       </c>
       <c r="BA5">
-        <v>0.3326964743820443</v>
+        <v>0.3289527166618945</v>
       </c>
       <c r="BB5">
-        <v>0.3352118611956175</v>
+        <v>0.3314821459817125</v>
       </c>
       <c r="BC5">
-        <v>0.3459410448462637</v>
+        <v>0.342271226832902</v>
       </c>
       <c r="BD5">
-        <v>0.3480337789870437</v>
+        <v>0.3443756439609992</v>
       </c>
       <c r="BE5">
-        <v>0.3582701788286732</v>
+        <v>0.3546691899671571</v>
       </c>
       <c r="BF5">
-        <v>0.5952348047222698</v>
+        <v>0.5929567047385074</v>
       </c>
       <c r="BG5">
-        <v>0.6188374095088104</v>
+        <v>0.6166910744382303</v>
       </c>
       <c r="BH5">
-        <v>0.6200287725495289</v>
+        <v>0.6178890884333266</v>
       </c>
       <c r="BI5">
-        <v>0.6463100204327932</v>
+        <v>0.644317055137542</v>
       </c>
       <c r="BJ5">
-        <v>0.6516590940161759</v>
+        <v>0.6496959906883938</v>
       </c>
       <c r="BK5">
-        <v>0.6525436829225525</v>
+        <v>0.650585517938716</v>
       </c>
       <c r="BL5">
-        <v>0.6527646747082781</v>
+        <v>0.6508077434426572</v>
       </c>
       <c r="BM5">
-        <v>0.6542136926944786</v>
+        <v>0.6522648507787782</v>
       </c>
       <c r="BN5">
-        <v>0.6607875589148444</v>
+        <v>0.6588754165464877</v>
       </c>
       <c r="BO5">
-        <v>0.7391571919590664</v>
+        <v>0.7376825592633744</v>
       </c>
       <c r="BP5">
-        <v>0.7665154021498293</v>
+        <v>0.7651935005710293</v>
       </c>
       <c r="BQ5">
-        <v>0.7730648992432773</v>
+        <v>0.7717795611676885</v>
       </c>
       <c r="BR5">
-        <v>0.7808282215272643</v>
+        <v>0.7795862233074248</v>
       </c>
       <c r="BS5">
-        <v>0.795711899756729</v>
+        <v>0.7945529917969465</v>
       </c>
       <c r="BT5">
-        <v>0.8049696483691391</v>
+        <v>0.803862423113584</v>
       </c>
       <c r="BU5">
-        <v>0.8125475143314107</v>
+        <v>0.8114825935951938</v>
       </c>
       <c r="BV5">
-        <v>0.8574287670380111</v>
+        <v>0.8566144023069419</v>
       </c>
       <c r="BW5">
-        <v>0.890201174524733</v>
+        <v>0.889569766440454</v>
       </c>
       <c r="BX5">
-        <v>0.9026736125257748</v>
+        <v>0.9021118336084984</v>
       </c>
       <c r="BY5">
-        <v>0.908030146391906</v>
+        <v>0.907498271090193</v>
       </c>
       <c r="BZ5">
-        <v>0.945294843631509</v>
+        <v>0.9449710038259179</v>
       </c>
       <c r="CA5">
-        <v>0.9951732134151737</v>
+        <v>0.995127826734721</v>
       </c>
       <c r="CB5">
-        <v>0.99517848867467</v>
+        <v>0.9951331314441071</v>
       </c>
       <c r="CC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999815595452308</v>
       </c>
       <c r="CD5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:83">
+    <row r="6" spans="1:84">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4988,10 +5039,13 @@
       <c r="CE6">
         <v>1</v>
       </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:83">
+    <row r="7" spans="1:84">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5239,10 +5293,13 @@
       <c r="CE7">
         <v>1</v>
       </c>
+      <c r="CF7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:83">
+    <row r="8" spans="1:84">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5395,105 +5452,108 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0.008059055713352107</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.1604157535617533</v>
+        <v>0.1531198011363544</v>
       </c>
       <c r="BB8">
-        <v>0.3331481509136291</v>
+        <v>0.3267173567793766</v>
       </c>
       <c r="BC8">
-        <v>0.3875602047388979</v>
+        <v>0.3814019422213364</v>
       </c>
       <c r="BD8">
-        <v>0.3925594416543938</v>
+        <v>0.3864262186275889</v>
       </c>
       <c r="BE8">
-        <v>0.4137085556026783</v>
+        <v>0.4076812613510382</v>
       </c>
       <c r="BF8">
-        <v>0.4164342992911551</v>
+        <v>0.4104206573698698</v>
       </c>
       <c r="BG8">
-        <v>0.4211067165028227</v>
+        <v>0.4151164771426802</v>
       </c>
       <c r="BH8">
-        <v>0.5622358618260737</v>
+        <v>0.5569524907319351</v>
       </c>
       <c r="BI8">
-        <v>0.6232461046793492</v>
+        <v>0.618268313304236</v>
       </c>
       <c r="BJ8">
-        <v>0.6239199213796994</v>
+        <v>0.6189455049250643</v>
       </c>
       <c r="BK8">
-        <v>0.6841703610906973</v>
+        <v>0.6794977187575375</v>
       </c>
       <c r="BL8">
-        <v>0.684221574643307</v>
+        <v>0.6795491888215507</v>
       </c>
       <c r="BM8">
-        <v>0.6890050125738169</v>
+        <v>0.684356585378521</v>
       </c>
       <c r="BN8">
-        <v>0.6894117193997673</v>
+        <v>0.6847653292617226</v>
       </c>
       <c r="BO8">
-        <v>0.6923101928707455</v>
+        <v>0.6876783202082498</v>
       </c>
       <c r="BP8">
-        <v>0.6966692059696148</v>
+        <v>0.6920591661328167</v>
       </c>
       <c r="BQ8">
-        <v>0.7866061137374729</v>
+        <v>0.7824465375231817</v>
       </c>
       <c r="BR8">
-        <v>0.8340269846083155</v>
+        <v>0.8301049235344163</v>
       </c>
       <c r="BS8">
-        <v>0.8340376336163186</v>
+        <v>0.8301156258797071</v>
       </c>
       <c r="BT8">
-        <v>0.8340679478999219</v>
+        <v>0.8301460919973277</v>
       </c>
       <c r="BU8">
-        <v>0.8378389336208695</v>
+        <v>0.833935965313262</v>
       </c>
       <c r="BV8">
-        <v>0.8489780285698046</v>
+        <v>0.8451308522299963</v>
       </c>
       <c r="BW8">
-        <v>0.8563108262532958</v>
+        <v>0.8525003774226891</v>
       </c>
       <c r="BX8">
-        <v>0.8912646994306177</v>
+        <v>0.8876293227558466</v>
       </c>
       <c r="BY8">
-        <v>0.9023403023901415</v>
+        <v>0.8987603996732195</v>
       </c>
       <c r="BZ8">
-        <v>0.909743291108867</v>
+        <v>0.9062004674643568</v>
       </c>
       <c r="CA8">
-        <v>0.9222753452769636</v>
+        <v>0.9187952904629383</v>
       </c>
       <c r="CB8">
-        <v>0.9482759623175407</v>
+        <v>0.9449261358205678</v>
       </c>
       <c r="CC8">
-        <v>0.9913163310470129</v>
+        <v>0.988182079233372</v>
       </c>
       <c r="CD8">
-        <v>0.991403327002259</v>
+        <v>0.9882695109220018</v>
       </c>
       <c r="CE8">
-        <v>1</v>
+        <v>0.9969092417539088</v>
+      </c>
+      <c r="CF8">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:83">
+    <row r="9" spans="1:84">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5741,10 +5801,13 @@
       <c r="CE9">
         <v>1</v>
       </c>
+      <c r="CF9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:83">
+    <row r="10" spans="1:84">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5992,10 +6055,13 @@
       <c r="CE10">
         <v>0.9999999999999998</v>
       </c>
+      <c r="CF10">
+        <v>0.9999999999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:83">
+    <row r="11" spans="1:84">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6241,6 +6307,9 @@
         <v>1</v>
       </c>
       <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
         <v>1</v>
       </c>
     </row>
@@ -6259,48 +6328,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -6327,21 +6396,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -6356,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6035875562066975</v>
+        <v>0.6015659898316325</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -6368,21 +6437,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -6397,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6828139486211979</v>
+        <v>0.6818160440260019</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -6409,21 +6478,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -6438,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5952348047222698</v>
+        <v>0.5929567047385074</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -6450,21 +6519,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -6491,21 +6560,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -6532,21 +6601,21 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -6561,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5622358618260737</v>
+        <v>0.5569524907319351</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -6573,21 +6642,21 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -6614,21 +6683,21 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -6655,21 +6724,21 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -6696,16 +6765,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6723,48 +6792,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -6791,21 +6860,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -6820,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7304522669196191</v>
+        <v>0.7285258043687366</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -6832,21 +6901,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -6861,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7116081897753972</v>
+        <v>0.7106795767486607</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -6873,21 +6942,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -6902,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7391571919590664</v>
+        <v>0.7376825592633744</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -6914,21 +6983,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -6955,21 +7024,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -6996,21 +7065,21 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -7025,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7866061137374729</v>
+        <v>0.7824465375231817</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -7037,21 +7106,21 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -7078,21 +7147,21 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -7119,21 +7188,21 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -7160,16 +7229,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7187,48 +7256,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -7255,21 +7324,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -7284,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8641154551754365</v>
+        <v>0.8622891929110178</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -7296,21 +7365,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -7325,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8155813266137488</v>
+        <v>0.8149029185391274</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -7337,21 +7406,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -7366,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8049696483691391</v>
+        <v>0.803862423113584</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -7378,21 +7447,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -7419,21 +7488,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -7460,21 +7529,21 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -7489,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8340269846083155</v>
+        <v>0.8301049235344163</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -7501,21 +7570,21 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -7542,21 +7611,21 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -7583,21 +7652,21 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -7624,16 +7693,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7651,48 +7720,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -7719,21 +7788,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -7748,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9187865049794651</v>
+        <v>0.917001226735577</v>
       </c>
       <c r="G3">
         <v>26</v>
@@ -7760,21 +7829,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -7789,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9129876665044034</v>
+        <v>0.9125436607893639</v>
       </c>
       <c r="G4">
         <v>26</v>
@@ -7801,21 +7870,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -7830,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9026736125257748</v>
+        <v>0.9021118336084984</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -7842,21 +7911,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -7883,21 +7952,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -7924,21 +7993,21 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -7947,16 +8016,16 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9023403023901415</v>
+        <v>0.9062004674643568</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>46</v>
@@ -7965,21 +8034,21 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -8006,21 +8075,21 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -8047,21 +8116,21 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -8088,16 +8157,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/46_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/46_225-80R17.xlsx
@@ -303,40 +303,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -346,9 +349,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -1118,100 +1118,100 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01931412869773687</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.1215114333894406</v>
+        <v>0.1738382940400709</v>
       </c>
       <c r="BA2">
-        <v>0.1863482614933469</v>
+        <v>0.2970045823505865</v>
       </c>
       <c r="BB2">
-        <v>0.05504723198480699</v>
+        <v>0.04758059094249932</v>
       </c>
       <c r="BC2">
-        <v>0.007553392050562259</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.03852724255299372</v>
+        <v>0.0161986458235215</v>
       </c>
       <c r="BE2">
-        <v>3.058851987635474E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.007971447058344103</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.09546702926456835</v>
+        <v>0.1243634403014078</v>
       </c>
       <c r="BH2">
-        <v>0.1009188661544938</v>
+        <v>0.1347199388199714</v>
       </c>
       <c r="BI2">
-        <v>0.003767960376445421</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.06376191465205176</v>
+        <v>0.06413530451066436</v>
       </c>
       <c r="BK2">
-        <v>0.001998189155783188</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001160463016259263</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.502053308431576E-08</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0008378434575053141</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0003577230679116021</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.046321186457623</v>
+        <v>0.03100429209133639</v>
       </c>
       <c r="BQ2">
-        <v>0.04333387420659979</v>
+        <v>0.02532949008847759</v>
       </c>
       <c r="BR2">
-        <v>0.003520379048986592</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0001934555480993078</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.00875364166791252</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01041050273629206</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.005942318177532123</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0349693335385202</v>
+        <v>0.009439918410808565</v>
       </c>
       <c r="BX2">
-        <v>0.03334615827423143</v>
+        <v>0.006356478359430681</v>
       </c>
       <c r="BY2">
-        <v>0.001789122465852705</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.005950471056826856</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.03407634154820591</v>
+        <v>0.007743559841851922</v>
       </c>
       <c r="CB2">
-        <v>0.06278812737905712</v>
+        <v>0.06228546441937304</v>
       </c>
       <c r="CC2">
-        <v>0.002278177883724634</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001753140097875775</v>
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -1375,100 +1375,100 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.1770325253153097</v>
+        <v>0.2686097638811406</v>
       </c>
       <c r="BA3">
-        <v>0.1056508056631133</v>
+        <v>0.1382044211170945</v>
       </c>
       <c r="BB3">
-        <v>0.08117434558594978</v>
+        <v>0.09348903485902769</v>
       </c>
       <c r="BC3">
-        <v>0.0261407415177052</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.01917251048179882</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01301162311546117</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.01560104227915299</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.03335762963069289</v>
+        <v>0.006133963219135652</v>
       </c>
       <c r="BH3">
-        <v>0.1304247662424487</v>
+        <v>0.1834633030368969</v>
       </c>
       <c r="BI3">
-        <v>0.002885643278699862</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.1240741712584043</v>
+        <v>0.171861571953854</v>
       </c>
       <c r="BK3">
-        <v>0.005111049723666163</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.002378264442743895</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.004126563064210185</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.02587790587851586</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0002537737849732792</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.006507720598429709</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.08950811104974203</v>
+        <v>0.1087137667247801</v>
       </c>
       <c r="BR3">
-        <v>0.003911676330445043</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0004111849689746893</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0002383405210266792</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01627744041809931</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0001083053783469313</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01113694396176706</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.02262814224589949</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>2.055499349509041E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.003780555101202033</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.02108383842873301</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.04616104335140681</v>
+        <v>0.02952417520807048</v>
       </c>
       <c r="CC3">
-        <v>0.01022582196292681</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>2.562683294540136E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.00172439674336459</v>
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -1629,100 +1629,100 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.2410038997388062</v>
+        <v>0.3799520097286546</v>
       </c>
       <c r="BA4">
-        <v>0.08352025519112682</v>
+        <v>0.09637323550053427</v>
       </c>
       <c r="BB4">
-        <v>0.07374642589728372</v>
+        <v>0.07877362673720149</v>
       </c>
       <c r="BC4">
-        <v>0.003153492639309745</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.02134535783153533</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.006693466125327056</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01307027618521918</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.03410232163304154</v>
+        <v>0.007386997827797995</v>
       </c>
       <c r="BH4">
-        <v>0.2051805487843522</v>
+        <v>0.3154453621870288</v>
       </c>
       <c r="BI4">
-        <v>0.002837697819136812</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.02602583490352193</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0006017001486521303</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.003958906295385767</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0009364846329387101</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0006667875383088285</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0009246549418626816</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.04392199088182128</v>
+        <v>0.02506915000869606</v>
       </c>
       <c r="BQ4">
-        <v>0.05321281735149738</v>
+        <v>0.04179902179572632</v>
       </c>
       <c r="BR4">
-        <v>0.00155327522561517</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0007149800494981117</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01668599483534166</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01196369279916606</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.003450536833639765</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.02606513060041175</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.03720713190656397</v>
+        <v>0.0129777897738772</v>
       </c>
       <c r="BY4">
-        <v>0.0009136270630908961</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01216179287679457</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01289524662711296</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.05344816342258936</v>
+        <v>0.04222280644048327</v>
       </c>
       <c r="CC4">
-        <v>0.003943600851581564</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.003859292477584374</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0002346158918825823</v>
+        <v>0</v>
       </c>
       <c r="CF4">
         <v>0</v>
@@ -1880,100 +1880,100 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.12259226340673</v>
+        <v>0.1709088198268295</v>
       </c>
       <c r="AZ5">
-        <v>0.1730151187689752</v>
+        <v>0.2639804263000965</v>
       </c>
       <c r="BA5">
-        <v>0.03334533448618928</v>
+        <v>0.006174891377793518</v>
       </c>
       <c r="BB5">
-        <v>0.002529429319818048</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01078908085118954</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.002104417128097222</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0102935460061579</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.2382875147713502</v>
+        <v>0.3844616388505669</v>
       </c>
       <c r="BG5">
-        <v>0.02373436969972293</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001198013995096228</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.02642796670421545</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.00537893555085181</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0008895272503222188</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0002222255039412743</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001457107336120871</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.006610565767709532</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0788071427168867</v>
+        <v>0.09008928882341635</v>
       </c>
       <c r="BP5">
-        <v>0.02751094130765483</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.006586060596659176</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.007806662139736267</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01496676848952175</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.009309431316637487</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.007620170481609819</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.04513180871174807</v>
+        <v>0.02793062264187213</v>
       </c>
       <c r="BW5">
-        <v>0.03295536413351217</v>
+        <v>0.005455075593069409</v>
       </c>
       <c r="BX5">
-        <v>0.01254206716804438</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.005386437481694538</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.03747273273572489</v>
+        <v>0.01379333311179459</v>
       </c>
       <c r="CA5">
-        <v>0.05015682290880305</v>
+        <v>0.03720590347456108</v>
       </c>
       <c r="CB5">
-        <v>5.304709386056776E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.004848428101123767</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.844045476912291E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -1993,46 +1993,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0217553752128143</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06902511556769463</v>
+        <v>0.0882952388758091</v>
       </c>
       <c r="F6">
-        <v>0.07025532444277847</v>
+        <v>0.09107437545895605</v>
       </c>
       <c r="G6">
-        <v>0.03303738309067255</v>
+        <v>0.006996179913500666</v>
       </c>
       <c r="H6">
-        <v>0.03007755545361008</v>
+        <v>0.0003097013548014579</v>
       </c>
       <c r="I6">
-        <v>0.01766713872779143</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0003629590743921658</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03462748337410865</v>
+        <v>0.01058833890216704</v>
       </c>
       <c r="L6">
-        <v>0.09558512258156118</v>
+        <v>0.1482963400187712</v>
       </c>
       <c r="M6">
-        <v>0.1609734279567929</v>
+        <v>0.296013557199393</v>
       </c>
       <c r="N6">
-        <v>0.02548679791941959</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00894049365923141</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.007807440103398224</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.006242561886682177</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2044,49 +2044,49 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1030118201342024</v>
+        <v>0.1650738216956988</v>
       </c>
       <c r="V6">
-        <v>0.05614096929698989</v>
+        <v>0.05918896028462994</v>
       </c>
       <c r="W6">
-        <v>0.0003597194672962442</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001394014123595381</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.04368432840265349</v>
+        <v>0.03104844925944746</v>
       </c>
       <c r="Z6">
-        <v>0.0106110274832516</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01618796597393422</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04206308775448449</v>
+        <v>0.02738594178883259</v>
       </c>
       <c r="AC6">
-        <v>0.03241031239873064</v>
+        <v>0.005579578931755818</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01791947691785357</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.04917152190146993</v>
+        <v>0.04344444192396744</v>
       </c>
       <c r="AG6">
-        <v>0.04176169590527253</v>
+        <v>0.0267050743922694</v>
       </c>
       <c r="AH6">
-        <v>0.002850708714063321</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0005891724752545868</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2391,100 +2391,100 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.2097749489722505</v>
+        <v>0.3143742244533643</v>
       </c>
       <c r="BA7">
-        <v>0.02650242565183817</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>0.2060156821866987</v>
+        <v>0.3078003575882786</v>
       </c>
       <c r="BC7">
-        <v>0.0006881006929648095</v>
+        <v>0</v>
       </c>
       <c r="BD7">
-        <v>0.01148002280537511</v>
+        <v>0</v>
       </c>
       <c r="BE7">
-        <v>0.01643087353770532</v>
+        <v>0</v>
       </c>
       <c r="BF7">
-        <v>0.00211914773275798</v>
+        <v>0</v>
       </c>
       <c r="BG7">
-        <v>0.07595440421760886</v>
+        <v>0.08036091940906166</v>
       </c>
       <c r="BH7">
-        <v>0.08260047493354571</v>
+        <v>0.09198296874869109</v>
       </c>
       <c r="BI7">
-        <v>0.0001358454225894906</v>
+        <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0.06134590923662069</v>
+        <v>0.05481490030943777</v>
       </c>
       <c r="BK7">
-        <v>0.004523140478048888</v>
+        <v>0</v>
       </c>
       <c r="BL7">
-        <v>0.01455303714139007</v>
+        <v>0</v>
       </c>
       <c r="BM7">
-        <v>0.0003738105332241865</v>
+        <v>0</v>
       </c>
       <c r="BN7">
-        <v>6.955732671061785E-07</v>
+        <v>0</v>
       </c>
       <c r="BO7">
-        <v>0.000242134774628991</v>
+        <v>0</v>
       </c>
       <c r="BP7">
-        <v>0.04500834349488142</v>
+        <v>0.02624523813527174</v>
       </c>
       <c r="BQ7">
-        <v>0.07865712137837315</v>
+        <v>0.08508718753590297</v>
       </c>
       <c r="BR7">
-        <v>0.003389911213457239</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>3.309225689218977E-06</v>
+        <v>0</v>
       </c>
       <c r="BT7">
-        <v>0.0007461256320483495</v>
+        <v>0</v>
       </c>
       <c r="BU7">
-        <v>0.01680062950666587</v>
+        <v>0</v>
       </c>
       <c r="BV7">
-        <v>7.108348247017542E-05</v>
+        <v>0</v>
       </c>
       <c r="BW7">
-        <v>0.02508665490194631</v>
+        <v>0</v>
       </c>
       <c r="BX7">
-        <v>0.02379723905777134</v>
+        <v>0</v>
       </c>
       <c r="BY7">
-        <v>1.33647805117256E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ7">
-        <v>0.0141724499582615</v>
+        <v>0</v>
       </c>
       <c r="CA7">
-        <v>0.01248841024293284</v>
+        <v>0</v>
       </c>
       <c r="CB7">
-        <v>0.05249327055008656</v>
+        <v>0.03933420381999198</v>
       </c>
       <c r="CC7">
-        <v>0.01028862583818579</v>
+        <v>0</v>
       </c>
       <c r="CD7">
-        <v>0.001504489231464138</v>
+        <v>0</v>
       </c>
       <c r="CE7">
-        <v>0.002738317614739813</v>
+        <v>0</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -2648,100 +2648,100 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.1531198011363544</v>
+        <v>0.2192551522466835</v>
       </c>
       <c r="BB8">
-        <v>0.1735975556430223</v>
+        <v>0.255722504700065</v>
       </c>
       <c r="BC8">
-        <v>0.0546845854419598</v>
+        <v>0.04395899351095572</v>
       </c>
       <c r="BD8">
-        <v>0.005024276406252455</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>0.02125504272344928</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>0.002739396018831559</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>0.004695819772810418</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>0.1418360135892549</v>
+        <v>0.1991606708251406</v>
       </c>
       <c r="BI8">
-        <v>0.06131582257230091</v>
+        <v>0.05576808427602753</v>
       </c>
       <c r="BJ8">
-        <v>0.0006771916208282025</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>0.06055221383247324</v>
+        <v>0.05440822868040007</v>
       </c>
       <c r="BL8">
-        <v>5.147006401317665E-05</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>0.004807396556970223</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>0.0004087438832016647</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>0.002912990946527184</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.004380845924566897</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>0.09038737139036505</v>
+        <v>0.1075395036847731</v>
       </c>
       <c r="BR8">
-        <v>0.04765838601123466</v>
+        <v>0.03144654294101796</v>
       </c>
       <c r="BS8">
-        <v>1.070234529077938E-05</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>3.046611762057633E-05</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.003789873315934324</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>0.01119488691673437</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>0.007369525192692849</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>0.03512894533315752</v>
+        <v>0.009133767919596766</v>
       </c>
       <c r="BY8">
-        <v>0.01113107691737295</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>0.007440067791137229</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>0.01259482299858155</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>0.0261308453576296</v>
+        <v>0</v>
       </c>
       <c r="CC8">
-        <v>0.04325594341280412</v>
+        <v>0.0236065512153397</v>
       </c>
       <c r="CD8">
-        <v>8.743168862976391E-05</v>
+        <v>0</v>
       </c>
       <c r="CE8">
-        <v>0.008639730831907092</v>
+        <v>0</v>
       </c>
       <c r="CF8">
-        <v>0.00309075824609107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:84">
@@ -2896,100 +2896,100 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.1363943332379567</v>
+        <v>0.1942809833188916</v>
       </c>
       <c r="AZ9">
-        <v>0.00165027143064188</v>
+        <v>0</v>
       </c>
       <c r="BA9">
-        <v>0.2045074450932066</v>
+        <v>0.3186586822565888</v>
       </c>
       <c r="BB9">
-        <v>0.02520536288024209</v>
+        <v>0</v>
       </c>
       <c r="BC9">
-        <v>0.0267730193248718</v>
+        <v>0</v>
       </c>
       <c r="BD9">
-        <v>0.01071629320738523</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>0.006027189300525428</v>
+        <v>0</v>
       </c>
       <c r="BF9">
-        <v>0.0161567909357296</v>
+        <v>0</v>
       </c>
       <c r="BG9">
-        <v>0.2137536945413496</v>
+        <v>0.3355427622646783</v>
       </c>
       <c r="BH9">
-        <v>0.0002676451991599038</v>
+        <v>0</v>
       </c>
       <c r="BI9">
-        <v>0.02539087661839345</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0.04412340768080945</v>
+        <v>0.02578999697196604</v>
       </c>
       <c r="BK9">
-        <v>0.0100257977098618</v>
+        <v>0</v>
       </c>
       <c r="BL9">
-        <v>0.001856570574066597</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>6.247010157099138E-05</v>
+        <v>0</v>
       </c>
       <c r="BN9">
-        <v>1.739008917787886E-05</v>
+        <v>0</v>
       </c>
       <c r="BO9">
-        <v>0.01880865396736743</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>0.08729789927233374</v>
+        <v>0.1046286195321956</v>
       </c>
       <c r="BQ9">
-        <v>0.01773120854345041</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>0.0009132540685838281</v>
+        <v>0</v>
       </c>
       <c r="BS9">
-        <v>8.705848211694421E-05</v>
+        <v>0</v>
       </c>
       <c r="BT9">
-        <v>0.006716805787521219</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>0.002841896802101946</v>
+        <v>0</v>
       </c>
       <c r="BV9">
-        <v>0.01752041015151641</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>0.03199005655912589</v>
+        <v>0.003633935505779895</v>
       </c>
       <c r="BX9">
-        <v>0.004130753651166834</v>
+        <v>0</v>
       </c>
       <c r="BY9">
-        <v>0.01413856694406001</v>
+        <v>0</v>
       </c>
       <c r="BZ9">
-        <v>0.01347012937033508</v>
+        <v>0</v>
       </c>
       <c r="CA9">
-        <v>0.03956439041069738</v>
+        <v>0.01746502014989979</v>
       </c>
       <c r="CB9">
-        <v>0.01629584466637515</v>
+        <v>0</v>
       </c>
       <c r="CC9">
-        <v>0.0006352557074295419</v>
+        <v>0</v>
       </c>
       <c r="CD9">
-        <v>0.004929257690869231</v>
+        <v>0</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -3150,100 +3150,100 @@
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>0.02911752290850659</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>0.1118545302094418</v>
+        <v>0.1566637080717981</v>
       </c>
       <c r="BA10">
-        <v>0.1539194729489614</v>
+        <v>0.237172995615676</v>
       </c>
       <c r="BB10">
-        <v>0.0704470144169887</v>
+        <v>0.07741268861705602</v>
       </c>
       <c r="BC10">
-        <v>0.02601692557924368</v>
+        <v>0</v>
       </c>
       <c r="BD10">
-        <v>0.02230102226978418</v>
+        <v>0</v>
       </c>
       <c r="BE10">
-        <v>0.004389557471772889</v>
+        <v>0</v>
       </c>
       <c r="BF10">
-        <v>0.00395843912850906</v>
+        <v>0</v>
       </c>
       <c r="BG10">
-        <v>0.1863693534606677</v>
+        <v>0.2992797427247601</v>
       </c>
       <c r="BH10">
-        <v>0.03479389095287584</v>
+        <v>0.009175163926146953</v>
       </c>
       <c r="BI10">
-        <v>1.366743079592133E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0.08090887385650176</v>
+        <v>0.09743593826403776</v>
       </c>
       <c r="BK10">
-        <v>0.001149684392044039</v>
+        <v>0</v>
       </c>
       <c r="BL10">
-        <v>0.0001226335174826951</v>
+        <v>0</v>
       </c>
       <c r="BM10">
-        <v>0.000432193029307977</v>
+        <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.0001529796839896732</v>
+        <v>0</v>
       </c>
       <c r="BO10">
-        <v>0.002198027423271076</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>0.06452498095702713</v>
+        <v>0.06607834073442874</v>
       </c>
       <c r="BQ10">
-        <v>0.05519106807223178</v>
+        <v>0.04821390000512992</v>
       </c>
       <c r="BR10">
-        <v>2.554117349191121E-05</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>0.0002321652025818213</v>
+        <v>0</v>
       </c>
       <c r="BT10">
-        <v>0.00123576521103413</v>
+        <v>0</v>
       </c>
       <c r="BU10">
-        <v>0.008923864520581725</v>
+        <v>0</v>
       </c>
       <c r="BV10">
-        <v>0.006176453239384818</v>
+        <v>0</v>
       </c>
       <c r="BW10">
-        <v>0.03126388211719933</v>
+        <v>0.002418979848023672</v>
       </c>
       <c r="BX10">
-        <v>0.01069564208168359</v>
+        <v>0</v>
       </c>
       <c r="BY10">
-        <v>0.009350209734554579</v>
+        <v>0</v>
       </c>
       <c r="BZ10">
-        <v>0.01676908846889278</v>
+        <v>0</v>
       </c>
       <c r="CA10">
-        <v>0.0301592749935886</v>
+        <v>0.0003048409298160689</v>
       </c>
       <c r="CB10">
-        <v>0.03305324971216914</v>
+        <v>0.005843701263126838</v>
       </c>
       <c r="CC10">
-        <v>0.001239057004555719</v>
+        <v>0</v>
       </c>
       <c r="CD10">
-        <v>0.003013968830877845</v>
+        <v>0</v>
       </c>
       <c r="CE10">
         <v>0</v>
@@ -3404,100 +3404,100 @@
         <v>0</v>
       </c>
       <c r="AY11">
-        <v>0.2166427095571402</v>
+        <v>0.3431027174219201</v>
       </c>
       <c r="AZ11">
-        <v>0.02587354169565701</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>0.04972336786076948</v>
+        <v>0.03625719496785609</v>
       </c>
       <c r="BB11">
-        <v>0.0380403092209546</v>
+        <v>0.01478038948945653</v>
       </c>
       <c r="BC11">
-        <v>0.06639673423883327</v>
+        <v>0.06690761429823765</v>
       </c>
       <c r="BD11">
-        <v>0.002258907753468294</v>
+        <v>0</v>
       </c>
       <c r="BE11">
-        <v>0.02825042123565116</v>
+        <v>0</v>
       </c>
       <c r="BF11">
-        <v>0.006930693493954745</v>
+        <v>0</v>
       </c>
       <c r="BG11">
-        <v>0.262163140243456</v>
+        <v>0.4267822969980495</v>
       </c>
       <c r="BH11">
-        <v>4.602771276486441E-06</v>
+        <v>0</v>
       </c>
       <c r="BI11">
-        <v>0.01017144172105359</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0.03901412534589698</v>
+        <v>0.01657054223386214</v>
       </c>
       <c r="BK11">
-        <v>0.008086357160708862</v>
+        <v>0</v>
       </c>
       <c r="BL11">
-        <v>0.007038111628500458</v>
+        <v>0</v>
       </c>
       <c r="BM11">
-        <v>0.0008236029168925242</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.006857135197354447</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.009655647613200745</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0.07462622094847871</v>
+        <v>0.08203576615461916</v>
       </c>
       <c r="BQ11">
-        <v>0.01814175818482596</v>
+        <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.001499140815656805</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>0.001825979613414072</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>0.003214630613427209</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>0.0005805291940794148</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>0.00925028626785669</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>0.02020288808534271</v>
+        <v>0</v>
       </c>
       <c r="BX11">
-        <v>0.0003455230319124467</v>
+        <v>0</v>
       </c>
       <c r="BY11">
-        <v>0.01308657596693769</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
-        <v>0.02838367741172788</v>
+        <v>0</v>
       </c>
       <c r="CA11">
-        <v>0.03737832794020576</v>
+        <v>0.01356347843599887</v>
       </c>
       <c r="CB11">
-        <v>0.006720905818681001</v>
+        <v>0</v>
       </c>
       <c r="CC11">
-        <v>0.0006607264062746197</v>
+        <v>0</v>
       </c>
       <c r="CD11">
-        <v>0.006151980046410358</v>
+        <v>0</v>
       </c>
       <c r="CE11">
         <v>0</v>
@@ -3925,106 +3925,106 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01931412869773687</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.1408255620871775</v>
+        <v>0.1738382940400709</v>
       </c>
       <c r="BA2">
-        <v>0.3271738235805244</v>
+        <v>0.4708428763906574</v>
       </c>
       <c r="BB2">
-        <v>0.3822210555653314</v>
+        <v>0.5184234673331567</v>
       </c>
       <c r="BC2">
-        <v>0.3897744476158936</v>
+        <v>0.5184234673331567</v>
       </c>
       <c r="BD2">
-        <v>0.4283016901688874</v>
+        <v>0.5346221131566782</v>
       </c>
       <c r="BE2">
-        <v>0.4283322786887637</v>
+        <v>0.5346221131566782</v>
       </c>
       <c r="BF2">
-        <v>0.4363037257471079</v>
+        <v>0.5346221131566782</v>
       </c>
       <c r="BG2">
-        <v>0.5317707550116761</v>
+        <v>0.658985553458086</v>
       </c>
       <c r="BH2">
-        <v>0.63268962116617</v>
+        <v>0.7937054922780573</v>
       </c>
       <c r="BI2">
-        <v>0.6364575815426154</v>
+        <v>0.7937054922780573</v>
       </c>
       <c r="BJ2">
-        <v>0.7002194961946672</v>
+        <v>0.8578407967887217</v>
       </c>
       <c r="BK2">
-        <v>0.7022176853504504</v>
+        <v>0.8578407967887217</v>
       </c>
       <c r="BL2">
-        <v>0.7033781483667096</v>
+        <v>0.8578407967887217</v>
       </c>
       <c r="BM2">
-        <v>0.7033782033872428</v>
+        <v>0.8578407967887217</v>
       </c>
       <c r="BN2">
-        <v>0.704216046844748</v>
+        <v>0.8578407967887217</v>
       </c>
       <c r="BO2">
-        <v>0.7045737699126596</v>
+        <v>0.8578407967887217</v>
       </c>
       <c r="BP2">
-        <v>0.7508949563702826</v>
+        <v>0.8888450888800581</v>
       </c>
       <c r="BQ2">
-        <v>0.7942288305768824</v>
+        <v>0.9141745789685357</v>
       </c>
       <c r="BR2">
-        <v>0.797749209625869</v>
+        <v>0.9141745789685357</v>
       </c>
       <c r="BS2">
-        <v>0.7979426651739684</v>
+        <v>0.9141745789685357</v>
       </c>
       <c r="BT2">
-        <v>0.8066963068418809</v>
+        <v>0.9141745789685357</v>
       </c>
       <c r="BU2">
-        <v>0.8171068095781729</v>
+        <v>0.9141745789685357</v>
       </c>
       <c r="BV2">
-        <v>0.823049127755705</v>
+        <v>0.9141745789685357</v>
       </c>
       <c r="BW2">
-        <v>0.8580184612942252</v>
+        <v>0.9236144973793443</v>
       </c>
       <c r="BX2">
-        <v>0.8913646195684566</v>
+        <v>0.929970975738775</v>
       </c>
       <c r="BY2">
-        <v>0.8931537420343093</v>
+        <v>0.929970975738775</v>
       </c>
       <c r="BZ2">
-        <v>0.8991042130911362</v>
+        <v>0.929970975738775</v>
       </c>
       <c r="CA2">
-        <v>0.9331805546393421</v>
+        <v>0.9377145355806269</v>
       </c>
       <c r="CB2">
-        <v>0.9959686820183993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC2">
-        <v>0.9982468599021239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:84">
@@ -4182,103 +4182,103 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.1770325253153097</v>
+        <v>0.2686097638811406</v>
       </c>
       <c r="BA3">
-        <v>0.282683330978423</v>
+        <v>0.4068141849982351</v>
       </c>
       <c r="BB3">
-        <v>0.3638576765643728</v>
+        <v>0.5003032198572628</v>
       </c>
       <c r="BC3">
-        <v>0.389998418082078</v>
+        <v>0.5003032198572628</v>
       </c>
       <c r="BD3">
-        <v>0.4091709285638768</v>
+        <v>0.5003032198572628</v>
       </c>
       <c r="BE3">
-        <v>0.4221825516793379</v>
+        <v>0.5003032198572628</v>
       </c>
       <c r="BF3">
-        <v>0.4377835939584909</v>
+        <v>0.5003032198572628</v>
       </c>
       <c r="BG3">
-        <v>0.4711412235891838</v>
+        <v>0.5064371830763984</v>
       </c>
       <c r="BH3">
-        <v>0.6015659898316325</v>
+        <v>0.6899004861132954</v>
       </c>
       <c r="BI3">
-        <v>0.6044516331103323</v>
+        <v>0.6899004861132954</v>
       </c>
       <c r="BJ3">
-        <v>0.7285258043687366</v>
+        <v>0.8617620580671493</v>
       </c>
       <c r="BK3">
-        <v>0.7336368540924028</v>
+        <v>0.8617620580671493</v>
       </c>
       <c r="BL3">
-        <v>0.7360151185351467</v>
+        <v>0.8617620580671493</v>
       </c>
       <c r="BM3">
-        <v>0.7401416815993569</v>
+        <v>0.8617620580671493</v>
       </c>
       <c r="BN3">
-        <v>0.7660195874778728</v>
+        <v>0.8617620580671493</v>
       </c>
       <c r="BO3">
-        <v>0.7662733612628461</v>
+        <v>0.8617620580671493</v>
       </c>
       <c r="BP3">
-        <v>0.7727810818612758</v>
+        <v>0.8617620580671493</v>
       </c>
       <c r="BQ3">
-        <v>0.8622891929110178</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BR3">
-        <v>0.8662008692414629</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BS3">
-        <v>0.8666120542104376</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BT3">
-        <v>0.8668503947314643</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BU3">
-        <v>0.8831278351495636</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BV3">
-        <v>0.8832361405279106</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BW3">
-        <v>0.8943730844896776</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BX3">
-        <v>0.917001226735577</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BY3">
-        <v>0.9170217817290721</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="BZ3">
-        <v>0.9208023368302741</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="CA3">
-        <v>0.9418861752590071</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="CB3">
-        <v>0.9880472186104139</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC3">
-        <v>0.9982730405733407</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD3">
-        <v>0.9982756032566352</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:84">
@@ -4436,103 +4436,103 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.2410038997388062</v>
+        <v>0.3799520097286546</v>
       </c>
       <c r="BA4">
-        <v>0.324524154929933</v>
+        <v>0.4763252452291888</v>
       </c>
       <c r="BB4">
-        <v>0.3982705808272168</v>
+        <v>0.5550988719663903</v>
       </c>
       <c r="BC4">
-        <v>0.4014240734665265</v>
+        <v>0.5550988719663903</v>
       </c>
       <c r="BD4">
-        <v>0.4227694312980619</v>
+        <v>0.5550988719663903</v>
       </c>
       <c r="BE4">
-        <v>0.4294628974233889</v>
+        <v>0.5550988719663903</v>
       </c>
       <c r="BF4">
-        <v>0.4425331736086081</v>
+        <v>0.5550988719663903</v>
       </c>
       <c r="BG4">
-        <v>0.4766354952416497</v>
+        <v>0.5624858697941882</v>
       </c>
       <c r="BH4">
-        <v>0.6818160440260019</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="BI4">
-        <v>0.6846537418451387</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="BJ4">
-        <v>0.7106795767486607</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="BK4">
-        <v>0.7112812768973128</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="BL4">
-        <v>0.7152401831926986</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="BM4">
-        <v>0.7161766678256373</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="BN4">
-        <v>0.7168434553639461</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="BO4">
-        <v>0.7177681103058088</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="BP4">
-        <v>0.76169010118763</v>
+        <v>0.9030003819899131</v>
       </c>
       <c r="BQ4">
-        <v>0.8149029185391274</v>
+        <v>0.9447994037856394</v>
       </c>
       <c r="BR4">
-        <v>0.8164561937647427</v>
+        <v>0.9447994037856394</v>
       </c>
       <c r="BS4">
-        <v>0.8171711738142408</v>
+        <v>0.9447994037856394</v>
       </c>
       <c r="BT4">
-        <v>0.8338571686495824</v>
+        <v>0.9447994037856394</v>
       </c>
       <c r="BU4">
-        <v>0.8458208614487485</v>
+        <v>0.9447994037856394</v>
       </c>
       <c r="BV4">
-        <v>0.8492713982823882</v>
+        <v>0.9447994037856394</v>
       </c>
       <c r="BW4">
-        <v>0.8753365288827999</v>
+        <v>0.9447994037856394</v>
       </c>
       <c r="BX4">
-        <v>0.9125436607893639</v>
+        <v>0.9577771935595166</v>
       </c>
       <c r="BY4">
-        <v>0.9134572878524548</v>
+        <v>0.9577771935595166</v>
       </c>
       <c r="BZ4">
-        <v>0.9256190807292494</v>
+        <v>0.9577771935595166</v>
       </c>
       <c r="CA4">
-        <v>0.9385143273563623</v>
+        <v>0.9577771935595166</v>
       </c>
       <c r="CB4">
-        <v>0.9919624907789517</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC4">
-        <v>0.9959060916305332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD4">
-        <v>0.9997653841081175</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:84">
@@ -4687,97 +4687,97 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.12259226340673</v>
+        <v>0.1709088198268295</v>
       </c>
       <c r="AZ5">
-        <v>0.2956073821757052</v>
+        <v>0.434889246126926</v>
       </c>
       <c r="BA5">
-        <v>0.3289527166618945</v>
+        <v>0.4410641375047196</v>
       </c>
       <c r="BB5">
-        <v>0.3314821459817125</v>
+        <v>0.4410641375047196</v>
       </c>
       <c r="BC5">
-        <v>0.342271226832902</v>
+        <v>0.4410641375047196</v>
       </c>
       <c r="BD5">
-        <v>0.3443756439609992</v>
+        <v>0.4410641375047196</v>
       </c>
       <c r="BE5">
-        <v>0.3546691899671571</v>
+        <v>0.4410641375047196</v>
       </c>
       <c r="BF5">
-        <v>0.5929567047385074</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BG5">
-        <v>0.6166910744382303</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BH5">
-        <v>0.6178890884333266</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BI5">
-        <v>0.644317055137542</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BJ5">
-        <v>0.6496959906883938</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BK5">
-        <v>0.650585517938716</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BL5">
-        <v>0.6508077434426572</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BM5">
-        <v>0.6522648507787782</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BN5">
-        <v>0.6588754165464877</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="BO5">
-        <v>0.7376825592633744</v>
+        <v>0.9156150651787029</v>
       </c>
       <c r="BP5">
-        <v>0.7651935005710293</v>
+        <v>0.9156150651787029</v>
       </c>
       <c r="BQ5">
-        <v>0.7717795611676885</v>
+        <v>0.9156150651787029</v>
       </c>
       <c r="BR5">
-        <v>0.7795862233074248</v>
+        <v>0.9156150651787029</v>
       </c>
       <c r="BS5">
-        <v>0.7945529917969465</v>
+        <v>0.9156150651787029</v>
       </c>
       <c r="BT5">
-        <v>0.803862423113584</v>
+        <v>0.9156150651787029</v>
       </c>
       <c r="BU5">
-        <v>0.8114825935951938</v>
+        <v>0.9156150651787029</v>
       </c>
       <c r="BV5">
-        <v>0.8566144023069419</v>
+        <v>0.943545687820575</v>
       </c>
       <c r="BW5">
-        <v>0.889569766440454</v>
+        <v>0.9490007634136445</v>
       </c>
       <c r="BX5">
-        <v>0.9021118336084984</v>
+        <v>0.9490007634136445</v>
       </c>
       <c r="BY5">
-        <v>0.907498271090193</v>
+        <v>0.9490007634136445</v>
       </c>
       <c r="BZ5">
-        <v>0.9449710038259179</v>
+        <v>0.9627940965254391</v>
       </c>
       <c r="CA5">
-        <v>0.995127826734721</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9951331314441071</v>
+        <v>1</v>
       </c>
       <c r="CC5">
-        <v>0.9999815595452308</v>
+        <v>1</v>
       </c>
       <c r="CD5">
         <v>1</v>
@@ -4800,97 +4800,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0217553752128143</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09078049078050893</v>
+        <v>0.0882952388758091</v>
       </c>
       <c r="F6">
-        <v>0.1610358152232874</v>
+        <v>0.1793696143347652</v>
       </c>
       <c r="G6">
-        <v>0.19407319831396</v>
+        <v>0.1863657942482658</v>
       </c>
       <c r="H6">
-        <v>0.22415075376757</v>
+        <v>0.1866754956030673</v>
       </c>
       <c r="I6">
-        <v>0.2418178924953615</v>
+        <v>0.1866754956030673</v>
       </c>
       <c r="J6">
-        <v>0.2421808515697536</v>
+        <v>0.1866754956030673</v>
       </c>
       <c r="K6">
-        <v>0.2768083349438623</v>
+        <v>0.1972638345052343</v>
       </c>
       <c r="L6">
-        <v>0.3723934575254235</v>
+        <v>0.3455601745240056</v>
       </c>
       <c r="M6">
-        <v>0.5333668854822164</v>
+        <v>0.6415737317233986</v>
       </c>
       <c r="N6">
-        <v>0.558853683401636</v>
+        <v>0.6415737317233986</v>
       </c>
       <c r="O6">
-        <v>0.5677941770608674</v>
+        <v>0.6415737317233986</v>
       </c>
       <c r="P6">
-        <v>0.5756016171642656</v>
+        <v>0.6415737317233986</v>
       </c>
       <c r="Q6">
-        <v>0.5818441790509478</v>
+        <v>0.6415737317233986</v>
       </c>
       <c r="R6">
-        <v>0.5818441790509478</v>
+        <v>0.6415737317233986</v>
       </c>
       <c r="S6">
-        <v>0.5818441790509478</v>
+        <v>0.6415737317233986</v>
       </c>
       <c r="T6">
-        <v>0.5818441790509478</v>
+        <v>0.6415737317233986</v>
       </c>
       <c r="U6">
-        <v>0.6848559991851502</v>
+        <v>0.8066475534190974</v>
       </c>
       <c r="V6">
-        <v>0.74099696848214</v>
+        <v>0.8658365137037274</v>
       </c>
       <c r="W6">
-        <v>0.7413566879494363</v>
+        <v>0.8658365137037274</v>
       </c>
       <c r="X6">
-        <v>0.7427507020730317</v>
+        <v>0.8658365137037274</v>
       </c>
       <c r="Y6">
-        <v>0.7864350304756852</v>
+        <v>0.8968849629631749</v>
       </c>
       <c r="Z6">
-        <v>0.7970460579589368</v>
+        <v>0.8968849629631749</v>
       </c>
       <c r="AA6">
-        <v>0.813234023932871</v>
+        <v>0.8968849629631749</v>
       </c>
       <c r="AB6">
-        <v>0.8552971116873556</v>
+        <v>0.9242709047520075</v>
       </c>
       <c r="AC6">
-        <v>0.8877074240860862</v>
+        <v>0.9298504836837633</v>
       </c>
       <c r="AD6">
-        <v>0.8877074240860862</v>
+        <v>0.9298504836837633</v>
       </c>
       <c r="AE6">
-        <v>0.9056269010039397</v>
+        <v>0.9298504836837633</v>
       </c>
       <c r="AF6">
-        <v>0.9547984229054096</v>
+        <v>0.9732949256077308</v>
       </c>
       <c r="AG6">
-        <v>0.9965601188106822</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9994108275247455</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -5198,97 +5198,97 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.2097749489722505</v>
+        <v>0.3143742244533643</v>
       </c>
       <c r="BA7">
-        <v>0.2362773746240887</v>
+        <v>0.3143742244533643</v>
       </c>
       <c r="BB7">
-        <v>0.4422930568107875</v>
+        <v>0.6221745820416429</v>
       </c>
       <c r="BC7">
-        <v>0.4429811575037523</v>
+        <v>0.6221745820416429</v>
       </c>
       <c r="BD7">
-        <v>0.4544611803091274</v>
+        <v>0.6221745820416429</v>
       </c>
       <c r="BE7">
-        <v>0.4708920538468327</v>
+        <v>0.6221745820416429</v>
       </c>
       <c r="BF7">
-        <v>0.4730112015795907</v>
+        <v>0.6221745820416429</v>
       </c>
       <c r="BG7">
-        <v>0.5489656057971996</v>
+        <v>0.7025355014507045</v>
       </c>
       <c r="BH7">
-        <v>0.6315660807307453</v>
+        <v>0.7945184701993956</v>
       </c>
       <c r="BI7">
-        <v>0.6317019261533348</v>
+        <v>0.7945184701993956</v>
       </c>
       <c r="BJ7">
-        <v>0.6930478353899554</v>
+        <v>0.8493333705088334</v>
       </c>
       <c r="BK7">
-        <v>0.6975709758680043</v>
+        <v>0.8493333705088334</v>
       </c>
       <c r="BL7">
-        <v>0.7121240130093944</v>
+        <v>0.8493333705088334</v>
       </c>
       <c r="BM7">
-        <v>0.7124978235426186</v>
+        <v>0.8493333705088334</v>
       </c>
       <c r="BN7">
-        <v>0.7124985191158857</v>
+        <v>0.8493333705088334</v>
       </c>
       <c r="BO7">
-        <v>0.7127406538905147</v>
+        <v>0.8493333705088334</v>
       </c>
       <c r="BP7">
-        <v>0.7577489973853961</v>
+        <v>0.8755786086441051</v>
       </c>
       <c r="BQ7">
-        <v>0.8364061187637692</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BR7">
-        <v>0.8397960299772265</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BS7">
-        <v>0.8397993392029157</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BT7">
-        <v>0.8405454648349641</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BU7">
-        <v>0.8573460943416299</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BV7">
-        <v>0.8574171778241001</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BW7">
-        <v>0.8825038327260464</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BX7">
-        <v>0.9063010717838177</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BY7">
-        <v>0.9063144365643294</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="BZ7">
-        <v>0.9204868865225909</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="CA7">
-        <v>0.9329752967655237</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="CB7">
-        <v>0.9854685673156103</v>
+        <v>1</v>
       </c>
       <c r="CC7">
-        <v>0.9957571931537961</v>
+        <v>1</v>
       </c>
       <c r="CD7">
-        <v>0.9972616823852603</v>
+        <v>1</v>
       </c>
       <c r="CE7">
         <v>1</v>
@@ -5455,97 +5455,97 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.1531198011363544</v>
+        <v>0.2192551522466835</v>
       </c>
       <c r="BB8">
-        <v>0.3267173567793766</v>
+        <v>0.4749776569467484</v>
       </c>
       <c r="BC8">
-        <v>0.3814019422213364</v>
+        <v>0.5189366504577042</v>
       </c>
       <c r="BD8">
-        <v>0.3864262186275889</v>
+        <v>0.5189366504577042</v>
       </c>
       <c r="BE8">
-        <v>0.4076812613510382</v>
+        <v>0.5189366504577042</v>
       </c>
       <c r="BF8">
-        <v>0.4104206573698698</v>
+        <v>0.5189366504577042</v>
       </c>
       <c r="BG8">
-        <v>0.4151164771426802</v>
+        <v>0.5189366504577042</v>
       </c>
       <c r="BH8">
-        <v>0.5569524907319351</v>
+        <v>0.7180973212828448</v>
       </c>
       <c r="BI8">
-        <v>0.618268313304236</v>
+        <v>0.7738654055588723</v>
       </c>
       <c r="BJ8">
-        <v>0.6189455049250643</v>
+        <v>0.7738654055588723</v>
       </c>
       <c r="BK8">
-        <v>0.6794977187575375</v>
+        <v>0.8282736342392724</v>
       </c>
       <c r="BL8">
-        <v>0.6795491888215507</v>
+        <v>0.8282736342392724</v>
       </c>
       <c r="BM8">
-        <v>0.684356585378521</v>
+        <v>0.8282736342392724</v>
       </c>
       <c r="BN8">
-        <v>0.6847653292617226</v>
+        <v>0.8282736342392724</v>
       </c>
       <c r="BO8">
-        <v>0.6876783202082498</v>
+        <v>0.8282736342392724</v>
       </c>
       <c r="BP8">
-        <v>0.6920591661328167</v>
+        <v>0.8282736342392724</v>
       </c>
       <c r="BQ8">
-        <v>0.7824465375231817</v>
+        <v>0.9358131379240454</v>
       </c>
       <c r="BR8">
-        <v>0.8301049235344163</v>
+        <v>0.9672596808650634</v>
       </c>
       <c r="BS8">
-        <v>0.8301156258797071</v>
+        <v>0.9672596808650634</v>
       </c>
       <c r="BT8">
-        <v>0.8301460919973277</v>
+        <v>0.9672596808650634</v>
       </c>
       <c r="BU8">
-        <v>0.833935965313262</v>
+        <v>0.9672596808650634</v>
       </c>
       <c r="BV8">
-        <v>0.8451308522299963</v>
+        <v>0.9672596808650634</v>
       </c>
       <c r="BW8">
-        <v>0.8525003774226891</v>
+        <v>0.9672596808650634</v>
       </c>
       <c r="BX8">
-        <v>0.8876293227558466</v>
+        <v>0.9763934487846602</v>
       </c>
       <c r="BY8">
-        <v>0.8987603996732195</v>
+        <v>0.9763934487846602</v>
       </c>
       <c r="BZ8">
-        <v>0.9062004674643568</v>
+        <v>0.9763934487846602</v>
       </c>
       <c r="CA8">
-        <v>0.9187952904629383</v>
+        <v>0.9763934487846602</v>
       </c>
       <c r="CB8">
-        <v>0.9449261358205678</v>
+        <v>0.9763934487846602</v>
       </c>
       <c r="CC8">
-        <v>0.988182079233372</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD8">
-        <v>0.9882695109220018</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE8">
-        <v>0.9969092417539088</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF8">
         <v>0.9999999999999999</v>
@@ -5703,97 +5703,97 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.1363943332379567</v>
+        <v>0.1942809833188916</v>
       </c>
       <c r="AZ9">
-        <v>0.1380446046685986</v>
+        <v>0.1942809833188916</v>
       </c>
       <c r="BA9">
-        <v>0.3425520497618051</v>
+        <v>0.5129396655754804</v>
       </c>
       <c r="BB9">
-        <v>0.3677574126420473</v>
+        <v>0.5129396655754804</v>
       </c>
       <c r="BC9">
-        <v>0.3945304319669191</v>
+        <v>0.5129396655754804</v>
       </c>
       <c r="BD9">
-        <v>0.4052467251743043</v>
+        <v>0.5129396655754804</v>
       </c>
       <c r="BE9">
-        <v>0.4112739144748297</v>
+        <v>0.5129396655754804</v>
       </c>
       <c r="BF9">
-        <v>0.4274307054105593</v>
+        <v>0.5129396655754804</v>
       </c>
       <c r="BG9">
-        <v>0.6411843999519089</v>
+        <v>0.8484824278401587</v>
       </c>
       <c r="BH9">
-        <v>0.6414520451510688</v>
+        <v>0.8484824278401587</v>
       </c>
       <c r="BI9">
-        <v>0.6668429217694622</v>
+        <v>0.8484824278401587</v>
       </c>
       <c r="BJ9">
-        <v>0.7109663294502717</v>
+        <v>0.8742724248121247</v>
       </c>
       <c r="BK9">
-        <v>0.7209921271601335</v>
+        <v>0.8742724248121247</v>
       </c>
       <c r="BL9">
-        <v>0.7228486977342001</v>
+        <v>0.8742724248121247</v>
       </c>
       <c r="BM9">
-        <v>0.7229111678357711</v>
+        <v>0.8742724248121247</v>
       </c>
       <c r="BN9">
-        <v>0.722928557924949</v>
+        <v>0.8742724248121247</v>
       </c>
       <c r="BO9">
-        <v>0.7417372118923165</v>
+        <v>0.8742724248121247</v>
       </c>
       <c r="BP9">
-        <v>0.8290351111646502</v>
+        <v>0.9789010443443203</v>
       </c>
       <c r="BQ9">
-        <v>0.8467663197081007</v>
+        <v>0.9789010443443203</v>
       </c>
       <c r="BR9">
-        <v>0.8476795737766845</v>
+        <v>0.9789010443443203</v>
       </c>
       <c r="BS9">
-        <v>0.8477666322588014</v>
+        <v>0.9789010443443203</v>
       </c>
       <c r="BT9">
-        <v>0.8544834380463227</v>
+        <v>0.9789010443443203</v>
       </c>
       <c r="BU9">
-        <v>0.8573253348484245</v>
+        <v>0.9789010443443203</v>
       </c>
       <c r="BV9">
-        <v>0.8748457449999409</v>
+        <v>0.9789010443443203</v>
       </c>
       <c r="BW9">
-        <v>0.9068358015590668</v>
+        <v>0.9825349798501003</v>
       </c>
       <c r="BX9">
-        <v>0.9109665552102337</v>
+        <v>0.9825349798501003</v>
       </c>
       <c r="BY9">
-        <v>0.9251051221542937</v>
+        <v>0.9825349798501003</v>
       </c>
       <c r="BZ9">
-        <v>0.9385752515246288</v>
+        <v>0.9825349798501003</v>
       </c>
       <c r="CA9">
-        <v>0.9781396419353262</v>
+        <v>1</v>
       </c>
       <c r="CB9">
-        <v>0.9944354866017013</v>
+        <v>1</v>
       </c>
       <c r="CC9">
-        <v>0.9950707423091308</v>
+        <v>1</v>
       </c>
       <c r="CD9">
         <v>1</v>
@@ -5957,106 +5957,106 @@
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>0.02911752290850659</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>0.1409720531179484</v>
+        <v>0.1566637080717981</v>
       </c>
       <c r="BA10">
-        <v>0.2948915260669098</v>
+        <v>0.393836703687474</v>
       </c>
       <c r="BB10">
-        <v>0.3653385404838985</v>
+        <v>0.4712493923045301</v>
       </c>
       <c r="BC10">
-        <v>0.3913554660631422</v>
+        <v>0.4712493923045301</v>
       </c>
       <c r="BD10">
-        <v>0.4136564883329264</v>
+        <v>0.4712493923045301</v>
       </c>
       <c r="BE10">
-        <v>0.4180460458046993</v>
+        <v>0.4712493923045301</v>
       </c>
       <c r="BF10">
-        <v>0.4220044849332084</v>
+        <v>0.4712493923045301</v>
       </c>
       <c r="BG10">
-        <v>0.608373838393876</v>
+        <v>0.7705291350292902</v>
       </c>
       <c r="BH10">
-        <v>0.6431677293467519</v>
+        <v>0.7797042989554371</v>
       </c>
       <c r="BI10">
-        <v>0.6431813967775478</v>
+        <v>0.7797042989554371</v>
       </c>
       <c r="BJ10">
-        <v>0.7240902706340496</v>
+        <v>0.8771402372194749</v>
       </c>
       <c r="BK10">
-        <v>0.7252399550260936</v>
+        <v>0.8771402372194749</v>
       </c>
       <c r="BL10">
-        <v>0.7253625885435763</v>
+        <v>0.8771402372194749</v>
       </c>
       <c r="BM10">
-        <v>0.7257947815728842</v>
+        <v>0.8771402372194749</v>
       </c>
       <c r="BN10">
-        <v>0.7259477612568739</v>
+        <v>0.8771402372194749</v>
       </c>
       <c r="BO10">
-        <v>0.7281457886801449</v>
+        <v>0.8771402372194749</v>
       </c>
       <c r="BP10">
-        <v>0.792670769637172</v>
+        <v>0.9432185779539036</v>
       </c>
       <c r="BQ10">
-        <v>0.8478618377094037</v>
+        <v>0.9914324779590336</v>
       </c>
       <c r="BR10">
-        <v>0.8478873788828957</v>
+        <v>0.9914324779590336</v>
       </c>
       <c r="BS10">
-        <v>0.8481195440854775</v>
+        <v>0.9914324779590336</v>
       </c>
       <c r="BT10">
-        <v>0.8493553092965116</v>
+        <v>0.9914324779590336</v>
       </c>
       <c r="BU10">
-        <v>0.8582791738170933</v>
+        <v>0.9914324779590336</v>
       </c>
       <c r="BV10">
-        <v>0.8644556270564782</v>
+        <v>0.9914324779590336</v>
       </c>
       <c r="BW10">
-        <v>0.8957195091736775</v>
+        <v>0.9938514578070572</v>
       </c>
       <c r="BX10">
-        <v>0.9064151512553611</v>
+        <v>0.9938514578070572</v>
       </c>
       <c r="BY10">
-        <v>0.9157653609899157</v>
+        <v>0.9938514578070572</v>
       </c>
       <c r="BZ10">
-        <v>0.9325344494588085</v>
+        <v>0.9938514578070572</v>
       </c>
       <c r="CA10">
-        <v>0.9626937244523971</v>
+        <v>0.9941562987368733</v>
       </c>
       <c r="CB10">
-        <v>0.9957469741645663</v>
+        <v>1</v>
       </c>
       <c r="CC10">
-        <v>0.996986031169122</v>
+        <v>1</v>
       </c>
       <c r="CD10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CE10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CF10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:84">
@@ -6211,97 +6211,97 @@
         <v>0</v>
       </c>
       <c r="AY11">
-        <v>0.2166427095571402</v>
+        <v>0.3431027174219201</v>
       </c>
       <c r="AZ11">
-        <v>0.2425162512527972</v>
+        <v>0.3431027174219201</v>
       </c>
       <c r="BA11">
-        <v>0.2922396191135667</v>
+        <v>0.3793599123897762</v>
       </c>
       <c r="BB11">
-        <v>0.3302799283345213</v>
+        <v>0.3941403018792327</v>
       </c>
       <c r="BC11">
-        <v>0.3966766625733545</v>
+        <v>0.4610479161774704</v>
       </c>
       <c r="BD11">
-        <v>0.3989355703268229</v>
+        <v>0.4610479161774704</v>
       </c>
       <c r="BE11">
-        <v>0.427185991562474</v>
+        <v>0.4610479161774704</v>
       </c>
       <c r="BF11">
-        <v>0.4341166850564288</v>
+        <v>0.4610479161774704</v>
       </c>
       <c r="BG11">
-        <v>0.6962798252998847</v>
+        <v>0.8878302131755198</v>
       </c>
       <c r="BH11">
-        <v>0.6962844280711612</v>
+        <v>0.8878302131755198</v>
       </c>
       <c r="BI11">
-        <v>0.7064558697922148</v>
+        <v>0.8878302131755198</v>
       </c>
       <c r="BJ11">
-        <v>0.7454699951381117</v>
+        <v>0.9044007554093819</v>
       </c>
       <c r="BK11">
-        <v>0.7535563522988206</v>
+        <v>0.9044007554093819</v>
       </c>
       <c r="BL11">
-        <v>0.760594463927321</v>
+        <v>0.9044007554093819</v>
       </c>
       <c r="BM11">
-        <v>0.7614180668442135</v>
+        <v>0.9044007554093819</v>
       </c>
       <c r="BN11">
-        <v>0.768275202041568</v>
+        <v>0.9044007554093819</v>
       </c>
       <c r="BO11">
-        <v>0.7779308496547687</v>
+        <v>0.9044007554093819</v>
       </c>
       <c r="BP11">
-        <v>0.8525570706032474</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BQ11">
-        <v>0.8706988287880734</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BR11">
-        <v>0.8721979696037302</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BS11">
-        <v>0.8740239492171442</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BT11">
-        <v>0.8772385798305714</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BU11">
-        <v>0.8778191090246508</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BV11">
-        <v>0.8870693952925075</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BW11">
-        <v>0.9072722833778502</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BX11">
-        <v>0.9076178064097626</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BY11">
-        <v>0.9207043823767004</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="BZ11">
-        <v>0.9490880597884283</v>
+        <v>0.9864365215640011</v>
       </c>
       <c r="CA11">
-        <v>0.986466387728634</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0.9931872935473151</v>
+        <v>1</v>
       </c>
       <c r="CC11">
-        <v>0.9938480199535896</v>
+        <v>1</v>
       </c>
       <c r="CD11">
         <v>1</v>
@@ -6372,34 +6372,34 @@
         <v>84</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>49</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5184234673331567</v>
       </c>
       <c r="F2">
-        <v>0.5317707550116761</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2">
         <v>46</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>107</v>
       </c>
       <c r="L2" t="s">
         <v>108</v>
@@ -6413,34 +6413,34 @@
         <v>85</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>49</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5003032198572628</v>
       </c>
       <c r="F3">
-        <v>0.6015659898316325</v>
+        <v>53</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3">
         <v>46</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
       </c>
       <c r="L3" t="s">
         <v>108</v>
@@ -6454,34 +6454,34 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>49</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5550988719663903</v>
       </c>
       <c r="F4">
-        <v>0.6818160440260019</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4">
         <v>46</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" t="s">
-        <v>107</v>
       </c>
       <c r="L4" t="s">
         <v>108</v>
@@ -6495,34 +6495,34 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.8255257763552866</v>
+      </c>
+      <c r="F5">
         <v>57</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5929567047385074</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5">
         <v>46</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>107</v>
       </c>
       <c r="L5" t="s">
         <v>108</v>
@@ -6536,34 +6536,34 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.6415737317233986</v>
+      </c>
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5333668854822164</v>
-      </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6">
         <v>46</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
       </c>
       <c r="L6" t="s">
         <v>108</v>
@@ -6577,34 +6577,34 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.6221745820416429</v>
       </c>
       <c r="F7">
-        <v>0.5489656057971996</v>
+        <v>53</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7">
         <v>46</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
       </c>
       <c r="L7" t="s">
         <v>108</v>
@@ -6618,34 +6618,34 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5189366504577042</v>
       </c>
       <c r="F8">
-        <v>0.5569524907319351</v>
+        <v>54</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8">
         <v>46</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
       </c>
       <c r="L8" t="s">
         <v>108</v>
@@ -6659,34 +6659,34 @@
         <v>91</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5129396655754804</v>
       </c>
       <c r="F9">
-        <v>0.6411843999519089</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9">
         <v>46</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
-        <v>107</v>
       </c>
       <c r="L9" t="s">
         <v>108</v>
@@ -6700,34 +6700,34 @@
         <v>92</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>49</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.7705291350292902</v>
+      </c>
+      <c r="F10">
         <v>58</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.608373838393876</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10">
         <v>46</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>107</v>
       </c>
       <c r="L10" t="s">
         <v>108</v>
@@ -6741,34 +6741,34 @@
         <v>93</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>48</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.8878302131755198</v>
+      </c>
+      <c r="F11">
         <v>58</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.6962798252998847</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11">
         <v>46</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" t="s">
-        <v>107</v>
       </c>
       <c r="L11" t="s">
         <v>108</v>
@@ -6836,34 +6836,34 @@
         <v>84</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>49</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7937054922780573</v>
       </c>
       <c r="F2">
-        <v>0.7002194961946672</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2">
         <v>46</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>107</v>
       </c>
       <c r="L2" t="s">
         <v>108</v>
@@ -6877,34 +6877,34 @@
         <v>85</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>49</v>
       </c>
       <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.8617620580671493</v>
+      </c>
+      <c r="F3">
         <v>61</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7285258043687366</v>
-      </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3">
         <v>46</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
       </c>
       <c r="L3" t="s">
         <v>108</v>
@@ -6918,34 +6918,34 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>49</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="F4">
-        <v>0.7106795767486607</v>
+        <v>59</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4">
         <v>46</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" t="s">
-        <v>107</v>
       </c>
       <c r="L4" t="s">
         <v>108</v>
@@ -6959,34 +6959,34 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="F5">
-        <v>0.7376825592633744</v>
+        <v>57</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5">
         <v>46</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>107</v>
       </c>
       <c r="L5" t="s">
         <v>108</v>
@@ -7000,34 +7000,34 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8066475534190974</v>
       </c>
       <c r="F6">
-        <v>0.74099696848214</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6">
         <v>46</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
       </c>
       <c r="L6" t="s">
         <v>108</v>
@@ -7041,34 +7041,34 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7025355014507045</v>
       </c>
       <c r="F7">
-        <v>0.7121240130093944</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7">
         <v>46</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
       </c>
       <c r="L7" t="s">
         <v>108</v>
@@ -7082,34 +7082,34 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7180973212828448</v>
       </c>
       <c r="F8">
-        <v>0.7824465375231817</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8">
         <v>46</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
       </c>
       <c r="L8" t="s">
         <v>108</v>
@@ -7123,34 +7123,34 @@
         <v>91</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8484824278401587</v>
       </c>
       <c r="F9">
-        <v>0.7109663294502717</v>
+        <v>58</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9">
         <v>46</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
-        <v>107</v>
       </c>
       <c r="L9" t="s">
         <v>108</v>
@@ -7164,34 +7164,34 @@
         <v>92</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>49</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7705291350292902</v>
       </c>
       <c r="F10">
-        <v>0.7240902706340496</v>
+        <v>58</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10">
         <v>46</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>107</v>
       </c>
       <c r="L10" t="s">
         <v>108</v>
@@ -7205,34 +7205,34 @@
         <v>93</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>48</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8878302131755198</v>
       </c>
       <c r="F11">
-        <v>0.7064558697922148</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11">
         <v>46</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" t="s">
-        <v>107</v>
       </c>
       <c r="L11" t="s">
         <v>108</v>
@@ -7300,34 +7300,34 @@
         <v>84</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>49</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8578407967887217</v>
       </c>
       <c r="F2">
-        <v>0.8066963068418809</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2">
         <v>46</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>107</v>
       </c>
       <c r="L2" t="s">
         <v>108</v>
@@ -7341,34 +7341,34 @@
         <v>85</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>49</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8617620580671493</v>
       </c>
       <c r="F3">
-        <v>0.8622891929110178</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3">
         <v>46</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
       </c>
       <c r="L3" t="s">
         <v>108</v>
@@ -7382,34 +7382,34 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>49</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.877931231981217</v>
       </c>
       <c r="F4">
-        <v>0.8149029185391274</v>
+        <v>59</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4">
         <v>46</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" t="s">
-        <v>107</v>
       </c>
       <c r="L4" t="s">
         <v>108</v>
@@ -7423,34 +7423,34 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8255257763552866</v>
       </c>
       <c r="F5">
-        <v>0.803862423113584</v>
+        <v>57</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5">
         <v>46</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>107</v>
       </c>
       <c r="L5" t="s">
         <v>108</v>
@@ -7464,34 +7464,34 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8066475534190974</v>
       </c>
       <c r="F6">
-        <v>0.813234023932871</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6">
         <v>46</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
       </c>
       <c r="L6" t="s">
         <v>108</v>
@@ -7505,34 +7505,34 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8493333705088334</v>
       </c>
       <c r="F7">
-        <v>0.8364061187637692</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7">
         <v>46</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
       </c>
       <c r="L7" t="s">
         <v>108</v>
@@ -7546,34 +7546,34 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8282736342392724</v>
       </c>
       <c r="F8">
-        <v>0.8301049235344163</v>
+        <v>62</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8">
         <v>46</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
       </c>
       <c r="L8" t="s">
         <v>108</v>
@@ -7587,34 +7587,34 @@
         <v>91</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>67</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8484824278401587</v>
       </c>
       <c r="F9">
-        <v>0.8290351111646502</v>
+        <v>58</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9">
         <v>46</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
-        <v>107</v>
       </c>
       <c r="L9" t="s">
         <v>108</v>
@@ -7628,34 +7628,34 @@
         <v>92</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>49</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8771402372194749</v>
       </c>
       <c r="F10">
-        <v>0.8478618377094037</v>
+        <v>61</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10">
         <v>46</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>107</v>
       </c>
       <c r="L10" t="s">
         <v>108</v>
@@ -7669,34 +7669,34 @@
         <v>93</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>48</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8878302131755198</v>
       </c>
       <c r="F11">
-        <v>0.8525570706032474</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11">
         <v>46</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" t="s">
-        <v>107</v>
       </c>
       <c r="L11" t="s">
         <v>108</v>
@@ -7764,34 +7764,34 @@
         <v>84</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>49</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9141745789685357</v>
       </c>
       <c r="F2">
-        <v>0.9331805546393421</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2">
         <v>46</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>107</v>
       </c>
       <c r="L2" t="s">
         <v>108</v>
@@ -7805,34 +7805,34 @@
         <v>85</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>49</v>
       </c>
       <c r="D3">
-        <v>75</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9704758247919294</v>
       </c>
       <c r="F3">
-        <v>0.917001226735577</v>
+        <v>68</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3">
         <v>46</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
       </c>
       <c r="L3" t="s">
         <v>108</v>
@@ -7846,34 +7846,34 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>49</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9030003819899131</v>
       </c>
       <c r="F4">
-        <v>0.9125436607893639</v>
+        <v>67</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4">
         <v>46</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" t="s">
-        <v>107</v>
       </c>
       <c r="L4" t="s">
         <v>108</v>
@@ -7887,34 +7887,34 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9156150651787029</v>
       </c>
       <c r="F5">
-        <v>0.9021118336084984</v>
+        <v>66</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5">
         <v>46</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>107</v>
       </c>
       <c r="L5" t="s">
         <v>108</v>
@@ -7928,34 +7928,34 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9242709047520075</v>
       </c>
       <c r="F6">
-        <v>0.9056269010039397</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6">
         <v>46</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
       </c>
       <c r="L6" t="s">
         <v>108</v>
@@ -7969,34 +7969,34 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.960665796180008</v>
       </c>
       <c r="F7">
-        <v>0.9063010717838177</v>
+        <v>68</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7">
         <v>46</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
       </c>
       <c r="L7" t="s">
         <v>108</v>
@@ -8010,34 +8010,34 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8">
-        <v>77</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9358131379240454</v>
       </c>
       <c r="F8">
-        <v>0.9062004674643568</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8">
         <v>46</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
       </c>
       <c r="L8" t="s">
         <v>108</v>
@@ -8051,34 +8051,34 @@
         <v>91</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>74</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9789010443443203</v>
       </c>
       <c r="F9">
-        <v>0.9068358015590668</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9">
         <v>46</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
-        <v>107</v>
       </c>
       <c r="L9" t="s">
         <v>108</v>
@@ -8092,34 +8092,34 @@
         <v>92</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>49</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9432185779539036</v>
       </c>
       <c r="F10">
-        <v>0.9064151512553611</v>
+        <v>67</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10">
         <v>46</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>107</v>
       </c>
       <c r="L10" t="s">
         <v>108</v>
@@ -8133,34 +8133,34 @@
         <v>93</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>48</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9044007554093819</v>
       </c>
       <c r="F11">
-        <v>0.9072722833778502</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11">
         <v>46</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" t="s">
-        <v>107</v>
       </c>
       <c r="L11" t="s">
         <v>108</v>
